--- a/nodes_source_analyses/transport/transport_truck_using_electricity.converter.xlsx
+++ b/nodes_source_analyses/transport/transport_truck_using_electricity.converter.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="160" windowWidth="24720" windowHeight="14540" tabRatio="762"/>
+    <workbookView xWindow="480" yWindow="160" windowWidth="24720" windowHeight="14540" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="95">
   <si>
     <t>Source</t>
   </si>
@@ -128,9 +128,6 @@
   </si>
   <si>
     <t>Fixed operational and maintenance costs per year</t>
-  </si>
-  <si>
-    <t>output.car_kms</t>
   </si>
   <si>
     <t xml:space="preserve">Technical lifetime </t>
@@ -246,9 +243,6 @@
   </si>
   <si>
     <t>part_load_efficiency_penalty</t>
-  </si>
-  <si>
-    <t>households_supplied_per_unit</t>
   </si>
   <si>
     <t>typical_input_capacity</t>
@@ -396,14 +390,39 @@
   <si>
     <t>http://refman.et-model.com/publications/1928</t>
   </si>
+  <si>
+    <r>
+      <t>output.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>truck</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_kms</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="32" x14ac:knownFonts="1">
     <font>
@@ -1206,7 +1225,7 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1215,7 +1234,7 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1245,7 +1264,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1268,11 +1286,11 @@
     <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="29" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="29" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1356,6 +1374,7 @@
     <xf numFmtId="0" fontId="31" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="244">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2236,7 +2255,7 @@
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -2269,16 +2288,16 @@
         <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2302,106 +2321,106 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1"/>
-      <c r="B9" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="63"/>
+      <c r="B9" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="62"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="65"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="64"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1"/>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="65" t="s">
         <v>35</v>
-      </c>
-      <c r="C11" s="66" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16" thickBot="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="64"/>
+      <c r="B12" s="63"/>
       <c r="C12" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16" thickBot="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="67" t="s">
-        <v>38</v>
+      <c r="B13" s="63"/>
+      <c r="C13" s="66" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="65" t="s">
-        <v>39</v>
+      <c r="B14" s="63"/>
+      <c r="C14" s="64" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="65"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="64"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1"/>
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="67" t="s">
         <v>40</v>
-      </c>
-      <c r="C16" s="68" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="69" t="s">
-        <v>42</v>
+      <c r="B17" s="63"/>
+      <c r="C17" s="68" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="70" t="s">
-        <v>43</v>
+      <c r="B18" s="63"/>
+      <c r="C18" s="69" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1"/>
-      <c r="B19" s="64"/>
-      <c r="C19" s="71" t="s">
-        <v>44</v>
+      <c r="B19" s="63"/>
+      <c r="C19" s="70" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="73" t="s">
-        <v>45</v>
+      <c r="B20" s="71"/>
+      <c r="C20" s="72" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="74" t="s">
-        <v>46</v>
+      <c r="B21" s="71"/>
+      <c r="C21" s="73" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="75" t="s">
+      <c r="B22" s="71"/>
+      <c r="C22" s="74" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="B23" s="71"/>
+      <c r="C23" s="75" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="B23" s="72"/>
-      <c r="C23" s="76" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2420,10 +2439,10 @@
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K35"/>
+  <dimension ref="B1:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2448,36 +2467,36 @@
       <c r="G1" s="31"/>
     </row>
     <row r="2" spans="2:10">
-      <c r="B2" s="123" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="125"/>
+      <c r="B2" s="122" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="124"/>
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="126"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="128"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="127"/>
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="126"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="128"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="127"/>
       <c r="F4" s="31"/>
       <c r="G4" s="31"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="129"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="131"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="130"/>
       <c r="F5" s="31"/>
       <c r="G5" s="31"/>
     </row>
@@ -2496,25 +2515,25 @@
       <c r="J7" s="33"/>
     </row>
     <row r="8" spans="2:10" s="20" customFormat="1">
-      <c r="B8" s="77"/>
-      <c r="C8" s="78" t="s">
+      <c r="B8" s="76"/>
+      <c r="C8" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="79" t="s">
+      <c r="D8" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="78" t="s">
+      <c r="E8" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78" t="s">
+      <c r="F8" s="77"/>
+      <c r="G8" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78" t="s">
+      <c r="H8" s="77"/>
+      <c r="I8" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="80"/>
+      <c r="J8" s="79"/>
     </row>
     <row r="9" spans="2:10" s="20" customFormat="1">
       <c r="B9" s="19"/>
@@ -2530,7 +2549,7 @@
     <row r="10" spans="2:10" s="20" customFormat="1" ht="16" thickBot="1">
       <c r="B10" s="19"/>
       <c r="C10" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="13"/>
@@ -2542,8 +2561,8 @@
     </row>
     <row r="11" spans="2:10" s="20" customFormat="1" ht="16" thickBot="1">
       <c r="B11" s="19"/>
-      <c r="C11" s="59" t="s">
-        <v>29</v>
+      <c r="C11" s="131" t="s">
+        <v>94</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>2</v>
@@ -2561,13 +2580,13 @@
     </row>
     <row r="12" spans="2:10" s="20" customFormat="1" ht="16" thickBot="1">
       <c r="B12" s="19"/>
-      <c r="C12" s="89" t="s">
-        <v>57</v>
+      <c r="C12" s="88" t="s">
+        <v>56</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="90">
+      <c r="E12" s="89">
         <v>0</v>
       </c>
       <c r="F12" s="34"/>
@@ -2580,13 +2599,13 @@
     </row>
     <row r="13" spans="2:10" s="20" customFormat="1" ht="16" thickBot="1">
       <c r="B13" s="19"/>
-      <c r="C13" s="89" t="s">
-        <v>58</v>
+      <c r="C13" s="88" t="s">
+        <v>57</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="90">
+      <c r="E13" s="89">
         <v>0</v>
       </c>
       <c r="F13" s="34"/>
@@ -2599,13 +2618,13 @@
     </row>
     <row r="14" spans="2:10" s="20" customFormat="1" ht="16" thickBot="1">
       <c r="B14" s="19"/>
-      <c r="C14" s="89" t="s">
-        <v>59</v>
+      <c r="C14" s="88" t="s">
+        <v>58</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="90">
+      <c r="E14" s="89">
         <v>1062.9980361595201</v>
       </c>
       <c r="F14" s="34"/>
@@ -2618,13 +2637,13 @@
     </row>
     <row r="15" spans="2:10" s="20" customFormat="1" ht="16" thickBot="1">
       <c r="B15" s="19"/>
-      <c r="C15" s="89" t="s">
-        <v>61</v>
+      <c r="C15" s="88" t="s">
+        <v>59</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="90">
+      <c r="E15" s="89">
         <v>0</v>
       </c>
       <c r="F15" s="34"/>
@@ -2637,13 +2656,13 @@
     </row>
     <row r="16" spans="2:10" s="20" customFormat="1" ht="16" thickBot="1">
       <c r="B16" s="19"/>
-      <c r="C16" s="89" t="s">
-        <v>60</v>
+      <c r="C16" s="88" t="s">
+        <v>63</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="90">
+      <c r="E16" s="89">
         <v>0</v>
       </c>
       <c r="F16" s="34"/>
@@ -2656,14 +2675,14 @@
     </row>
     <row r="17" spans="2:11" s="20" customFormat="1" ht="16" thickBot="1">
       <c r="B17" s="19"/>
-      <c r="C17" s="89" t="s">
-        <v>65</v>
+      <c r="C17" s="88" t="s">
+        <v>60</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="90">
-        <v>0</v>
+      <c r="E17" s="89">
+        <v>0.01</v>
       </c>
       <c r="F17" s="34"/>
       <c r="G17" s="34"/>
@@ -2675,14 +2694,14 @@
     </row>
     <row r="18" spans="2:11" s="20" customFormat="1" ht="16" thickBot="1">
       <c r="B18" s="19"/>
-      <c r="C18" s="89" t="s">
-        <v>62</v>
+      <c r="C18" s="88" t="s">
+        <v>61</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="90">
-        <v>0.01</v>
+      <c r="E18" s="89">
+        <v>0</v>
       </c>
       <c r="F18" s="34"/>
       <c r="G18" s="34"/>
@@ -2694,14 +2713,14 @@
     </row>
     <row r="19" spans="2:11" s="20" customFormat="1" ht="16" thickBot="1">
       <c r="B19" s="19"/>
-      <c r="C19" s="89" t="s">
-        <v>63</v>
+      <c r="C19" s="88" t="s">
+        <v>64</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="90">
-        <v>0</v>
+      <c r="E19" s="89">
+        <v>0.01</v>
       </c>
       <c r="F19" s="34"/>
       <c r="G19" s="34"/>
@@ -2713,17 +2732,19 @@
     </row>
     <row r="20" spans="2:11" s="20" customFormat="1" ht="16" thickBot="1">
       <c r="B20" s="19"/>
-      <c r="C20" s="89" t="s">
+      <c r="C20" s="88" t="s">
         <v>66</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="90">
-        <v>0.01</v>
+      <c r="E20" s="89">
+        <v>0</v>
       </c>
       <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
+      <c r="G20" s="91" t="s">
+        <v>70</v>
+      </c>
       <c r="H20" s="26"/>
       <c r="I20" s="29" t="s">
         <v>27</v>
@@ -2732,18 +2753,18 @@
     </row>
     <row r="21" spans="2:11" s="20" customFormat="1" ht="16" thickBot="1">
       <c r="B21" s="19"/>
-      <c r="C21" s="89" t="s">
-        <v>68</v>
+      <c r="C21" s="88" t="s">
+        <v>67</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="90">
-        <v>0</v>
+      <c r="E21" s="89">
+        <v>0.25</v>
       </c>
       <c r="F21" s="34"/>
-      <c r="G21" s="92" t="s">
-        <v>72</v>
+      <c r="G21" s="91" t="s">
+        <v>71</v>
       </c>
       <c r="H21" s="26"/>
       <c r="I21" s="29" t="s">
@@ -2753,18 +2774,18 @@
     </row>
     <row r="22" spans="2:11" s="20" customFormat="1" ht="16" thickBot="1">
       <c r="B22" s="19"/>
-      <c r="C22" s="89" t="s">
-        <v>69</v>
+      <c r="C22" s="88" t="s">
+        <v>68</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="90">
-        <v>0.25</v>
+      <c r="E22" s="89">
+        <v>0</v>
       </c>
       <c r="F22" s="34"/>
-      <c r="G22" s="92" t="s">
-        <v>73</v>
+      <c r="G22" s="91" t="s">
+        <v>72</v>
       </c>
       <c r="H22" s="26"/>
       <c r="I22" s="29" t="s">
@@ -2774,18 +2795,18 @@
     </row>
     <row r="23" spans="2:11" s="20" customFormat="1" ht="16" thickBot="1">
       <c r="B23" s="19"/>
-      <c r="C23" s="89" t="s">
-        <v>70</v>
+      <c r="C23" s="88" t="s">
+        <v>69</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E23" s="90">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F23" s="34"/>
-      <c r="G23" s="92" t="s">
-        <v>74</v>
+      <c r="G23" s="91" t="s">
+        <v>73</v>
       </c>
       <c r="H23" s="26"/>
       <c r="I23" s="29" t="s">
@@ -2793,211 +2814,190 @@
       </c>
       <c r="J23" s="14"/>
     </row>
-    <row r="24" spans="2:11" s="20" customFormat="1" ht="16" thickBot="1">
-      <c r="B24" s="19"/>
-      <c r="C24" s="89" t="s">
-        <v>71</v>
+    <row r="24" spans="2:11" ht="16" thickBot="1">
+      <c r="B24" s="35"/>
+      <c r="C24" s="88" t="s">
+        <v>62</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="91">
-        <v>0.25</v>
+      <c r="E24" s="90">
+        <v>0</v>
       </c>
       <c r="F24" s="34"/>
       <c r="G24" s="92" t="s">
-        <v>75</v>
-      </c>
-      <c r="H24" s="26"/>
-      <c r="I24" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="J24" s="14"/>
-    </row>
-    <row r="25" spans="2:11" ht="16" thickBot="1">
+        <v>74</v>
+      </c>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="31"/>
+    </row>
+    <row r="25" spans="2:11">
       <c r="B25" s="35"/>
-      <c r="C25" s="89" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" s="91">
-        <v>0</v>
-      </c>
-      <c r="F25" s="34"/>
-      <c r="G25" s="93" t="s">
-        <v>76</v>
-      </c>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
       <c r="H25" s="31"/>
       <c r="I25" s="31"/>
-      <c r="J25" s="84"/>
+      <c r="J25" s="83"/>
       <c r="K25" s="31"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" ht="16" thickBot="1">
       <c r="B26" s="35"/>
-      <c r="C26" s="31"/>
+      <c r="C26" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="D26" s="31"/>
       <c r="E26" s="31"/>
       <c r="F26" s="31"/>
       <c r="G26" s="31"/>
       <c r="H26" s="31"/>
       <c r="I26" s="31"/>
-      <c r="J26" s="84"/>
+      <c r="J26" s="83"/>
       <c r="K26" s="31"/>
     </row>
     <row r="27" spans="2:11" ht="16" thickBot="1">
       <c r="B27" s="35"/>
-      <c r="C27" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="84"/>
-      <c r="K27" s="31"/>
+      <c r="C27" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="36">
+        <f>'Research data'!G10</f>
+        <v>184310.5</v>
+      </c>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="H27" s="34"/>
+      <c r="I27" s="107" t="s">
+        <v>79</v>
+      </c>
+      <c r="J27" s="83"/>
     </row>
     <row r="28" spans="2:11" ht="16" thickBot="1">
       <c r="B28" s="35"/>
       <c r="C28" s="34" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="36">
-        <f>'Research data'!G10</f>
-        <v>184310.5</v>
+        <v>26</v>
+      </c>
+      <c r="E28" s="84">
+        <f>'Research data'!G11</f>
+        <v>2600</v>
       </c>
       <c r="F28" s="34"/>
       <c r="G28" s="34" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="H28" s="34"/>
-      <c r="I28" s="108" t="s">
-        <v>81</v>
-      </c>
-      <c r="J28" s="84"/>
+      <c r="I28" s="107" t="s">
+        <v>76</v>
+      </c>
+      <c r="J28" s="83"/>
     </row>
     <row r="29" spans="2:11" ht="16" thickBot="1">
-      <c r="B29" s="35"/>
-      <c r="C29" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="85">
-        <f>'Research data'!G11</f>
-        <v>2600</v>
+      <c r="B29" s="19"/>
+      <c r="C29" s="88" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="89">
+        <v>0.01</v>
       </c>
       <c r="F29" s="34"/>
-      <c r="G29" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="H29" s="34"/>
-      <c r="I29" s="108" t="s">
-        <v>78</v>
-      </c>
-      <c r="J29" s="84"/>
-    </row>
-    <row r="30" spans="2:11" ht="16" thickBot="1">
-      <c r="B30" s="19"/>
-      <c r="C30" s="89" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="90">
-        <v>0.01</v>
-      </c>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="29" t="s">
+      <c r="G29" s="34"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="J30" s="84"/>
-    </row>
-    <row r="31" spans="2:11">
+      <c r="J29" s="83"/>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="35"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="83"/>
+    </row>
+    <row r="31" spans="2:11" ht="16" thickBot="1">
       <c r="B31" s="35"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="82"/>
+      <c r="C31" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="80"/>
+      <c r="E31" s="81"/>
       <c r="F31" s="31"/>
       <c r="G31" s="31"/>
       <c r="H31" s="31"/>
-      <c r="I31" s="83"/>
-      <c r="J31" s="84"/>
+      <c r="I31" s="82"/>
+      <c r="J31" s="83"/>
     </row>
     <row r="32" spans="2:11" ht="16" thickBot="1">
       <c r="B32" s="35"/>
-      <c r="C32" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="81"/>
-      <c r="E32" s="82"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="83"/>
-      <c r="J32" s="84"/>
+      <c r="C32" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="36">
+        <f>'Research data'!G7</f>
+        <v>12</v>
+      </c>
+      <c r="F32" s="34"/>
+      <c r="G32" s="59" t="s">
+        <v>29</v>
+      </c>
+      <c r="H32" s="34"/>
+      <c r="I32" s="114" t="s">
+        <v>77</v>
+      </c>
+      <c r="J32" s="83"/>
     </row>
     <row r="33" spans="2:10" ht="16" thickBot="1">
       <c r="B33" s="35"/>
       <c r="C33" s="34" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" s="36">
-        <f>'Research data'!G7</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F33" s="34"/>
-      <c r="G33" s="60" t="s">
-        <v>30</v>
-      </c>
+      <c r="G33" s="34"/>
       <c r="H33" s="34"/>
-      <c r="I33" s="115" t="s">
-        <v>79</v>
-      </c>
-      <c r="J33" s="84"/>
-    </row>
-    <row r="34" spans="2:10" ht="16" thickBot="1">
-      <c r="B34" s="35"/>
-      <c r="C34" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E34" s="36">
-        <v>0</v>
-      </c>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="29" t="s">
+      <c r="I33" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="J34" s="84"/>
-    </row>
-    <row r="35" spans="2:10" ht="15" customHeight="1" thickBot="1">
-      <c r="B35" s="37"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="39"/>
+      <c r="J33" s="83"/>
+    </row>
+    <row r="34" spans="2:10" ht="15" customHeight="1" thickBot="1">
+      <c r="B34" s="37"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3091,28 +3091,28 @@
     </row>
     <row r="4" spans="2:13" s="20" customFormat="1">
       <c r="B4" s="19"/>
-      <c r="C4" s="88" t="s">
-        <v>52</v>
+      <c r="C4" s="87" t="s">
+        <v>51</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="88" t="s">
+      <c r="F4" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="88" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88" t="s">
-        <v>80</v>
-      </c>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88" t="s">
-        <v>85</v>
+      <c r="G4" s="87" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="18" customHeight="1">
@@ -3157,7 +3157,7 @@
         <v>12</v>
       </c>
       <c r="H7" s="47"/>
-      <c r="I7" s="114"/>
+      <c r="I7" s="113"/>
       <c r="J7" s="44"/>
       <c r="K7" s="51">
         <f>Notes!C12</f>
@@ -3183,7 +3183,7 @@
     <row r="9" spans="2:13" ht="16" thickBot="1">
       <c r="B9" s="43"/>
       <c r="C9" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
@@ -3194,12 +3194,12 @@
       <c r="J9" s="44"/>
       <c r="K9" s="44"/>
       <c r="L9" s="44"/>
-      <c r="M9" s="61"/>
+      <c r="M9" s="60"/>
     </row>
     <row r="10" spans="2:13" ht="16" thickBot="1">
       <c r="B10" s="43"/>
-      <c r="C10" s="87" t="s">
-        <v>54</v>
+      <c r="C10" s="86" t="s">
+        <v>53</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
@@ -3211,7 +3211,7 @@
         <v>184310.5</v>
       </c>
       <c r="H10" s="11"/>
-      <c r="I10" s="112">
+      <c r="I10" s="111">
         <f>Notes!C47</f>
         <v>200621</v>
       </c>
@@ -3221,18 +3221,18 @@
         <v>168000</v>
       </c>
       <c r="L10" s="47"/>
-      <c r="M10" s="110" t="s">
-        <v>84</v>
+      <c r="M10" s="109" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="16" thickBot="1">
       <c r="B11" s="43"/>
-      <c r="C11" s="109" t="s">
-        <v>55</v>
+      <c r="C11" s="108" t="s">
+        <v>54</v>
       </c>
       <c r="D11" s="52"/>
       <c r="E11" s="52"/>
-      <c r="F11" s="86" t="s">
+      <c r="F11" s="85" t="s">
         <v>26</v>
       </c>
       <c r="G11" s="53">
@@ -3240,15 +3240,15 @@
         <v>2600</v>
       </c>
       <c r="H11" s="54"/>
-      <c r="I11" s="111">
+      <c r="I11" s="110">
         <f>Notes!C54+Notes!C55</f>
         <v>2600</v>
       </c>
       <c r="J11" s="44"/>
       <c r="K11" s="47"/>
       <c r="L11" s="47"/>
-      <c r="M11" s="110" t="s">
-        <v>83</v>
+      <c r="M11" s="109" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3275,32 +3275,32 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="94" customWidth="1"/>
-    <col min="2" max="2" width="3.375" style="94" customWidth="1"/>
-    <col min="3" max="3" width="27.875" style="94" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="94" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="94" customWidth="1"/>
-    <col min="6" max="7" width="13.25" style="94" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="95" customWidth="1"/>
-    <col min="9" max="9" width="31.375" style="95" customWidth="1"/>
-    <col min="10" max="10" width="98.375" style="94" customWidth="1"/>
-    <col min="11" max="16384" width="33.125" style="94"/>
+    <col min="1" max="1" width="3.625" style="93" customWidth="1"/>
+    <col min="2" max="2" width="3.375" style="93" customWidth="1"/>
+    <col min="3" max="3" width="27.875" style="93" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="93" customWidth="1"/>
+    <col min="5" max="5" width="10.25" style="93" customWidth="1"/>
+    <col min="6" max="7" width="13.25" style="93" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="94" customWidth="1"/>
+    <col min="9" max="9" width="31.375" style="94" customWidth="1"/>
+    <col min="10" max="10" width="98.375" style="93" customWidth="1"/>
+    <col min="11" max="16384" width="33.125" style="93"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="16" thickBot="1"/>
     <row r="2" spans="2:10">
-      <c r="B2" s="96"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="97"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="96"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="99"/>
+      <c r="B3" s="98"/>
       <c r="C3" s="13" t="s">
         <v>16</v>
       </c>
@@ -3308,167 +3308,167 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="101"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="100"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="99"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="101"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="100"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="103"/>
-      <c r="C5" s="78" t="s">
+      <c r="B5" s="102"/>
+      <c r="C5" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="78" t="s">
+      <c r="D5" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="78" t="s">
+      <c r="E5" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="78" t="s">
+      <c r="F5" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="78" t="s">
-        <v>89</v>
-      </c>
-      <c r="H5" s="104" t="s">
+      <c r="G5" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="104" t="s">
-        <v>93</v>
-      </c>
-      <c r="J5" s="78" t="s">
+      <c r="I5" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" s="77" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:10">
-      <c r="B6" s="99"/>
+      <c r="B6" s="98"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="100"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="2:10">
-      <c r="B7" s="99"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="117" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="101" t="s">
+      <c r="B7" s="98"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="116" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="101">
+      <c r="F7" s="100">
         <v>2013</v>
       </c>
-      <c r="G7" s="101">
+      <c r="G7" s="100">
         <v>2012</v>
       </c>
-      <c r="H7" s="106"/>
-      <c r="I7" s="122" t="s">
-        <v>94</v>
-      </c>
-      <c r="J7" s="118" t="s">
+      <c r="H7" s="105"/>
+      <c r="I7" s="121" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" s="117" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="98"/>
+      <c r="C8" s="106" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="98"/>
+      <c r="C9" s="104" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="100"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="98"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="100"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="98"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="116" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="99"/>
-      <c r="C8" s="107" t="s">
+      <c r="E11" s="100" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="100">
+        <v>2013</v>
+      </c>
+      <c r="G11" s="100">
+        <v>2012</v>
+      </c>
+      <c r="H11" s="100"/>
+      <c r="I11" s="121" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" s="116" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="98"/>
+      <c r="C12" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="101"/>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="99"/>
-      <c r="C9" s="105" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="101"/>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="99"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="101"/>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="99"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="117" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" s="101" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="101">
-        <v>2013</v>
-      </c>
-      <c r="G11" s="101">
-        <v>2012</v>
-      </c>
-      <c r="H11" s="101"/>
-      <c r="I11" s="122" t="s">
-        <v>95</v>
-      </c>
-      <c r="J11" s="117" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="99"/>
-      <c r="C12" s="105" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="101"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="99"/>
-      <c r="C13" s="113" t="s">
+      <c r="B13" s="98"/>
+      <c r="C13" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="101"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="100"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3491,756 +3491,756 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="116" customWidth="1"/>
-    <col min="2" max="2" width="4.5" style="116" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="116" customWidth="1"/>
-    <col min="4" max="10" width="10.625" style="116"/>
-    <col min="11" max="11" width="10" style="116" customWidth="1"/>
-    <col min="12" max="16384" width="10.625" style="116"/>
+    <col min="1" max="1" width="5.625" style="115" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="115" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="115" customWidth="1"/>
+    <col min="4" max="10" width="10.625" style="115"/>
+    <col min="11" max="11" width="10" style="115" customWidth="1"/>
+    <col min="12" max="16384" width="10.625" style="115"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="16" thickBot="1"/>
     <row r="2" spans="2:11">
-      <c r="B2" s="119"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="120"/>
+      <c r="B2" s="118"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
     </row>
     <row r="3" spans="2:11" s="20" customFormat="1">
-      <c r="B3" s="77"/>
-      <c r="C3" s="78" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="78" t="s">
+      <c r="B3" s="76"/>
+      <c r="C3" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="120"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="116"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="120"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="116"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="120"/>
+      <c r="C6" s="116" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="116"/>
+      <c r="I6" s="116"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="120"/>
+      <c r="C7" s="116" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="121"/>
-      <c r="C4" s="117"/>
-      <c r="D4" s="117"/>
-      <c r="E4" s="117"/>
-      <c r="F4" s="117"/>
-      <c r="G4" s="117"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="117"/>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="121"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="117"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="117"/>
-      <c r="H5" s="117"/>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="B6" s="121"/>
-      <c r="C6" s="117" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="117"/>
-      <c r="E6" s="117"/>
-      <c r="F6" s="117"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
-      <c r="I6" s="117"/>
-      <c r="J6" s="117"/>
-      <c r="K6" s="117"/>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="121"/>
-      <c r="C7" s="117" t="s">
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="116"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="120"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="120"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="116"/>
+      <c r="G9" s="116"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="120"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="116"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="120"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="116"/>
+      <c r="H11" s="116"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="116"/>
+      <c r="K11" s="116"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="120"/>
+      <c r="C12" s="116">
+        <v>12</v>
+      </c>
+      <c r="D12" s="116" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="116"/>
+      <c r="F12" s="116"/>
+      <c r="G12" s="116"/>
+      <c r="H12" s="116"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="116"/>
+      <c r="K12" s="116"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="120"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="116"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="116"/>
+      <c r="K13" s="116"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="120"/>
+      <c r="C14" s="116"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="116"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="116"/>
+      <c r="I14" s="116"/>
+      <c r="J14" s="116"/>
+      <c r="K14" s="116"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="120"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="116"/>
+      <c r="F15" s="116"/>
+      <c r="G15" s="116"/>
+      <c r="H15" s="116"/>
+      <c r="I15" s="116"/>
+      <c r="J15" s="116"/>
+      <c r="K15" s="116"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="120"/>
+      <c r="C16" s="116"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="116"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="120"/>
+      <c r="C17" s="116"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="116"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="116"/>
+      <c r="H17" s="116"/>
+      <c r="I17" s="116"/>
+      <c r="J17" s="116"/>
+      <c r="K17" s="116"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="120"/>
+      <c r="C18" s="116"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="116"/>
+      <c r="F18" s="116"/>
+      <c r="G18" s="116"/>
+      <c r="H18" s="116"/>
+      <c r="I18" s="116"/>
+      <c r="J18" s="116"/>
+      <c r="K18" s="116"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="120"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="116"/>
+      <c r="F19" s="116"/>
+      <c r="G19" s="116"/>
+      <c r="H19" s="116"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="116"/>
+      <c r="K19" s="116"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="120"/>
+      <c r="C20" s="116"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="116"/>
+      <c r="F20" s="116"/>
+      <c r="G20" s="116"/>
+      <c r="H20" s="116"/>
+      <c r="I20" s="116"/>
+      <c r="J20" s="116"/>
+      <c r="K20" s="116"/>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="120"/>
+      <c r="C21" s="116"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="116"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="116"/>
+      <c r="K21" s="116"/>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="120"/>
+      <c r="C22" s="116" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="117"/>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="121"/>
-      <c r="C8" s="117"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="117"/>
-      <c r="K8" s="117"/>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="121"/>
-      <c r="C9" s="117"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="B10" s="121"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="121"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="117"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="117"/>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="121"/>
-      <c r="C12" s="117">
-        <v>12</v>
-      </c>
-      <c r="D12" s="117" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="117"/>
-    </row>
-    <row r="13" spans="2:11">
-      <c r="B13" s="121"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="117"/>
-    </row>
-    <row r="14" spans="2:11">
-      <c r="B14" s="121"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="117"/>
-      <c r="K14" s="117"/>
-    </row>
-    <row r="15" spans="2:11">
-      <c r="B15" s="121"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="117"/>
-      <c r="J15" s="117"/>
-      <c r="K15" s="117"/>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="B16" s="121"/>
-      <c r="C16" s="117"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="117"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="117"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="117"/>
-    </row>
-    <row r="17" spans="2:11">
-      <c r="B17" s="121"/>
-      <c r="C17" s="117"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="117"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="117"/>
-    </row>
-    <row r="18" spans="2:11">
-      <c r="B18" s="121"/>
-      <c r="C18" s="117"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="117"/>
-      <c r="I18" s="117"/>
-      <c r="J18" s="117"/>
-      <c r="K18" s="117"/>
-    </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="121"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="117"/>
-      <c r="I19" s="117"/>
-      <c r="J19" s="117"/>
-      <c r="K19" s="117"/>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="121"/>
-      <c r="C20" s="117"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="117"/>
-      <c r="K20" s="117"/>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="121"/>
-      <c r="C21" s="117"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="117"/>
-      <c r="K21" s="117"/>
-    </row>
-    <row r="22" spans="2:11">
-      <c r="B22" s="121"/>
-      <c r="C22" s="117" t="s">
+      <c r="D22" s="116"/>
+      <c r="E22" s="116"/>
+      <c r="F22" s="116"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="116"/>
+      <c r="I22" s="116"/>
+      <c r="J22" s="116"/>
+      <c r="K22" s="116"/>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="120"/>
+      <c r="C23" s="116"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="116"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="116"/>
+      <c r="I23" s="116"/>
+      <c r="J23" s="116"/>
+      <c r="K23" s="116"/>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="120"/>
+      <c r="C24" s="116"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="116"/>
+      <c r="F24" s="116"/>
+      <c r="G24" s="116"/>
+      <c r="H24" s="116"/>
+      <c r="I24" s="116"/>
+      <c r="J24" s="116"/>
+      <c r="K24" s="116"/>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="120"/>
+      <c r="C25" s="116"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="116"/>
+      <c r="F25" s="116"/>
+      <c r="G25" s="116"/>
+      <c r="H25" s="116"/>
+      <c r="I25" s="116"/>
+      <c r="J25" s="116"/>
+      <c r="K25" s="116"/>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="120"/>
+      <c r="C26" s="116"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="116"/>
+      <c r="F26" s="116"/>
+      <c r="G26" s="116"/>
+      <c r="H26" s="116"/>
+      <c r="I26" s="116"/>
+      <c r="J26" s="116"/>
+      <c r="K26" s="116"/>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="120"/>
+      <c r="C27" s="116"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="116"/>
+      <c r="F27" s="116"/>
+      <c r="G27" s="116"/>
+      <c r="H27" s="116"/>
+      <c r="I27" s="116"/>
+      <c r="J27" s="116"/>
+      <c r="K27" s="116"/>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="120"/>
+      <c r="C28" s="116"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="116"/>
+      <c r="I28" s="116"/>
+      <c r="J28" s="116"/>
+      <c r="K28" s="116"/>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" s="120"/>
+      <c r="C29" s="116">
+        <v>168000</v>
+      </c>
+      <c r="D29" s="116" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="116"/>
+      <c r="F29" s="116"/>
+      <c r="G29" s="116"/>
+      <c r="H29" s="116"/>
+      <c r="I29" s="116"/>
+      <c r="J29" s="116"/>
+      <c r="K29" s="116"/>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="120"/>
+      <c r="C30" s="116"/>
+      <c r="D30" s="116"/>
+      <c r="E30" s="116"/>
+      <c r="F30" s="116"/>
+      <c r="G30" s="116"/>
+      <c r="H30" s="116"/>
+      <c r="I30" s="116"/>
+      <c r="J30" s="116"/>
+      <c r="K30" s="116"/>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" s="120"/>
+      <c r="C31" s="116"/>
+      <c r="D31" s="116"/>
+      <c r="E31" s="116"/>
+      <c r="F31" s="116"/>
+      <c r="G31" s="116"/>
+      <c r="H31" s="116"/>
+      <c r="I31" s="116"/>
+      <c r="J31" s="116"/>
+      <c r="K31" s="116"/>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" s="120"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="116"/>
+      <c r="E32" s="116"/>
+      <c r="F32" s="116"/>
+      <c r="G32" s="116"/>
+      <c r="H32" s="116"/>
+      <c r="I32" s="116"/>
+      <c r="J32" s="116"/>
+      <c r="K32" s="116"/>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33" s="120"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="116"/>
+      <c r="E33" s="116"/>
+      <c r="F33" s="116"/>
+      <c r="G33" s="116"/>
+      <c r="H33" s="116"/>
+      <c r="I33" s="116"/>
+      <c r="J33" s="116"/>
+      <c r="K33" s="116"/>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34" s="120"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="116"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="116"/>
+      <c r="I34" s="116"/>
+      <c r="J34" s="116"/>
+      <c r="K34" s="116"/>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="B35" s="120"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="116"/>
+      <c r="F35" s="116"/>
+      <c r="G35" s="116"/>
+      <c r="H35" s="116"/>
+      <c r="I35" s="116"/>
+      <c r="J35" s="116"/>
+      <c r="K35" s="116"/>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="B36" s="120"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="116"/>
+      <c r="E36" s="116"/>
+      <c r="F36" s="116"/>
+      <c r="G36" s="116"/>
+      <c r="H36" s="116"/>
+      <c r="I36" s="116"/>
+      <c r="J36" s="116"/>
+      <c r="K36" s="116"/>
+    </row>
+    <row r="37" spans="2:11">
+      <c r="B37" s="120"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="116"/>
+      <c r="E37" s="116"/>
+      <c r="F37" s="116"/>
+      <c r="G37" s="116"/>
+      <c r="H37" s="116"/>
+      <c r="I37" s="116"/>
+      <c r="J37" s="116"/>
+      <c r="K37" s="116"/>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="B38" s="120"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="116"/>
+      <c r="E38" s="116"/>
+      <c r="F38" s="116"/>
+      <c r="G38" s="116"/>
+      <c r="H38" s="116"/>
+      <c r="I38" s="116"/>
+      <c r="J38" s="116"/>
+      <c r="K38" s="116"/>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="B39" s="120"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="116"/>
+      <c r="E39" s="116"/>
+      <c r="F39" s="116"/>
+      <c r="G39" s="116"/>
+      <c r="H39" s="116"/>
+      <c r="I39" s="116"/>
+      <c r="J39" s="116"/>
+      <c r="K39" s="116"/>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="B40" s="120"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="116"/>
+      <c r="E40" s="116"/>
+      <c r="F40" s="116"/>
+      <c r="G40" s="116"/>
+      <c r="H40" s="116"/>
+      <c r="I40" s="116"/>
+      <c r="J40" s="116"/>
+      <c r="K40" s="116"/>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="B41" s="120"/>
+      <c r="C41" s="116" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="116"/>
+      <c r="E41" s="116"/>
+      <c r="F41" s="116"/>
+      <c r="G41" s="116"/>
+      <c r="H41" s="116"/>
+      <c r="I41" s="116"/>
+      <c r="J41" s="116"/>
+      <c r="K41" s="116"/>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="B42" s="120"/>
+      <c r="C42" s="116" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" s="116"/>
+      <c r="E42" s="116"/>
+      <c r="F42" s="116"/>
+      <c r="G42" s="116"/>
+      <c r="H42" s="116"/>
+      <c r="I42" s="116"/>
+      <c r="J42" s="116"/>
+      <c r="K42" s="116"/>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="B43" s="120"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="116"/>
+      <c r="E43" s="116"/>
+      <c r="F43" s="116"/>
+      <c r="G43" s="116"/>
+      <c r="H43" s="116"/>
+      <c r="I43" s="116"/>
+      <c r="J43" s="116"/>
+      <c r="K43" s="116"/>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="B44" s="120"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="116"/>
+      <c r="E44" s="116"/>
+      <c r="F44" s="116"/>
+      <c r="G44" s="116"/>
+      <c r="H44" s="116"/>
+      <c r="I44" s="116"/>
+      <c r="J44" s="116"/>
+      <c r="K44" s="116"/>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="B45" s="120"/>
+      <c r="C45" s="116"/>
+      <c r="D45" s="116"/>
+      <c r="E45" s="116"/>
+      <c r="F45" s="116"/>
+      <c r="G45" s="116"/>
+      <c r="H45" s="116"/>
+      <c r="I45" s="116"/>
+      <c r="J45" s="116"/>
+      <c r="K45" s="116"/>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="B46" s="120"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="116"/>
+      <c r="E46" s="116"/>
+      <c r="F46" s="116"/>
+      <c r="G46" s="116"/>
+      <c r="H46" s="116"/>
+      <c r="I46" s="116"/>
+      <c r="J46" s="116"/>
+      <c r="K46" s="116"/>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="B47" s="120"/>
+      <c r="C47" s="116">
+        <v>200621</v>
+      </c>
+      <c r="D47" s="116" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="116"/>
+      <c r="F47" s="116"/>
+      <c r="G47" s="116"/>
+      <c r="H47" s="116"/>
+      <c r="I47" s="116"/>
+      <c r="J47" s="116"/>
+      <c r="K47" s="116"/>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48" s="120"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="116"/>
+      <c r="E48" s="116"/>
+      <c r="F48" s="116"/>
+      <c r="G48" s="116"/>
+      <c r="H48" s="116"/>
+      <c r="I48" s="116"/>
+      <c r="J48" s="116"/>
+      <c r="K48" s="116"/>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49" s="120"/>
+      <c r="C49" s="116"/>
+      <c r="D49" s="116"/>
+      <c r="E49" s="116"/>
+      <c r="F49" s="116"/>
+      <c r="G49" s="116"/>
+      <c r="H49" s="116"/>
+      <c r="I49" s="116"/>
+      <c r="J49" s="116"/>
+      <c r="K49" s="116"/>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="B50" s="120"/>
+      <c r="C50" s="116"/>
+      <c r="D50" s="116"/>
+      <c r="E50" s="116"/>
+      <c r="F50" s="116"/>
+      <c r="G50" s="116"/>
+      <c r="H50" s="116"/>
+      <c r="I50" s="116"/>
+      <c r="J50" s="116"/>
+      <c r="K50" s="116"/>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="B51" s="120"/>
+      <c r="C51" s="116"/>
+      <c r="D51" s="116"/>
+      <c r="E51" s="116"/>
+      <c r="F51" s="116"/>
+      <c r="G51" s="116"/>
+      <c r="H51" s="116"/>
+      <c r="I51" s="116"/>
+      <c r="J51" s="116"/>
+      <c r="K51" s="116"/>
+    </row>
+    <row r="52" spans="2:11">
+      <c r="B52" s="120"/>
+      <c r="C52" s="116"/>
+      <c r="D52" s="116"/>
+      <c r="E52" s="116"/>
+      <c r="F52" s="116"/>
+      <c r="G52" s="116"/>
+      <c r="H52" s="116"/>
+      <c r="I52" s="116"/>
+      <c r="J52" s="116"/>
+      <c r="K52" s="116"/>
+    </row>
+    <row r="53" spans="2:11">
+      <c r="B53" s="120"/>
+      <c r="C53" s="116"/>
+      <c r="D53" s="116"/>
+      <c r="E53" s="116"/>
+      <c r="F53" s="116"/>
+      <c r="G53" s="116"/>
+      <c r="H53" s="116"/>
+      <c r="I53" s="116"/>
+      <c r="J53" s="116"/>
+      <c r="K53" s="116"/>
+    </row>
+    <row r="54" spans="2:11">
+      <c r="B54" s="120"/>
+      <c r="C54" s="116">
+        <v>2080</v>
+      </c>
+      <c r="D54" s="116" t="s">
         <v>90</v>
       </c>
-      <c r="D22" s="117"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="117"/>
-      <c r="K22" s="117"/>
-    </row>
-    <row r="23" spans="2:11">
-      <c r="B23" s="121"/>
-      <c r="C23" s="117"/>
-      <c r="D23" s="117"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="117"/>
-      <c r="I23" s="117"/>
-      <c r="J23" s="117"/>
-      <c r="K23" s="117"/>
-    </row>
-    <row r="24" spans="2:11">
-      <c r="B24" s="121"/>
-      <c r="C24" s="117"/>
-      <c r="D24" s="117"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="117"/>
-      <c r="I24" s="117"/>
-      <c r="J24" s="117"/>
-      <c r="K24" s="117"/>
-    </row>
-    <row r="25" spans="2:11">
-      <c r="B25" s="121"/>
-      <c r="C25" s="117"/>
-      <c r="D25" s="117"/>
-      <c r="E25" s="117"/>
-      <c r="F25" s="117"/>
-      <c r="G25" s="117"/>
-      <c r="H25" s="117"/>
-      <c r="I25" s="117"/>
-      <c r="J25" s="117"/>
-      <c r="K25" s="117"/>
-    </row>
-    <row r="26" spans="2:11">
-      <c r="B26" s="121"/>
-      <c r="C26" s="117"/>
-      <c r="D26" s="117"/>
-      <c r="E26" s="117"/>
-      <c r="F26" s="117"/>
-      <c r="G26" s="117"/>
-      <c r="H26" s="117"/>
-      <c r="I26" s="117"/>
-      <c r="J26" s="117"/>
-      <c r="K26" s="117"/>
-    </row>
-    <row r="27" spans="2:11">
-      <c r="B27" s="121"/>
-      <c r="C27" s="117"/>
-      <c r="D27" s="117"/>
-      <c r="E27" s="117"/>
-      <c r="F27" s="117"/>
-      <c r="G27" s="117"/>
-      <c r="H27" s="117"/>
-      <c r="I27" s="117"/>
-      <c r="J27" s="117"/>
-      <c r="K27" s="117"/>
-    </row>
-    <row r="28" spans="2:11">
-      <c r="B28" s="121"/>
-      <c r="C28" s="117"/>
-      <c r="D28" s="117"/>
-      <c r="E28" s="117"/>
-      <c r="F28" s="117"/>
-      <c r="G28" s="117"/>
-      <c r="H28" s="117"/>
-      <c r="I28" s="117"/>
-      <c r="J28" s="117"/>
-      <c r="K28" s="117"/>
-    </row>
-    <row r="29" spans="2:11">
-      <c r="B29" s="121"/>
-      <c r="C29" s="117">
-        <v>168000</v>
-      </c>
-      <c r="D29" s="117" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="117"/>
-      <c r="F29" s="117"/>
-      <c r="G29" s="117"/>
-      <c r="H29" s="117"/>
-      <c r="I29" s="117"/>
-      <c r="J29" s="117"/>
-      <c r="K29" s="117"/>
-    </row>
-    <row r="30" spans="2:11">
-      <c r="B30" s="121"/>
-      <c r="C30" s="117"/>
-      <c r="D30" s="117"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="117"/>
-      <c r="G30" s="117"/>
-      <c r="H30" s="117"/>
-      <c r="I30" s="117"/>
-      <c r="J30" s="117"/>
-      <c r="K30" s="117"/>
-    </row>
-    <row r="31" spans="2:11">
-      <c r="B31" s="121"/>
-      <c r="C31" s="117"/>
-      <c r="D31" s="117"/>
-      <c r="E31" s="117"/>
-      <c r="F31" s="117"/>
-      <c r="G31" s="117"/>
-      <c r="H31" s="117"/>
-      <c r="I31" s="117"/>
-      <c r="J31" s="117"/>
-      <c r="K31" s="117"/>
-    </row>
-    <row r="32" spans="2:11">
-      <c r="B32" s="121"/>
-      <c r="C32" s="117"/>
-      <c r="D32" s="117"/>
-      <c r="E32" s="117"/>
-      <c r="F32" s="117"/>
-      <c r="G32" s="117"/>
-      <c r="H32" s="117"/>
-      <c r="I32" s="117"/>
-      <c r="J32" s="117"/>
-      <c r="K32" s="117"/>
-    </row>
-    <row r="33" spans="2:11">
-      <c r="B33" s="121"/>
-      <c r="C33" s="117"/>
-      <c r="D33" s="117"/>
-      <c r="E33" s="117"/>
-      <c r="F33" s="117"/>
-      <c r="G33" s="117"/>
-      <c r="H33" s="117"/>
-      <c r="I33" s="117"/>
-      <c r="J33" s="117"/>
-      <c r="K33" s="117"/>
-    </row>
-    <row r="34" spans="2:11">
-      <c r="B34" s="121"/>
-      <c r="C34" s="117"/>
-      <c r="D34" s="117"/>
-      <c r="E34" s="117"/>
-      <c r="F34" s="117"/>
-      <c r="G34" s="117"/>
-      <c r="H34" s="117"/>
-      <c r="I34" s="117"/>
-      <c r="J34" s="117"/>
-      <c r="K34" s="117"/>
-    </row>
-    <row r="35" spans="2:11">
-      <c r="B35" s="121"/>
-      <c r="C35" s="117"/>
-      <c r="D35" s="117"/>
-      <c r="E35" s="117"/>
-      <c r="F35" s="117"/>
-      <c r="G35" s="117"/>
-      <c r="H35" s="117"/>
-      <c r="I35" s="117"/>
-      <c r="J35" s="117"/>
-      <c r="K35" s="117"/>
-    </row>
-    <row r="36" spans="2:11">
-      <c r="B36" s="121"/>
-      <c r="C36" s="117"/>
-      <c r="D36" s="117"/>
-      <c r="E36" s="117"/>
-      <c r="F36" s="117"/>
-      <c r="G36" s="117"/>
-      <c r="H36" s="117"/>
-      <c r="I36" s="117"/>
-      <c r="J36" s="117"/>
-      <c r="K36" s="117"/>
-    </row>
-    <row r="37" spans="2:11">
-      <c r="B37" s="121"/>
-      <c r="C37" s="117"/>
-      <c r="D37" s="117"/>
-      <c r="E37" s="117"/>
-      <c r="F37" s="117"/>
-      <c r="G37" s="117"/>
-      <c r="H37" s="117"/>
-      <c r="I37" s="117"/>
-      <c r="J37" s="117"/>
-      <c r="K37" s="117"/>
-    </row>
-    <row r="38" spans="2:11">
-      <c r="B38" s="121"/>
-      <c r="C38" s="117"/>
-      <c r="D38" s="117"/>
-      <c r="E38" s="117"/>
-      <c r="F38" s="117"/>
-      <c r="G38" s="117"/>
-      <c r="H38" s="117"/>
-      <c r="I38" s="117"/>
-      <c r="J38" s="117"/>
-      <c r="K38" s="117"/>
-    </row>
-    <row r="39" spans="2:11">
-      <c r="B39" s="121"/>
-      <c r="C39" s="117"/>
-      <c r="D39" s="117"/>
-      <c r="E39" s="117"/>
-      <c r="F39" s="117"/>
-      <c r="G39" s="117"/>
-      <c r="H39" s="117"/>
-      <c r="I39" s="117"/>
-      <c r="J39" s="117"/>
-      <c r="K39" s="117"/>
-    </row>
-    <row r="40" spans="2:11">
-      <c r="B40" s="121"/>
-      <c r="C40" s="117"/>
-      <c r="D40" s="117"/>
-      <c r="E40" s="117"/>
-      <c r="F40" s="117"/>
-      <c r="G40" s="117"/>
-      <c r="H40" s="117"/>
-      <c r="I40" s="117"/>
-      <c r="J40" s="117"/>
-      <c r="K40" s="117"/>
-    </row>
-    <row r="41" spans="2:11">
-      <c r="B41" s="121"/>
-      <c r="C41" s="117" t="s">
-        <v>78</v>
-      </c>
-      <c r="D41" s="117"/>
-      <c r="E41" s="117"/>
-      <c r="F41" s="117"/>
-      <c r="G41" s="117"/>
-      <c r="H41" s="117"/>
-      <c r="I41" s="117"/>
-      <c r="J41" s="117"/>
-      <c r="K41" s="117"/>
-    </row>
-    <row r="42" spans="2:11">
-      <c r="B42" s="121"/>
-      <c r="C42" s="117" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" s="117"/>
-      <c r="E42" s="117"/>
-      <c r="F42" s="117"/>
-      <c r="G42" s="117"/>
-      <c r="H42" s="117"/>
-      <c r="I42" s="117"/>
-      <c r="J42" s="117"/>
-      <c r="K42" s="117"/>
-    </row>
-    <row r="43" spans="2:11">
-      <c r="B43" s="121"/>
-      <c r="C43" s="117"/>
-      <c r="D43" s="117"/>
-      <c r="E43" s="117"/>
-      <c r="F43" s="117"/>
-      <c r="G43" s="117"/>
-      <c r="H43" s="117"/>
-      <c r="I43" s="117"/>
-      <c r="J43" s="117"/>
-      <c r="K43" s="117"/>
-    </row>
-    <row r="44" spans="2:11">
-      <c r="B44" s="121"/>
-      <c r="C44" s="117"/>
-      <c r="D44" s="117"/>
-      <c r="E44" s="117"/>
-      <c r="F44" s="117"/>
-      <c r="G44" s="117"/>
-      <c r="H44" s="117"/>
-      <c r="I44" s="117"/>
-      <c r="J44" s="117"/>
-      <c r="K44" s="117"/>
-    </row>
-    <row r="45" spans="2:11">
-      <c r="B45" s="121"/>
-      <c r="C45" s="117"/>
-      <c r="D45" s="117"/>
-      <c r="E45" s="117"/>
-      <c r="F45" s="117"/>
-      <c r="G45" s="117"/>
-      <c r="H45" s="117"/>
-      <c r="I45" s="117"/>
-      <c r="J45" s="117"/>
-      <c r="K45" s="117"/>
-    </row>
-    <row r="46" spans="2:11">
-      <c r="B46" s="121"/>
-      <c r="C46" s="117"/>
-      <c r="D46" s="117"/>
-      <c r="E46" s="117"/>
-      <c r="F46" s="117"/>
-      <c r="G46" s="117"/>
-      <c r="H46" s="117"/>
-      <c r="I46" s="117"/>
-      <c r="J46" s="117"/>
-      <c r="K46" s="117"/>
-    </row>
-    <row r="47" spans="2:11">
-      <c r="B47" s="121"/>
-      <c r="C47" s="117">
-        <v>200621</v>
-      </c>
-      <c r="D47" s="117" t="s">
-        <v>21</v>
-      </c>
-      <c r="E47" s="117"/>
-      <c r="F47" s="117"/>
-      <c r="G47" s="117"/>
-      <c r="H47" s="117"/>
-      <c r="I47" s="117"/>
-      <c r="J47" s="117"/>
-      <c r="K47" s="117"/>
-    </row>
-    <row r="48" spans="2:11">
-      <c r="B48" s="121"/>
-      <c r="C48" s="117"/>
-      <c r="D48" s="117"/>
-      <c r="E48" s="117"/>
-      <c r="F48" s="117"/>
-      <c r="G48" s="117"/>
-      <c r="H48" s="117"/>
-      <c r="I48" s="117"/>
-      <c r="J48" s="117"/>
-      <c r="K48" s="117"/>
-    </row>
-    <row r="49" spans="2:11">
-      <c r="B49" s="121"/>
-      <c r="C49" s="117"/>
-      <c r="D49" s="117"/>
-      <c r="E49" s="117"/>
-      <c r="F49" s="117"/>
-      <c r="G49" s="117"/>
-      <c r="H49" s="117"/>
-      <c r="I49" s="117"/>
-      <c r="J49" s="117"/>
-      <c r="K49" s="117"/>
-    </row>
-    <row r="50" spans="2:11">
-      <c r="B50" s="121"/>
-      <c r="C50" s="117"/>
-      <c r="D50" s="117"/>
-      <c r="E50" s="117"/>
-      <c r="F50" s="117"/>
-      <c r="G50" s="117"/>
-      <c r="H50" s="117"/>
-      <c r="I50" s="117"/>
-      <c r="J50" s="117"/>
-      <c r="K50" s="117"/>
-    </row>
-    <row r="51" spans="2:11">
-      <c r="B51" s="121"/>
-      <c r="C51" s="117"/>
-      <c r="D51" s="117"/>
-      <c r="E51" s="117"/>
-      <c r="F51" s="117"/>
-      <c r="G51" s="117"/>
-      <c r="H51" s="117"/>
-      <c r="I51" s="117"/>
-      <c r="J51" s="117"/>
-      <c r="K51" s="117"/>
-    </row>
-    <row r="52" spans="2:11">
-      <c r="B52" s="121"/>
-      <c r="C52" s="117"/>
-      <c r="D52" s="117"/>
-      <c r="E52" s="117"/>
-      <c r="F52" s="117"/>
-      <c r="G52" s="117"/>
-      <c r="H52" s="117"/>
-      <c r="I52" s="117"/>
-      <c r="J52" s="117"/>
-      <c r="K52" s="117"/>
-    </row>
-    <row r="53" spans="2:11">
-      <c r="B53" s="121"/>
-      <c r="C53" s="117"/>
-      <c r="D53" s="117"/>
-      <c r="E53" s="117"/>
-      <c r="F53" s="117"/>
-      <c r="G53" s="117"/>
-      <c r="H53" s="117"/>
-      <c r="I53" s="117"/>
-      <c r="J53" s="117"/>
-      <c r="K53" s="117"/>
-    </row>
-    <row r="54" spans="2:11">
-      <c r="B54" s="121"/>
-      <c r="C54" s="117">
-        <v>2080</v>
-      </c>
-      <c r="D54" s="117" t="s">
-        <v>92</v>
-      </c>
-      <c r="E54" s="117"/>
-      <c r="F54" s="117"/>
-      <c r="G54" s="117"/>
-      <c r="H54" s="117"/>
-      <c r="I54" s="117"/>
-      <c r="J54" s="117"/>
-      <c r="K54" s="117"/>
+      <c r="E54" s="116"/>
+      <c r="F54" s="116"/>
+      <c r="G54" s="116"/>
+      <c r="H54" s="116"/>
+      <c r="I54" s="116"/>
+      <c r="J54" s="116"/>
+      <c r="K54" s="116"/>
     </row>
     <row r="55" spans="2:11">
-      <c r="B55" s="121"/>
-      <c r="C55" s="117">
+      <c r="B55" s="120"/>
+      <c r="C55" s="116">
         <v>520</v>
       </c>
-      <c r="D55" s="117" t="s">
-        <v>92</v>
-      </c>
-      <c r="E55" s="117"/>
-      <c r="F55" s="117"/>
-      <c r="G55" s="117"/>
-      <c r="H55" s="117"/>
-      <c r="I55" s="117"/>
-      <c r="J55" s="117"/>
-      <c r="K55" s="117"/>
+      <c r="D55" s="116" t="s">
+        <v>90</v>
+      </c>
+      <c r="E55" s="116"/>
+      <c r="F55" s="116"/>
+      <c r="G55" s="116"/>
+      <c r="H55" s="116"/>
+      <c r="I55" s="116"/>
+      <c r="J55" s="116"/>
+      <c r="K55" s="116"/>
     </row>
     <row r="56" spans="2:11">
-      <c r="B56" s="121"/>
-      <c r="C56" s="117"/>
-      <c r="D56" s="117"/>
-      <c r="E56" s="117"/>
-      <c r="F56" s="117"/>
-      <c r="G56" s="117"/>
-      <c r="H56" s="117"/>
-      <c r="I56" s="117"/>
-      <c r="J56" s="117"/>
-      <c r="K56" s="117"/>
+      <c r="B56" s="120"/>
+      <c r="C56" s="116"/>
+      <c r="D56" s="116"/>
+      <c r="E56" s="116"/>
+      <c r="F56" s="116"/>
+      <c r="G56" s="116"/>
+      <c r="H56" s="116"/>
+      <c r="I56" s="116"/>
+      <c r="J56" s="116"/>
+      <c r="K56" s="116"/>
     </row>
     <row r="57" spans="2:11">
-      <c r="B57" s="121"/>
-      <c r="C57" s="117"/>
-      <c r="D57" s="117"/>
-      <c r="E57" s="117"/>
-      <c r="F57" s="117"/>
-      <c r="G57" s="117"/>
-      <c r="H57" s="117"/>
-      <c r="I57" s="117"/>
-      <c r="J57" s="117"/>
-      <c r="K57" s="117"/>
+      <c r="B57" s="120"/>
+      <c r="C57" s="116"/>
+      <c r="D57" s="116"/>
+      <c r="E57" s="116"/>
+      <c r="F57" s="116"/>
+      <c r="G57" s="116"/>
+      <c r="H57" s="116"/>
+      <c r="I57" s="116"/>
+      <c r="J57" s="116"/>
+      <c r="K57" s="116"/>
     </row>
     <row r="58" spans="2:11">
-      <c r="B58" s="121"/>
-      <c r="C58" s="117"/>
-      <c r="D58" s="117"/>
-      <c r="E58" s="117"/>
-      <c r="F58" s="117"/>
-      <c r="G58" s="117"/>
-      <c r="H58" s="117"/>
-      <c r="I58" s="117"/>
-      <c r="J58" s="117"/>
-      <c r="K58" s="117"/>
+      <c r="B58" s="120"/>
+      <c r="C58" s="116"/>
+      <c r="D58" s="116"/>
+      <c r="E58" s="116"/>
+      <c r="F58" s="116"/>
+      <c r="G58" s="116"/>
+      <c r="H58" s="116"/>
+      <c r="I58" s="116"/>
+      <c r="J58" s="116"/>
+      <c r="K58" s="116"/>
     </row>
     <row r="59" spans="2:11">
-      <c r="B59" s="121"/>
-      <c r="C59" s="117"/>
-      <c r="D59" s="117"/>
-      <c r="E59" s="117"/>
-      <c r="F59" s="117"/>
-      <c r="G59" s="117"/>
-      <c r="H59" s="117"/>
-      <c r="I59" s="117"/>
-      <c r="J59" s="117"/>
-      <c r="K59" s="117"/>
+      <c r="B59" s="120"/>
+      <c r="C59" s="116"/>
+      <c r="D59" s="116"/>
+      <c r="E59" s="116"/>
+      <c r="F59" s="116"/>
+      <c r="G59" s="116"/>
+      <c r="H59" s="116"/>
+      <c r="I59" s="116"/>
+      <c r="J59" s="116"/>
+      <c r="K59" s="116"/>
     </row>
     <row r="60" spans="2:11">
-      <c r="B60" s="121"/>
-      <c r="C60" s="117"/>
-      <c r="D60" s="117"/>
-      <c r="E60" s="117"/>
-      <c r="F60" s="117"/>
-      <c r="G60" s="117"/>
-      <c r="H60" s="117"/>
-      <c r="I60" s="117"/>
-      <c r="J60" s="117"/>
-      <c r="K60" s="117"/>
+      <c r="B60" s="120"/>
+      <c r="C60" s="116"/>
+      <c r="D60" s="116"/>
+      <c r="E60" s="116"/>
+      <c r="F60" s="116"/>
+      <c r="G60" s="116"/>
+      <c r="H60" s="116"/>
+      <c r="I60" s="116"/>
+      <c r="J60" s="116"/>
+      <c r="K60" s="116"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/nodes_source_analyses/transport/transport_truck_using_electricity.converter.xlsx
+++ b/nodes_source_analyses/transport/transport_truck_using_electricity.converter.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26311"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robterwel/Projects/etdataset/nodes_source_analyses/transport/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="160" windowWidth="24720" windowHeight="14540" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="1600" yWindow="460" windowWidth="24720" windowHeight="14540" tabRatio="762" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -31,7 +36,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -41,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="100">
   <si>
     <t>Source</t>
   </si>
@@ -415,6 +420,21 @@
       <t>_kms</t>
     </r>
   </si>
+  <si>
+    <t>MJ/km</t>
+  </si>
+  <si>
+    <t>km/MJ</t>
+  </si>
+  <si>
+    <t>p66</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t>efficiency</t>
+  </si>
 </sst>
 </file>
 
@@ -424,12 +444,26 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -925,453 +959,465 @@
   </borders>
   <cellStyleXfs count="244">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="29" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="31" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="25" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="1" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="177" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="177" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1624,6 +1670,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1659,7 +1710,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1667,6 +1718,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
@@ -1812,11 +1869,49 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4610100" y="12496800"/>
+          <a:ext cx="7302500" cy="3403600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2255,34 +2350,36 @@
   </sheetPr>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J27" sqref="A1:J27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="17" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="17" customWidth="1"/>
     <col min="3" max="3" width="38.5" style="17" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="17"/>
+    <col min="4" max="16384" width="10.83203125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="23" customFormat="1">
+    <row r="1" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="21"/>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="24" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="24"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
@@ -2291,7 +2388,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>31</v>
@@ -2300,7 +2397,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>14</v>
@@ -2309,29 +2406,29 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="61" t="s">
         <v>33</v>
       </c>
       <c r="C9" s="62"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="63"/>
       <c r="C10" s="64"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="63" t="s">
         <v>34</v>
@@ -2340,33 +2437,33 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="63"/>
       <c r="C12" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="63"/>
       <c r="C13" s="66" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="63"/>
       <c r="C14" s="64" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="63"/>
       <c r="C15" s="64"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="63" t="s">
         <v>39</v>
@@ -2375,49 +2472,49 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="63"/>
       <c r="C17" s="68" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="63"/>
       <c r="C18" s="69" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="63"/>
       <c r="C19" s="70" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="71"/>
       <c r="C20" s="72" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="71"/>
       <c r="C21" s="73" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="71"/>
       <c r="C22" s="74" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="71"/>
       <c r="C23" s="75" t="s">
         <v>47</v>
@@ -2426,11 +2523,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2441,69 +2533,69 @@
   </sheetPr>
   <dimension ref="B1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="30" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="30" customWidth="1"/>
-    <col min="3" max="3" width="33.875" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="30" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="30" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="30" customWidth="1"/>
-    <col min="7" max="7" width="44.25" style="30" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" style="30" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="33.83203125" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="30" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="30" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" style="30" customWidth="1"/>
+    <col min="7" max="7" width="44.1640625" style="30" customWidth="1"/>
     <col min="8" max="8" width="2.5" style="30" customWidth="1"/>
     <col min="9" max="9" width="42.5" style="30" customWidth="1"/>
-    <col min="10" max="10" width="3.75" style="30" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="30"/>
+    <col min="10" max="10" width="3.6640625" style="30" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D1" s="31"/>
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
       <c r="G1" s="31"/>
     </row>
-    <row r="2" spans="2:10">
-      <c r="B2" s="122" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B2" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="124"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130"/>
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
     </row>
-    <row r="3" spans="2:10">
-      <c r="B3" s="125"/>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="127"/>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="131"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="133"/>
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="125"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="127"/>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="131"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="133"/>
       <c r="F4" s="31"/>
       <c r="G4" s="31"/>
     </row>
-    <row r="5" spans="2:10">
-      <c r="B5" s="128"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="130"/>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="134"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="136"/>
       <c r="F5" s="31"/>
       <c r="G5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="16" thickBot="1">
+    <row r="6" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D6" s="31"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="32"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -2514,7 +2606,7 @@
       <c r="I7" s="15"/>
       <c r="J7" s="33"/>
     </row>
-    <row r="8" spans="2:10" s="20" customFormat="1">
+    <row r="8" spans="2:10" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="76"/>
       <c r="C8" s="77" t="s">
         <v>20</v>
@@ -2535,7 +2627,7 @@
       </c>
       <c r="J8" s="79"/>
     </row>
-    <row r="9" spans="2:10" s="20" customFormat="1">
+    <row r="9" spans="2:10" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="19"/>
       <c r="C9" s="13"/>
       <c r="D9" s="27"/>
@@ -2546,7 +2638,7 @@
       <c r="I9" s="13"/>
       <c r="J9" s="14"/>
     </row>
-    <row r="10" spans="2:10" s="20" customFormat="1" ht="16" thickBot="1">
+    <row r="10" spans="2:10" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="19"/>
       <c r="C10" s="13" t="s">
         <v>49</v>
@@ -2559,26 +2651,29 @@
       <c r="I10" s="13"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="2:10" s="20" customFormat="1" ht="16" thickBot="1">
+    <row r="11" spans="2:10" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="19"/>
-      <c r="C11" s="131" t="s">
+      <c r="C11" s="122" t="s">
         <v>94</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>2</v>
       </c>
       <c r="E11" s="29">
-        <v>1.1820330969267101</v>
+        <f>'Research data'!G7</f>
+        <v>0.19157088122605365</v>
       </c>
       <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
+      <c r="G11" s="137" t="s">
+        <v>98</v>
+      </c>
       <c r="H11" s="26"/>
-      <c r="I11" s="29" t="s">
-        <v>27</v>
+      <c r="I11" s="107" t="s">
+        <v>79</v>
       </c>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="2:10" s="20" customFormat="1" ht="16" thickBot="1">
+    <row r="12" spans="2:10" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="19"/>
       <c r="C12" s="88" t="s">
         <v>56</v>
@@ -2597,7 +2692,7 @@
       </c>
       <c r="J12" s="14"/>
     </row>
-    <row r="13" spans="2:10" s="20" customFormat="1" ht="16" thickBot="1">
+    <row r="13" spans="2:10" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="19"/>
       <c r="C13" s="88" t="s">
         <v>57</v>
@@ -2616,7 +2711,7 @@
       </c>
       <c r="J13" s="14"/>
     </row>
-    <row r="14" spans="2:10" s="20" customFormat="1" ht="16" thickBot="1">
+    <row r="14" spans="2:10" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="19"/>
       <c r="C14" s="88" t="s">
         <v>58</v>
@@ -2635,7 +2730,7 @@
       </c>
       <c r="J14" s="14"/>
     </row>
-    <row r="15" spans="2:10" s="20" customFormat="1" ht="16" thickBot="1">
+    <row r="15" spans="2:10" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="19"/>
       <c r="C15" s="88" t="s">
         <v>59</v>
@@ -2654,7 +2749,7 @@
       </c>
       <c r="J15" s="14"/>
     </row>
-    <row r="16" spans="2:10" s="20" customFormat="1" ht="16" thickBot="1">
+    <row r="16" spans="2:10" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="19"/>
       <c r="C16" s="88" t="s">
         <v>63</v>
@@ -2673,7 +2768,7 @@
       </c>
       <c r="J16" s="14"/>
     </row>
-    <row r="17" spans="2:11" s="20" customFormat="1" ht="16" thickBot="1">
+    <row r="17" spans="2:11" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="19"/>
       <c r="C17" s="88" t="s">
         <v>60</v>
@@ -2692,7 +2787,7 @@
       </c>
       <c r="J17" s="14"/>
     </row>
-    <row r="18" spans="2:11" s="20" customFormat="1" ht="16" thickBot="1">
+    <row r="18" spans="2:11" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="19"/>
       <c r="C18" s="88" t="s">
         <v>61</v>
@@ -2711,7 +2806,7 @@
       </c>
       <c r="J18" s="14"/>
     </row>
-    <row r="19" spans="2:11" s="20" customFormat="1" ht="16" thickBot="1">
+    <row r="19" spans="2:11" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="19"/>
       <c r="C19" s="88" t="s">
         <v>64</v>
@@ -2730,7 +2825,7 @@
       </c>
       <c r="J19" s="14"/>
     </row>
-    <row r="20" spans="2:11" s="20" customFormat="1" ht="16" thickBot="1">
+    <row r="20" spans="2:11" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="19"/>
       <c r="C20" s="88" t="s">
         <v>66</v>
@@ -2751,7 +2846,7 @@
       </c>
       <c r="J20" s="14"/>
     </row>
-    <row r="21" spans="2:11" s="20" customFormat="1" ht="16" thickBot="1">
+    <row r="21" spans="2:11" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="19"/>
       <c r="C21" s="88" t="s">
         <v>67</v>
@@ -2772,7 +2867,7 @@
       </c>
       <c r="J21" s="14"/>
     </row>
-    <row r="22" spans="2:11" s="20" customFormat="1" ht="16" thickBot="1">
+    <row r="22" spans="2:11" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="19"/>
       <c r="C22" s="88" t="s">
         <v>68</v>
@@ -2793,7 +2888,7 @@
       </c>
       <c r="J22" s="14"/>
     </row>
-    <row r="23" spans="2:11" s="20" customFormat="1" ht="16" thickBot="1">
+    <row r="23" spans="2:11" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="19"/>
       <c r="C23" s="88" t="s">
         <v>69</v>
@@ -2814,7 +2909,7 @@
       </c>
       <c r="J23" s="14"/>
     </row>
-    <row r="24" spans="2:11" ht="16" thickBot="1">
+    <row r="24" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="35"/>
       <c r="C24" s="88" t="s">
         <v>62</v>
@@ -2834,7 +2929,7 @@
       <c r="J24" s="83"/>
       <c r="K24" s="31"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="35"/>
       <c r="C25" s="31"/>
       <c r="D25" s="31"/>
@@ -2846,7 +2941,7 @@
       <c r="J25" s="83"/>
       <c r="K25" s="31"/>
     </row>
-    <row r="26" spans="2:11" ht="16" thickBot="1">
+    <row r="26" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="35"/>
       <c r="C26" s="13" t="s">
         <v>50</v>
@@ -2860,7 +2955,7 @@
       <c r="J26" s="83"/>
       <c r="K26" s="31"/>
     </row>
-    <row r="27" spans="2:11" ht="16" thickBot="1">
+    <row r="27" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="35"/>
       <c r="C27" s="34" t="s">
         <v>23</v>
@@ -2869,7 +2964,7 @@
         <v>21</v>
       </c>
       <c r="E27" s="36">
-        <f>'Research data'!G10</f>
+        <f>'Research data'!G13</f>
         <v>184310.5</v>
       </c>
       <c r="F27" s="34"/>
@@ -2882,7 +2977,7 @@
       </c>
       <c r="J27" s="83"/>
     </row>
-    <row r="28" spans="2:11" ht="16" thickBot="1">
+    <row r="28" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="35"/>
       <c r="C28" s="34" t="s">
         <v>24</v>
@@ -2891,7 +2986,7 @@
         <v>26</v>
       </c>
       <c r="E28" s="84">
-        <f>'Research data'!G11</f>
+        <f>'Research data'!G14</f>
         <v>2600</v>
       </c>
       <c r="F28" s="34"/>
@@ -2904,7 +2999,7 @@
       </c>
       <c r="J28" s="83"/>
     </row>
-    <row r="29" spans="2:11" ht="16" thickBot="1">
+    <row r="29" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="19"/>
       <c r="C29" s="88" t="s">
         <v>65</v>
@@ -2923,7 +3018,7 @@
       </c>
       <c r="J29" s="83"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" s="35"/>
       <c r="C30" s="31"/>
       <c r="D30" s="80"/>
@@ -2934,7 +3029,7 @@
       <c r="I30" s="82"/>
       <c r="J30" s="83"/>
     </row>
-    <row r="31" spans="2:11" ht="16" thickBot="1">
+    <row r="31" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="35"/>
       <c r="C31" s="13" t="s">
         <v>5</v>
@@ -2947,7 +3042,7 @@
       <c r="I31" s="82"/>
       <c r="J31" s="83"/>
     </row>
-    <row r="32" spans="2:11" ht="16" thickBot="1">
+    <row r="32" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="35"/>
       <c r="C32" s="34" t="s">
         <v>25</v>
@@ -2956,7 +3051,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="36">
-        <f>'Research data'!G7</f>
+        <f>'Research data'!G10</f>
         <v>12</v>
       </c>
       <c r="F32" s="34"/>
@@ -2969,7 +3064,7 @@
       </c>
       <c r="J32" s="83"/>
     </row>
-    <row r="33" spans="2:10" ht="16" thickBot="1">
+    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="35"/>
       <c r="C33" s="34" t="s">
         <v>22</v>
@@ -2988,7 +3083,7 @@
       </c>
       <c r="J33" s="83"/>
     </row>
-    <row r="34" spans="2:10" ht="15" customHeight="1" thickBot="1">
+    <row r="34" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="37"/>
       <c r="C34" s="38"/>
       <c r="D34" s="38"/>
@@ -3037,11 +3132,6 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3050,32 +3140,32 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B2:M11"/>
+  <dimension ref="B2:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="40" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" style="40" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="40" customWidth="1"/>
-    <col min="3" max="3" width="33.125" style="40" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="40" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="40" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="33.1640625" style="40" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="40" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="40" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="40" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="40" customWidth="1"/>
-    <col min="8" max="8" width="2.625" style="40" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="40" customWidth="1"/>
+    <col min="8" max="8" width="2.6640625" style="40" customWidth="1"/>
     <col min="9" max="9" width="10.5" style="40" customWidth="1"/>
-    <col min="10" max="10" width="2.125" style="40" customWidth="1"/>
-    <col min="11" max="11" width="9.25" style="40" customWidth="1"/>
+    <col min="10" max="10" width="2.1640625" style="40" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" style="40" customWidth="1"/>
     <col min="12" max="12" width="2.5" style="40" customWidth="1"/>
     <col min="13" max="13" width="61.5" style="40" customWidth="1"/>
-    <col min="14" max="16384" width="10.625" style="40"/>
+    <col min="14" max="16384" width="10.83203125" style="40"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="16" thickBot="1"/>
-    <row r="3" spans="2:13">
+    <row r="2" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="41"/>
       <c r="C3" s="42"/>
       <c r="D3" s="42"/>
@@ -3089,7 +3179,7 @@
       <c r="L3" s="42"/>
       <c r="M3" s="42"/>
     </row>
-    <row r="4" spans="2:13" s="20" customFormat="1">
+    <row r="4" spans="2:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="19"/>
       <c r="C4" s="87" t="s">
         <v>51</v>
@@ -3115,7 +3205,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="18" customHeight="1">
+    <row r="5" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="43"/>
       <c r="C5" s="49"/>
       <c r="D5" s="49"/>
@@ -3126,10 +3216,10 @@
       <c r="I5" s="47"/>
       <c r="M5" s="56"/>
     </row>
-    <row r="6" spans="2:13" ht="18" customHeight="1" thickBot="1">
+    <row r="6" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="43"/>
       <c r="C6" s="12" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -3138,127 +3228,169 @@
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
       <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
       <c r="L6" s="44"/>
       <c r="M6" s="55"/>
     </row>
-    <row r="7" spans="2:13" ht="16" thickBot="1">
+    <row r="7" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="43"/>
-      <c r="C7" s="50" t="s">
-        <v>3</v>
+      <c r="C7" s="124" t="s">
+        <v>98</v>
       </c>
       <c r="D7" s="50"/>
       <c r="E7" s="50"/>
-      <c r="F7" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="51">
-        <f>ROUND(12,0)</f>
-        <v>12</v>
+      <c r="F7" s="125" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" s="127">
+        <f>K7</f>
+        <v>0.19157088122605365</v>
       </c>
       <c r="H7" s="47"/>
       <c r="I7" s="113"/>
       <c r="J7" s="44"/>
-      <c r="K7" s="51">
-        <f>Notes!C12</f>
-        <v>12</v>
+      <c r="K7" s="127">
+        <f>Notes!E70</f>
+        <v>0.19157088122605365</v>
       </c>
       <c r="L7" s="44"/>
       <c r="M7" s="58"/>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="43"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="46"/>
-    </row>
-    <row r="9" spans="2:13" ht="16" thickBot="1">
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="M8" s="56"/>
+    </row>
+    <row r="9" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="43"/>
       <c r="C9" s="12" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
       <c r="J9" s="44"/>
       <c r="K9" s="44"/>
       <c r="L9" s="44"/>
-      <c r="M9" s="60"/>
-    </row>
-    <row r="10" spans="2:13" ht="16" thickBot="1">
+      <c r="M9" s="55"/>
+    </row>
+    <row r="10" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="43"/>
-      <c r="C10" s="86" t="s">
+      <c r="C10" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="51">
+        <f>ROUND(12,0)</f>
+        <v>12</v>
+      </c>
+      <c r="H10" s="47"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="51">
+        <f>Notes!C12</f>
+        <v>12</v>
+      </c>
+      <c r="L10" s="44"/>
+      <c r="M10" s="58"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B11" s="43"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="46"/>
+    </row>
+    <row r="12" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="60"/>
+    </row>
+    <row r="13" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="57" t="s">
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="48">
-        <f>ROUND(AVERAGE(I10,K10),2)</f>
+      <c r="G13" s="48">
+        <f>ROUND(AVERAGE(I13,K13),2)</f>
         <v>184310.5</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="111">
+      <c r="H13" s="11"/>
+      <c r="I13" s="111">
         <f>Notes!C47</f>
         <v>200621</v>
       </c>
-      <c r="J10" s="44"/>
-      <c r="K10" s="48">
+      <c r="J13" s="44"/>
+      <c r="K13" s="48">
         <f>Notes!C29</f>
         <v>168000</v>
       </c>
-      <c r="L10" s="47"/>
-      <c r="M10" s="109" t="s">
+      <c r="L13" s="47"/>
+      <c r="M13" s="109" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="16" thickBot="1">
-      <c r="B11" s="43"/>
-      <c r="C11" s="108" t="s">
+    <row r="14" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="108" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="85" t="s">
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="85" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="53">
+      <c r="G14" s="53">
         <f>ROUND(2600,2)</f>
         <v>2600</v>
       </c>
-      <c r="H11" s="54"/>
-      <c r="I11" s="110">
+      <c r="H14" s="54"/>
+      <c r="I14" s="110">
         <f>Notes!C54+Notes!C55</f>
         <v>2600</v>
       </c>
-      <c r="J11" s="44"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="109" t="s">
+      <c r="J14" s="44"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="109" t="s">
         <v>81</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3270,25 +3402,25 @@
   <dimension ref="B1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="93" customWidth="1"/>
-    <col min="2" max="2" width="3.375" style="93" customWidth="1"/>
-    <col min="3" max="3" width="27.875" style="93" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="93" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="93" customWidth="1"/>
-    <col min="6" max="7" width="13.25" style="93" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="94" customWidth="1"/>
-    <col min="9" max="9" width="31.375" style="94" customWidth="1"/>
-    <col min="10" max="10" width="98.375" style="93" customWidth="1"/>
-    <col min="11" max="16384" width="33.125" style="93"/>
+    <col min="1" max="1" width="3.6640625" style="93" customWidth="1"/>
+    <col min="2" max="2" width="3.33203125" style="93" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" style="93" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="93" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="93" customWidth="1"/>
+    <col min="6" max="7" width="13.1640625" style="93" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="94" customWidth="1"/>
+    <col min="9" max="9" width="31.33203125" style="94" customWidth="1"/>
+    <col min="10" max="10" width="98.33203125" style="93" customWidth="1"/>
+    <col min="11" max="16384" width="33.1640625" style="93"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16" thickBot="1"/>
-    <row r="2" spans="2:10">
+    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="95"/>
       <c r="C2" s="96"/>
       <c r="D2" s="96"/>
@@ -3299,7 +3431,7 @@
       <c r="I2" s="97"/>
       <c r="J2" s="96"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="98"/>
       <c r="C3" s="13" t="s">
         <v>16</v>
@@ -3312,7 +3444,7 @@
       <c r="I3" s="99"/>
       <c r="J3" s="100"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="98"/>
       <c r="C4" s="100"/>
       <c r="D4" s="100"/>
@@ -3323,7 +3455,7 @@
       <c r="I4" s="101"/>
       <c r="J4" s="100"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="102"/>
       <c r="C5" s="77" t="s">
         <v>17</v>
@@ -3350,7 +3482,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="98"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -3361,7 +3493,7 @@
       <c r="I6" s="99"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="98"/>
       <c r="C7" s="104"/>
       <c r="D7" s="116" t="s">
@@ -3384,7 +3516,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="98"/>
       <c r="C8" s="106" t="s">
         <v>6</v>
@@ -3397,7 +3529,7 @@
       <c r="I8" s="100"/>
       <c r="J8" s="100"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="98"/>
       <c r="C9" s="104" t="s">
         <v>80</v>
@@ -3410,7 +3542,7 @@
       <c r="I9" s="100"/>
       <c r="J9" s="100"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="98"/>
       <c r="C10" s="104"/>
       <c r="D10" s="100"/>
@@ -3421,9 +3553,11 @@
       <c r="I10" s="100"/>
       <c r="J10" s="100"/>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="98"/>
-      <c r="C11" s="106"/>
+      <c r="C11" s="126" t="s">
+        <v>99</v>
+      </c>
       <c r="D11" s="116" t="s">
         <v>77</v>
       </c>
@@ -3444,7 +3578,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="98"/>
       <c r="C12" s="104" t="s">
         <v>6</v>
@@ -3457,7 +3591,7 @@
       <c r="I12" s="100"/>
       <c r="J12" s="100"/>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="98"/>
       <c r="C13" s="112" t="s">
         <v>3</v>
@@ -3473,34 +3607,29 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K60"/>
+  <dimension ref="B1:K103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="115" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" style="115" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="115" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="115" customWidth="1"/>
-    <col min="4" max="10" width="10.625" style="115"/>
+    <col min="4" max="10" width="10.83203125" style="115"/>
     <col min="11" max="11" width="10" style="115" customWidth="1"/>
-    <col min="12" max="16384" width="10.625" style="115"/>
+    <col min="12" max="16384" width="10.83203125" style="115"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" thickBot="1"/>
-    <row r="2" spans="2:11">
+    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="118"/>
       <c r="C2" s="119"/>
       <c r="D2" s="119"/>
@@ -3512,7 +3641,7 @@
       <c r="J2" s="119"/>
       <c r="K2" s="119"/>
     </row>
-    <row r="3" spans="2:11" s="20" customFormat="1">
+    <row r="3" spans="2:11" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="76"/>
       <c r="C3" s="77" t="s">
         <v>43</v>
@@ -3528,7 +3657,7 @@
       <c r="J3" s="77"/>
       <c r="K3" s="77"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="120"/>
       <c r="C4" s="116"/>
       <c r="D4" s="116"/>
@@ -3540,7 +3669,7 @@
       <c r="J4" s="116"/>
       <c r="K4" s="116"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="120"/>
       <c r="C5" s="116"/>
       <c r="D5" s="116"/>
@@ -3552,7 +3681,7 @@
       <c r="J5" s="116"/>
       <c r="K5" s="116"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="120"/>
       <c r="C6" s="116" t="s">
         <v>77</v>
@@ -3566,7 +3695,7 @@
       <c r="J6" s="116"/>
       <c r="K6" s="116"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="120"/>
       <c r="C7" s="116" t="s">
         <v>86</v>
@@ -3580,7 +3709,7 @@
       <c r="J7" s="116"/>
       <c r="K7" s="116"/>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="120"/>
       <c r="C8" s="116"/>
       <c r="D8" s="116"/>
@@ -3592,7 +3721,7 @@
       <c r="J8" s="116"/>
       <c r="K8" s="116"/>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="120"/>
       <c r="C9" s="116"/>
       <c r="D9" s="116"/>
@@ -3604,7 +3733,7 @@
       <c r="J9" s="116"/>
       <c r="K9" s="116"/>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="120"/>
       <c r="C10" s="116"/>
       <c r="D10" s="116"/>
@@ -3616,7 +3745,7 @@
       <c r="J10" s="116"/>
       <c r="K10" s="116"/>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="120"/>
       <c r="C11" s="116"/>
       <c r="D11" s="116"/>
@@ -3628,7 +3757,7 @@
       <c r="J11" s="116"/>
       <c r="K11" s="116"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="120"/>
       <c r="C12" s="116">
         <v>12</v>
@@ -3644,7 +3773,7 @@
       <c r="J12" s="116"/>
       <c r="K12" s="116"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="120"/>
       <c r="C13" s="116"/>
       <c r="D13" s="116"/>
@@ -3656,7 +3785,7 @@
       <c r="J13" s="116"/>
       <c r="K13" s="116"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="120"/>
       <c r="C14" s="116"/>
       <c r="D14" s="116"/>
@@ -3668,7 +3797,7 @@
       <c r="J14" s="116"/>
       <c r="K14" s="116"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="120"/>
       <c r="C15" s="116"/>
       <c r="D15" s="116"/>
@@ -3680,7 +3809,7 @@
       <c r="J15" s="116"/>
       <c r="K15" s="116"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="120"/>
       <c r="C16" s="116"/>
       <c r="D16" s="116"/>
@@ -3692,7 +3821,7 @@
       <c r="J16" s="116"/>
       <c r="K16" s="116"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="120"/>
       <c r="C17" s="116"/>
       <c r="D17" s="116"/>
@@ -3704,7 +3833,7 @@
       <c r="J17" s="116"/>
       <c r="K17" s="116"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="120"/>
       <c r="C18" s="116"/>
       <c r="D18" s="116"/>
@@ -3716,7 +3845,7 @@
       <c r="J18" s="116"/>
       <c r="K18" s="116"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="120"/>
       <c r="C19" s="116"/>
       <c r="D19" s="116"/>
@@ -3728,7 +3857,7 @@
       <c r="J19" s="116"/>
       <c r="K19" s="116"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="120"/>
       <c r="C20" s="116"/>
       <c r="D20" s="116"/>
@@ -3740,7 +3869,7 @@
       <c r="J20" s="116"/>
       <c r="K20" s="116"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="120"/>
       <c r="C21" s="116"/>
       <c r="D21" s="116"/>
@@ -3752,7 +3881,7 @@
       <c r="J21" s="116"/>
       <c r="K21" s="116"/>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="120"/>
       <c r="C22" s="116" t="s">
         <v>88</v>
@@ -3766,7 +3895,7 @@
       <c r="J22" s="116"/>
       <c r="K22" s="116"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="120"/>
       <c r="C23" s="116"/>
       <c r="D23" s="116"/>
@@ -3778,7 +3907,7 @@
       <c r="J23" s="116"/>
       <c r="K23" s="116"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="120"/>
       <c r="C24" s="116"/>
       <c r="D24" s="116"/>
@@ -3790,7 +3919,7 @@
       <c r="J24" s="116"/>
       <c r="K24" s="116"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="120"/>
       <c r="C25" s="116"/>
       <c r="D25" s="116"/>
@@ -3802,7 +3931,7 @@
       <c r="J25" s="116"/>
       <c r="K25" s="116"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="120"/>
       <c r="C26" s="116"/>
       <c r="D26" s="116"/>
@@ -3814,7 +3943,7 @@
       <c r="J26" s="116"/>
       <c r="K26" s="116"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="120"/>
       <c r="C27" s="116"/>
       <c r="D27" s="116"/>
@@ -3826,7 +3955,7 @@
       <c r="J27" s="116"/>
       <c r="K27" s="116"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="120"/>
       <c r="C28" s="116"/>
       <c r="D28" s="116"/>
@@ -3838,7 +3967,7 @@
       <c r="J28" s="116"/>
       <c r="K28" s="116"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" s="120"/>
       <c r="C29" s="116">
         <v>168000</v>
@@ -3854,7 +3983,7 @@
       <c r="J29" s="116"/>
       <c r="K29" s="116"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" s="120"/>
       <c r="C30" s="116"/>
       <c r="D30" s="116"/>
@@ -3866,7 +3995,7 @@
       <c r="J30" s="116"/>
       <c r="K30" s="116"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" s="120"/>
       <c r="C31" s="116"/>
       <c r="D31" s="116"/>
@@ -3878,7 +4007,7 @@
       <c r="J31" s="116"/>
       <c r="K31" s="116"/>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" s="120"/>
       <c r="C32" s="116"/>
       <c r="D32" s="116"/>
@@ -3890,7 +4019,7 @@
       <c r="J32" s="116"/>
       <c r="K32" s="116"/>
     </row>
-    <row r="33" spans="2:11">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" s="120"/>
       <c r="C33" s="116"/>
       <c r="D33" s="116"/>
@@ -3902,7 +4031,7 @@
       <c r="J33" s="116"/>
       <c r="K33" s="116"/>
     </row>
-    <row r="34" spans="2:11">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" s="120"/>
       <c r="C34" s="116"/>
       <c r="D34" s="116"/>
@@ -3914,7 +4043,7 @@
       <c r="J34" s="116"/>
       <c r="K34" s="116"/>
     </row>
-    <row r="35" spans="2:11">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="120"/>
       <c r="C35" s="116"/>
       <c r="D35" s="116"/>
@@ -3926,7 +4055,7 @@
       <c r="J35" s="116"/>
       <c r="K35" s="116"/>
     </row>
-    <row r="36" spans="2:11">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36" s="120"/>
       <c r="C36" s="116"/>
       <c r="D36" s="116"/>
@@ -3938,7 +4067,7 @@
       <c r="J36" s="116"/>
       <c r="K36" s="116"/>
     </row>
-    <row r="37" spans="2:11">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" s="120"/>
       <c r="C37" s="116"/>
       <c r="D37" s="116"/>
@@ -3950,7 +4079,7 @@
       <c r="J37" s="116"/>
       <c r="K37" s="116"/>
     </row>
-    <row r="38" spans="2:11">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" s="120"/>
       <c r="C38" s="116"/>
       <c r="D38" s="116"/>
@@ -3962,7 +4091,7 @@
       <c r="J38" s="116"/>
       <c r="K38" s="116"/>
     </row>
-    <row r="39" spans="2:11">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" s="120"/>
       <c r="C39" s="116"/>
       <c r="D39" s="116"/>
@@ -3974,7 +4103,7 @@
       <c r="J39" s="116"/>
       <c r="K39" s="116"/>
     </row>
-    <row r="40" spans="2:11">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B40" s="120"/>
       <c r="C40" s="116"/>
       <c r="D40" s="116"/>
@@ -3986,7 +4115,7 @@
       <c r="J40" s="116"/>
       <c r="K40" s="116"/>
     </row>
-    <row r="41" spans="2:11">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41" s="120"/>
       <c r="C41" s="116" t="s">
         <v>76</v>
@@ -4000,7 +4129,7 @@
       <c r="J41" s="116"/>
       <c r="K41" s="116"/>
     </row>
-    <row r="42" spans="2:11">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B42" s="120"/>
       <c r="C42" s="116" t="s">
         <v>89</v>
@@ -4014,7 +4143,7 @@
       <c r="J42" s="116"/>
       <c r="K42" s="116"/>
     </row>
-    <row r="43" spans="2:11">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43" s="120"/>
       <c r="C43" s="116"/>
       <c r="D43" s="116"/>
@@ -4026,7 +4155,7 @@
       <c r="J43" s="116"/>
       <c r="K43" s="116"/>
     </row>
-    <row r="44" spans="2:11">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44" s="120"/>
       <c r="C44" s="116"/>
       <c r="D44" s="116"/>
@@ -4038,7 +4167,7 @@
       <c r="J44" s="116"/>
       <c r="K44" s="116"/>
     </row>
-    <row r="45" spans="2:11">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B45" s="120"/>
       <c r="C45" s="116"/>
       <c r="D45" s="116"/>
@@ -4050,7 +4179,7 @@
       <c r="J45" s="116"/>
       <c r="K45" s="116"/>
     </row>
-    <row r="46" spans="2:11">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B46" s="120"/>
       <c r="C46" s="116"/>
       <c r="D46" s="116"/>
@@ -4062,7 +4191,7 @@
       <c r="J46" s="116"/>
       <c r="K46" s="116"/>
     </row>
-    <row r="47" spans="2:11">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B47" s="120"/>
       <c r="C47" s="116">
         <v>200621</v>
@@ -4078,7 +4207,7 @@
       <c r="J47" s="116"/>
       <c r="K47" s="116"/>
     </row>
-    <row r="48" spans="2:11">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B48" s="120"/>
       <c r="C48" s="116"/>
       <c r="D48" s="116"/>
@@ -4090,7 +4219,7 @@
       <c r="J48" s="116"/>
       <c r="K48" s="116"/>
     </row>
-    <row r="49" spans="2:11">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B49" s="120"/>
       <c r="C49" s="116"/>
       <c r="D49" s="116"/>
@@ -4102,7 +4231,7 @@
       <c r="J49" s="116"/>
       <c r="K49" s="116"/>
     </row>
-    <row r="50" spans="2:11">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B50" s="120"/>
       <c r="C50" s="116"/>
       <c r="D50" s="116"/>
@@ -4114,7 +4243,7 @@
       <c r="J50" s="116"/>
       <c r="K50" s="116"/>
     </row>
-    <row r="51" spans="2:11">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B51" s="120"/>
       <c r="C51" s="116"/>
       <c r="D51" s="116"/>
@@ -4126,7 +4255,7 @@
       <c r="J51" s="116"/>
       <c r="K51" s="116"/>
     </row>
-    <row r="52" spans="2:11">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B52" s="120"/>
       <c r="C52" s="116"/>
       <c r="D52" s="116"/>
@@ -4138,7 +4267,7 @@
       <c r="J52" s="116"/>
       <c r="K52" s="116"/>
     </row>
-    <row r="53" spans="2:11">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B53" s="120"/>
       <c r="C53" s="116"/>
       <c r="D53" s="116"/>
@@ -4150,7 +4279,7 @@
       <c r="J53" s="116"/>
       <c r="K53" s="116"/>
     </row>
-    <row r="54" spans="2:11">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B54" s="120"/>
       <c r="C54" s="116">
         <v>2080</v>
@@ -4166,7 +4295,7 @@
       <c r="J54" s="116"/>
       <c r="K54" s="116"/>
     </row>
-    <row r="55" spans="2:11">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B55" s="120"/>
       <c r="C55" s="116">
         <v>520</v>
@@ -4182,7 +4311,7 @@
       <c r="J55" s="116"/>
       <c r="K55" s="116"/>
     </row>
-    <row r="56" spans="2:11">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B56" s="120"/>
       <c r="C56" s="116"/>
       <c r="D56" s="116"/>
@@ -4194,7 +4323,7 @@
       <c r="J56" s="116"/>
       <c r="K56" s="116"/>
     </row>
-    <row r="57" spans="2:11">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B57" s="120"/>
       <c r="C57" s="116"/>
       <c r="D57" s="116"/>
@@ -4206,7 +4335,7 @@
       <c r="J57" s="116"/>
       <c r="K57" s="116"/>
     </row>
-    <row r="58" spans="2:11">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B58" s="120"/>
       <c r="C58" s="116"/>
       <c r="D58" s="116"/>
@@ -4218,7 +4347,7 @@
       <c r="J58" s="116"/>
       <c r="K58" s="116"/>
     </row>
-    <row r="59" spans="2:11">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B59" s="120"/>
       <c r="C59" s="116"/>
       <c r="D59" s="116"/>
@@ -4230,7 +4359,7 @@
       <c r="J59" s="116"/>
       <c r="K59" s="116"/>
     </row>
-    <row r="60" spans="2:11">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B60" s="120"/>
       <c r="C60" s="116"/>
       <c r="D60" s="116"/>
@@ -4242,14 +4371,157 @@
       <c r="J60" s="116"/>
       <c r="K60" s="116"/>
     </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B61" s="120"/>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B62" s="120"/>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B63" s="120"/>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B64" s="120"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B65" s="120"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B66" s="120"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B67" s="120"/>
+      <c r="C67" s="123" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B68" s="120"/>
+      <c r="C68" s="123" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B69" s="120"/>
+      <c r="E69" s="115">
+        <v>5.22</v>
+      </c>
+      <c r="F69" s="123" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B70" s="120"/>
+      <c r="E70" s="115">
+        <f>1/E69</f>
+        <v>0.19157088122605365</v>
+      </c>
+      <c r="F70" s="123" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B71" s="120"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B72" s="120"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B73" s="120"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B74" s="120"/>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B75" s="120"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B76" s="120"/>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B77" s="120"/>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B78" s="120"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B79" s="120"/>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B80" s="120"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B81" s="120"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B82" s="120"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B83" s="120"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B84" s="120"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B85" s="120"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B86" s="120"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B87" s="120"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B88" s="120"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B89" s="120"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B90" s="120"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B91" s="120"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B92" s="120"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B93" s="120"/>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B94" s="120"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B95" s="120"/>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B96" s="120"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B97" s="120"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B98" s="120"/>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B99" s="120"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B100" s="120"/>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B101" s="120"/>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B102" s="120"/>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B103" s="120"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/transport/transport_truck_using_electricity.converter.xlsx
+++ b/nodes_source_analyses/transport/transport_truck_using_electricity.converter.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robterwel/Projects/etdataset/nodes_source_analyses/transport/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="460" windowWidth="24720" windowHeight="14540" tabRatio="762" activeTab="2"/>
+    <workbookView xWindow="1600" yWindow="460" windowWidth="24720" windowHeight="14540" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -36,7 +31,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" iterate="1" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -46,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="95">
   <si>
     <t>Source</t>
   </si>
@@ -117,12 +112,6 @@
     <t>free_co2_factor</t>
   </si>
   <si>
-    <t>initial_investment</t>
-  </si>
-  <si>
-    <t>fixed_operation_and_maintenance_costs_per_year</t>
-  </si>
-  <si>
     <t>technical_lifetime</t>
   </si>
   <si>
@@ -132,9 +121,6 @@
     <t>quintel/etsource@0277ad226491f5aae44c874b298cbcf694d2f6cb</t>
   </si>
   <si>
-    <t>Fixed operational and maintenance costs per year</t>
-  </si>
-  <si>
     <t xml:space="preserve">Technical lifetime </t>
   </si>
   <si>
@@ -196,9 +182,6 @@
   </si>
   <si>
     <t>Technical</t>
-  </si>
-  <si>
-    <t>Cost</t>
   </si>
   <si>
     <t>Parameter</t>
@@ -263,9 +246,6 @@
   </si>
   <si>
     <t>network_capacity_used_in_mw</t>
-  </si>
-  <si>
-    <t>network_expansion_costs_in_euro_per_mw</t>
   </si>
   <si>
     <t>simult_sd</t>
@@ -444,12 +424,19 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -959,468 +946,467 @@
   </borders>
   <cellStyleXfs count="244">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="21" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="21" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="2" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="31" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="21" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="25" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="22" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="26" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="177" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="177" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="244">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1710,7 +1696,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1718,12 +1704,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln w="9525">
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
@@ -1911,7 +1891,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2354,50 +2334,50 @@
       <selection activeCell="J27" sqref="A1:J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" style="25" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="17" customWidth="1"/>
+    <col min="1" max="1" width="3.125" style="25" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="17" customWidth="1"/>
     <col min="3" max="3" width="38.5" style="17" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="17"/>
+    <col min="4" max="16384" width="10.625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="23" customFormat="1">
       <c r="A1" s="21"/>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="20">
       <c r="A2" s="1"/>
       <c r="B2" s="24" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="24"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>14</v>
@@ -2406,123 +2386,128 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="61" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C9" s="62"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="63"/>
       <c r="C10" s="64"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="63" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C11" s="65" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16" thickBot="1">
       <c r="A12" s="1"/>
       <c r="B12" s="63"/>
       <c r="C12" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="63"/>
       <c r="C13" s="66" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="63"/>
       <c r="C14" s="64" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="63"/>
       <c r="C15" s="64"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="63" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C16" s="67" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="63"/>
       <c r="C17" s="68" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="63"/>
       <c r="C18" s="69" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="63"/>
       <c r="C19" s="70" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="71"/>
       <c r="C20" s="72" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="71"/>
       <c r="C21" s="73" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="71"/>
       <c r="C22" s="74" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="B23" s="71"/>
       <c r="C23" s="75" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2533,34 +2518,34 @@
   </sheetPr>
   <dimension ref="B1:K34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" style="30" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="30" customWidth="1"/>
-    <col min="3" max="3" width="33.83203125" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="30" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" style="30" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" style="30" customWidth="1"/>
-    <col min="7" max="7" width="44.1640625" style="30" customWidth="1"/>
+    <col min="1" max="1" width="3.125" style="30" customWidth="1"/>
+    <col min="2" max="2" width="3.625" style="30" customWidth="1"/>
+    <col min="3" max="3" width="33.875" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="30" customWidth="1"/>
+    <col min="5" max="5" width="17.375" style="30" customWidth="1"/>
+    <col min="6" max="6" width="4.625" style="30" customWidth="1"/>
+    <col min="7" max="7" width="44.125" style="30" customWidth="1"/>
     <col min="8" max="8" width="2.5" style="30" customWidth="1"/>
     <col min="9" max="9" width="42.5" style="30" customWidth="1"/>
-    <col min="10" max="10" width="3.6640625" style="30" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="30"/>
+    <col min="10" max="10" width="3.625" style="30" customWidth="1"/>
+    <col min="11" max="16384" width="10.625" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10">
       <c r="D1" s="31"/>
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
       <c r="G1" s="31"/>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10">
       <c r="B2" s="128" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C2" s="129"/>
       <c r="D2" s="129"/>
@@ -2568,7 +2553,7 @@
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10">
       <c r="B3" s="131"/>
       <c r="C3" s="132"/>
       <c r="D3" s="132"/>
@@ -2576,7 +2561,7 @@
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10">
       <c r="B4" s="131"/>
       <c r="C4" s="132"/>
       <c r="D4" s="132"/>
@@ -2584,7 +2569,7 @@
       <c r="F4" s="31"/>
       <c r="G4" s="31"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10">
       <c r="B5" s="134"/>
       <c r="C5" s="135"/>
       <c r="D5" s="135"/>
@@ -2592,10 +2577,10 @@
       <c r="F5" s="31"/>
       <c r="G5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="16" thickBot="1">
       <c r="D6" s="31"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10">
       <c r="B7" s="32"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -2606,7 +2591,7 @@
       <c r="I7" s="15"/>
       <c r="J7" s="33"/>
     </row>
-    <row r="8" spans="2:10" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" s="20" customFormat="1">
       <c r="B8" s="76"/>
       <c r="C8" s="77" t="s">
         <v>20</v>
@@ -2627,7 +2612,7 @@
       </c>
       <c r="J8" s="79"/>
     </row>
-    <row r="9" spans="2:10" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" s="20" customFormat="1">
       <c r="B9" s="19"/>
       <c r="C9" s="13"/>
       <c r="D9" s="27"/>
@@ -2638,10 +2623,10 @@
       <c r="I9" s="13"/>
       <c r="J9" s="14"/>
     </row>
-    <row r="10" spans="2:10" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" s="20" customFormat="1" ht="16" thickBot="1">
       <c r="B10" s="19"/>
       <c r="C10" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="13"/>
@@ -2651,10 +2636,10 @@
       <c r="I10" s="13"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="2:10" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" s="20" customFormat="1" ht="16" thickBot="1">
       <c r="B11" s="19"/>
-      <c r="C11" s="122" t="s">
-        <v>94</v>
+      <c r="C11" s="121" t="s">
+        <v>89</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>2</v>
@@ -2664,436 +2649,348 @@
         <v>0.19157088122605365</v>
       </c>
       <c r="F11" s="34"/>
-      <c r="G11" s="137" t="s">
-        <v>98</v>
+      <c r="G11" s="127" t="s">
+        <v>93</v>
       </c>
       <c r="H11" s="26"/>
-      <c r="I11" s="107" t="s">
-        <v>79</v>
+      <c r="I11" s="106" t="s">
+        <v>74</v>
       </c>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="2:10" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" s="20" customFormat="1" ht="16" thickBot="1">
       <c r="B12" s="19"/>
-      <c r="C12" s="88" t="s">
-        <v>56</v>
+      <c r="C12" s="87" t="s">
+        <v>52</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="89">
+      <c r="E12" s="88">
         <v>0</v>
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
       <c r="H12" s="26"/>
       <c r="I12" s="29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J12" s="14"/>
     </row>
-    <row r="13" spans="2:10" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" s="20" customFormat="1" ht="16" thickBot="1">
       <c r="B13" s="19"/>
-      <c r="C13" s="88" t="s">
-        <v>57</v>
+      <c r="C13" s="87" t="s">
+        <v>53</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="89">
+      <c r="E13" s="88">
         <v>0</v>
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
       <c r="H13" s="26"/>
       <c r="I13" s="29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J13" s="14"/>
     </row>
-    <row r="14" spans="2:10" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" s="20" customFormat="1" ht="16" thickBot="1">
       <c r="B14" s="19"/>
-      <c r="C14" s="88" t="s">
-        <v>58</v>
+      <c r="C14" s="87" t="s">
+        <v>54</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="89">
+      <c r="E14" s="88">
         <v>1062.9980361595201</v>
       </c>
       <c r="F14" s="34"/>
       <c r="G14" s="34"/>
       <c r="H14" s="26"/>
       <c r="I14" s="29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J14" s="14"/>
     </row>
-    <row r="15" spans="2:10" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" s="20" customFormat="1" ht="16" thickBot="1">
       <c r="B15" s="19"/>
-      <c r="C15" s="88" t="s">
-        <v>59</v>
+      <c r="C15" s="87" t="s">
+        <v>55</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="89">
+      <c r="E15" s="88">
         <v>0</v>
       </c>
       <c r="F15" s="34"/>
       <c r="G15" s="34"/>
       <c r="H15" s="26"/>
       <c r="I15" s="29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J15" s="14"/>
     </row>
-    <row r="16" spans="2:10" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" s="20" customFormat="1" ht="16" thickBot="1">
       <c r="B16" s="19"/>
-      <c r="C16" s="88" t="s">
-        <v>63</v>
+      <c r="C16" s="87" t="s">
+        <v>59</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="89">
+      <c r="E16" s="88">
         <v>0</v>
       </c>
       <c r="F16" s="34"/>
       <c r="G16" s="34"/>
       <c r="H16" s="26"/>
       <c r="I16" s="29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J16" s="14"/>
     </row>
-    <row r="17" spans="2:11" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" s="20" customFormat="1" ht="16" thickBot="1">
       <c r="B17" s="19"/>
-      <c r="C17" s="88" t="s">
-        <v>60</v>
+      <c r="C17" s="87" t="s">
+        <v>56</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="89">
+      <c r="E17" s="88">
         <v>0.01</v>
       </c>
       <c r="F17" s="34"/>
       <c r="G17" s="34"/>
       <c r="H17" s="26"/>
       <c r="I17" s="29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J17" s="14"/>
     </row>
-    <row r="18" spans="2:11" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" s="20" customFormat="1" ht="16" thickBot="1">
       <c r="B18" s="19"/>
-      <c r="C18" s="88" t="s">
-        <v>61</v>
+      <c r="C18" s="87" t="s">
+        <v>57</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="89">
+      <c r="E18" s="88">
         <v>0</v>
       </c>
       <c r="F18" s="34"/>
       <c r="G18" s="34"/>
       <c r="H18" s="26"/>
       <c r="I18" s="29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J18" s="14"/>
     </row>
-    <row r="19" spans="2:11" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" s="20" customFormat="1" ht="16" thickBot="1">
       <c r="B19" s="19"/>
-      <c r="C19" s="88" t="s">
-        <v>64</v>
+      <c r="C19" s="87" t="s">
+        <v>60</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="89">
+      <c r="E19" s="88">
         <v>0.01</v>
       </c>
       <c r="F19" s="34"/>
       <c r="G19" s="34"/>
       <c r="H19" s="26"/>
       <c r="I19" s="29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J19" s="14"/>
     </row>
-    <row r="20" spans="2:11" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" s="20" customFormat="1" ht="16" thickBot="1">
       <c r="B20" s="19"/>
-      <c r="C20" s="88" t="s">
-        <v>66</v>
+      <c r="C20" s="87" t="s">
+        <v>61</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="89">
+      <c r="E20" s="88">
         <v>0</v>
       </c>
       <c r="F20" s="34"/>
-      <c r="G20" s="91" t="s">
-        <v>70</v>
+      <c r="G20" s="90" t="s">
+        <v>65</v>
       </c>
       <c r="H20" s="26"/>
       <c r="I20" s="29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J20" s="14"/>
     </row>
-    <row r="21" spans="2:11" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" s="20" customFormat="1" ht="16" thickBot="1">
       <c r="B21" s="19"/>
-      <c r="C21" s="88" t="s">
-        <v>67</v>
+      <c r="C21" s="87" t="s">
+        <v>62</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="89">
+      <c r="E21" s="88">
         <v>0.25</v>
       </c>
       <c r="F21" s="34"/>
-      <c r="G21" s="91" t="s">
-        <v>71</v>
+      <c r="G21" s="90" t="s">
+        <v>66</v>
       </c>
       <c r="H21" s="26"/>
       <c r="I21" s="29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J21" s="14"/>
     </row>
-    <row r="22" spans="2:11" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" s="20" customFormat="1" ht="16" thickBot="1">
       <c r="B22" s="19"/>
-      <c r="C22" s="88" t="s">
-        <v>68</v>
+      <c r="C22" s="87" t="s">
+        <v>63</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E22" s="89">
+      <c r="E22" s="88">
         <v>0</v>
       </c>
       <c r="F22" s="34"/>
-      <c r="G22" s="91" t="s">
-        <v>72</v>
+      <c r="G22" s="90" t="s">
+        <v>67</v>
       </c>
       <c r="H22" s="26"/>
       <c r="I22" s="29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J22" s="14"/>
     </row>
-    <row r="23" spans="2:11" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" s="20" customFormat="1" ht="16" thickBot="1">
       <c r="B23" s="19"/>
-      <c r="C23" s="88" t="s">
-        <v>69</v>
+      <c r="C23" s="87" t="s">
+        <v>64</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="90">
+      <c r="E23" s="89">
         <v>0.25</v>
       </c>
       <c r="F23" s="34"/>
-      <c r="G23" s="91" t="s">
-        <v>73</v>
+      <c r="G23" s="90" t="s">
+        <v>68</v>
       </c>
       <c r="H23" s="26"/>
       <c r="I23" s="29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J23" s="14"/>
     </row>
-    <row r="24" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" ht="16" thickBot="1">
       <c r="B24" s="35"/>
-      <c r="C24" s="88" t="s">
-        <v>62</v>
+      <c r="C24" s="87" t="s">
+        <v>58</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="90">
+      <c r="E24" s="89">
         <v>0</v>
       </c>
       <c r="F24" s="34"/>
-      <c r="G24" s="92" t="s">
-        <v>74</v>
+      <c r="G24" s="91" t="s">
+        <v>69</v>
       </c>
       <c r="H24" s="31"/>
       <c r="I24" s="31"/>
       <c r="J24" s="83"/>
       <c r="K24" s="31"/>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:11">
       <c r="B25" s="35"/>
       <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="81"/>
       <c r="F25" s="31"/>
       <c r="G25" s="31"/>
       <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
+      <c r="I25" s="82"/>
       <c r="J25" s="83"/>
-      <c r="K25" s="31"/>
-    </row>
-    <row r="26" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:11" ht="16" thickBot="1">
       <c r="B26" s="35"/>
       <c r="C26" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
+        <v>5</v>
+      </c>
+      <c r="D26" s="80"/>
+      <c r="E26" s="81"/>
       <c r="F26" s="31"/>
       <c r="G26" s="31"/>
       <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
+      <c r="I26" s="82"/>
       <c r="J26" s="83"/>
-      <c r="K26" s="31"/>
-    </row>
-    <row r="27" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:11" ht="16" thickBot="1">
       <c r="B27" s="35"/>
       <c r="C27" s="34" t="s">
         <v>23</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E27" s="36">
-        <f>'Research data'!G13</f>
-        <v>184310.5</v>
+        <f>'Research data'!G10</f>
+        <v>12</v>
       </c>
       <c r="F27" s="34"/>
-      <c r="G27" s="34" t="s">
-        <v>6</v>
+      <c r="G27" s="59" t="s">
+        <v>26</v>
       </c>
       <c r="H27" s="34"/>
-      <c r="I27" s="107" t="s">
-        <v>79</v>
+      <c r="I27" s="113" t="s">
+        <v>72</v>
       </c>
       <c r="J27" s="83"/>
     </row>
-    <row r="28" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" ht="16" thickBot="1">
       <c r="B28" s="35"/>
       <c r="C28" s="34" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="84">
-        <f>'Research data'!G14</f>
-        <v>2600</v>
+        <v>2</v>
+      </c>
+      <c r="E28" s="36">
+        <v>0</v>
       </c>
       <c r="F28" s="34"/>
-      <c r="G28" s="34" t="s">
-        <v>28</v>
-      </c>
+      <c r="G28" s="34"/>
       <c r="H28" s="34"/>
-      <c r="I28" s="107" t="s">
-        <v>76</v>
+      <c r="I28" s="29" t="s">
+        <v>25</v>
       </c>
       <c r="J28" s="83"/>
     </row>
-    <row r="29" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="19"/>
-      <c r="C29" s="88" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29" s="89">
-        <v>0.01</v>
-      </c>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="J29" s="83"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="35"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="83"/>
-    </row>
-    <row r="31" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="35"/>
-      <c r="C31" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="80"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="82"/>
-      <c r="J31" s="83"/>
-    </row>
-    <row r="32" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="35"/>
-      <c r="C32" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E32" s="36">
-        <f>'Research data'!G10</f>
-        <v>12</v>
-      </c>
-      <c r="F32" s="34"/>
-      <c r="G32" s="59" t="s">
-        <v>29</v>
-      </c>
-      <c r="H32" s="34"/>
-      <c r="I32" s="114" t="s">
-        <v>77</v>
-      </c>
-      <c r="J32" s="83"/>
-    </row>
-    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="35"/>
-      <c r="C33" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E33" s="36">
-        <v>0</v>
-      </c>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="J33" s="83"/>
-    </row>
-    <row r="34" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="37"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="39"/>
-    </row>
+    <row r="29" spans="2:11" ht="16" thickBot="1">
+      <c r="B29" s="37"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="39"/>
+    </row>
+    <row r="34" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E5"/>
@@ -3132,6 +3029,11 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3142,30 +3044,30 @@
   </sheetPr>
   <dimension ref="B2:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="40" customWidth="1"/>
+    <col min="1" max="1" width="4.375" style="40" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="40" customWidth="1"/>
-    <col min="3" max="3" width="33.1640625" style="40" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="40" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="40" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="33.125" style="40" customWidth="1"/>
+    <col min="4" max="4" width="16.625" style="40" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="40" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="11.5" style="40" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="40" customWidth="1"/>
-    <col min="8" max="8" width="2.6640625" style="40" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="40" customWidth="1"/>
+    <col min="8" max="8" width="2.625" style="40" customWidth="1"/>
     <col min="9" max="9" width="10.5" style="40" customWidth="1"/>
-    <col min="10" max="10" width="2.1640625" style="40" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" style="40" customWidth="1"/>
+    <col min="10" max="10" width="2.125" style="40" customWidth="1"/>
+    <col min="11" max="11" width="12.625" style="40" customWidth="1"/>
     <col min="12" max="12" width="2.5" style="40" customWidth="1"/>
     <col min="13" max="13" width="61.5" style="40" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="40"/>
+    <col min="14" max="16384" width="10.625" style="40"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" ht="16" thickBot="1"/>
+    <row r="3" spans="2:13">
       <c r="B3" s="41"/>
       <c r="C3" s="42"/>
       <c r="D3" s="42"/>
@@ -3179,33 +3081,33 @@
       <c r="L3" s="42"/>
       <c r="M3" s="42"/>
     </row>
-    <row r="4" spans="2:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" s="20" customFormat="1">
       <c r="B4" s="19"/>
-      <c r="C4" s="87" t="s">
-        <v>51</v>
+      <c r="C4" s="86" t="s">
+        <v>47</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="87" t="s">
+      <c r="F4" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87" t="s">
+      <c r="G4" s="86" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87" t="s">
-        <v>77</v>
-      </c>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="2:13" ht="18" customHeight="1">
       <c r="B5" s="43"/>
       <c r="C5" s="49"/>
       <c r="D5" s="49"/>
@@ -3216,10 +3118,10 @@
       <c r="I5" s="47"/>
       <c r="M5" s="56"/>
     </row>
-    <row r="6" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="18" customHeight="1" thickBot="1">
       <c r="B6" s="43"/>
       <c r="C6" s="12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -3231,31 +3133,31 @@
       <c r="L6" s="44"/>
       <c r="M6" s="55"/>
     </row>
-    <row r="7" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" ht="16" thickBot="1">
       <c r="B7" s="43"/>
-      <c r="C7" s="124" t="s">
-        <v>98</v>
+      <c r="C7" s="123" t="s">
+        <v>93</v>
       </c>
       <c r="D7" s="50"/>
       <c r="E7" s="50"/>
-      <c r="F7" s="125" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7" s="127">
+      <c r="F7" s="124" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="126">
         <f>K7</f>
         <v>0.19157088122605365</v>
       </c>
       <c r="H7" s="47"/>
-      <c r="I7" s="113"/>
+      <c r="I7" s="112"/>
       <c r="J7" s="44"/>
-      <c r="K7" s="127">
+      <c r="K7" s="126">
         <f>Notes!E70</f>
         <v>0.19157088122605365</v>
       </c>
       <c r="L7" s="44"/>
       <c r="M7" s="58"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13">
       <c r="B8" s="43"/>
       <c r="C8" s="49"/>
       <c r="D8" s="49"/>
@@ -3266,7 +3168,7 @@
       <c r="I8" s="47"/>
       <c r="M8" s="56"/>
     </row>
-    <row r="9" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="16" thickBot="1">
       <c r="B9" s="43"/>
       <c r="C9" s="12" t="s">
         <v>5</v>
@@ -3282,7 +3184,7 @@
       <c r="L9" s="44"/>
       <c r="M9" s="55"/>
     </row>
-    <row r="10" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="16" thickBot="1">
       <c r="B10" s="43"/>
       <c r="C10" s="50" t="s">
         <v>3</v>
@@ -3297,7 +3199,7 @@
         <v>12</v>
       </c>
       <c r="H10" s="47"/>
-      <c r="I10" s="113"/>
+      <c r="I10" s="112"/>
       <c r="J10" s="44"/>
       <c r="K10" s="51">
         <f>Notes!C12</f>
@@ -3306,7 +3208,7 @@
       <c r="L10" s="44"/>
       <c r="M10" s="58"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13">
       <c r="B11" s="43"/>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
@@ -3320,9 +3222,9 @@
       <c r="L11" s="44"/>
       <c r="M11" s="46"/>
     </row>
-    <row r="12" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="16" thickBot="1">
       <c r="C12" s="12" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -3335,9 +3237,9 @@
       <c r="L12" s="44"/>
       <c r="M12" s="60"/>
     </row>
-    <row r="13" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="86" t="s">
-        <v>53</v>
+    <row r="13" spans="2:13" ht="16" thickBot="1">
+      <c r="C13" s="85" t="s">
+        <v>49</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -3349,7 +3251,7 @@
         <v>184310.5</v>
       </c>
       <c r="H13" s="11"/>
-      <c r="I13" s="111">
+      <c r="I13" s="110">
         <f>Notes!C47</f>
         <v>200621</v>
       </c>
@@ -3359,38 +3261,43 @@
         <v>168000</v>
       </c>
       <c r="L13" s="47"/>
-      <c r="M13" s="109" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="108" t="s">
-        <v>54</v>
+      <c r="M13" s="108" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="16" thickBot="1">
+      <c r="C14" s="107" t="s">
+        <v>50</v>
       </c>
       <c r="D14" s="52"/>
       <c r="E14" s="52"/>
-      <c r="F14" s="85" t="s">
-        <v>26</v>
+      <c r="F14" s="84" t="s">
+        <v>24</v>
       </c>
       <c r="G14" s="53">
         <f>ROUND(2600,2)</f>
         <v>2600</v>
       </c>
       <c r="H14" s="54"/>
-      <c r="I14" s="110">
+      <c r="I14" s="109">
         <f>Notes!C54+Notes!C55</f>
         <v>2600</v>
       </c>
       <c r="J14" s="44"/>
       <c r="K14" s="47"/>
       <c r="L14" s="47"/>
-      <c r="M14" s="109" t="s">
-        <v>81</v>
+      <c r="M14" s="108" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3405,34 +3312,34 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="93" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" style="93" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" style="93" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="93" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" style="93" customWidth="1"/>
-    <col min="6" max="7" width="13.1640625" style="93" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="94" customWidth="1"/>
-    <col min="9" max="9" width="31.33203125" style="94" customWidth="1"/>
-    <col min="10" max="10" width="98.33203125" style="93" customWidth="1"/>
-    <col min="11" max="16384" width="33.1640625" style="93"/>
+    <col min="1" max="1" width="3.625" style="92" customWidth="1"/>
+    <col min="2" max="2" width="3.375" style="92" customWidth="1"/>
+    <col min="3" max="3" width="27.875" style="92" customWidth="1"/>
+    <col min="4" max="4" width="16.125" style="92" customWidth="1"/>
+    <col min="5" max="5" width="10.125" style="92" customWidth="1"/>
+    <col min="6" max="7" width="13.125" style="92" customWidth="1"/>
+    <col min="8" max="8" width="12.625" style="93" customWidth="1"/>
+    <col min="9" max="9" width="31.375" style="93" customWidth="1"/>
+    <col min="10" max="10" width="98.375" style="92" customWidth="1"/>
+    <col min="11" max="16384" width="33.125" style="92"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="95"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="96"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="98"/>
+    <row r="1" spans="2:10" ht="16" thickBot="1"/>
+    <row r="2" spans="2:10">
+      <c r="B2" s="94"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="95"/>
+    </row>
+    <row r="3" spans="2:10">
+      <c r="B3" s="97"/>
       <c r="C3" s="13" t="s">
         <v>16</v>
       </c>
@@ -3440,23 +3347,23 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="100"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="98"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="100"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="100"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="102"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="99"/>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="97"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="99"/>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" s="101"/>
       <c r="C5" s="77" t="s">
         <v>17</v>
       </c>
@@ -3470,143 +3377,148 @@
         <v>18</v>
       </c>
       <c r="G5" s="77" t="s">
-        <v>87</v>
-      </c>
-      <c r="H5" s="103" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="103" t="s">
-        <v>91</v>
+      <c r="I5" s="102" t="s">
+        <v>86</v>
       </c>
       <c r="J5" s="77" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="98"/>
+    <row r="6" spans="2:10">
+      <c r="B6" s="97"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="98"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="98"/>
-      <c r="C7" s="104"/>
-      <c r="D7" s="116" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" s="100" t="s">
+    <row r="7" spans="2:10">
+      <c r="B7" s="97"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="115" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="100">
+      <c r="F7" s="99">
         <v>2013</v>
       </c>
-      <c r="G7" s="100">
+      <c r="G7" s="99">
         <v>2012</v>
       </c>
-      <c r="H7" s="105"/>
-      <c r="I7" s="121" t="s">
-        <v>92</v>
-      </c>
-      <c r="J7" s="117" t="s">
+      <c r="H7" s="104"/>
+      <c r="I7" s="120" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" s="116" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" s="97"/>
+      <c r="C8" s="105" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="99"/>
+      <c r="J8" s="99"/>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" s="97"/>
+      <c r="C9" s="103" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="98"/>
-      <c r="C8" s="106" t="s">
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="97"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="99"/>
+      <c r="J10" s="99"/>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="97"/>
+      <c r="C11" s="125" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="115" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="99" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="99">
+        <v>2013</v>
+      </c>
+      <c r="G11" s="99">
+        <v>2012</v>
+      </c>
+      <c r="H11" s="99"/>
+      <c r="I11" s="120" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" s="115" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="97"/>
+      <c r="C12" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="98"/>
-      <c r="C9" s="104" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="100"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="98"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="100"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="98"/>
-      <c r="C11" s="126" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="116" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" s="100" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="100">
-        <v>2013</v>
-      </c>
-      <c r="G11" s="100">
-        <v>2012</v>
-      </c>
-      <c r="H11" s="100"/>
-      <c r="I11" s="121" t="s">
-        <v>93</v>
-      </c>
-      <c r="J11" s="116" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="98"/>
-      <c r="C12" s="104" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="98"/>
-      <c r="C13" s="112" t="s">
+      <c r="D12" s="99"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="99"/>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" s="97"/>
+      <c r="C13" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="100"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="99"/>
+      <c r="J13" s="99"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3618,36 +3530,36 @@
       <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="115" customWidth="1"/>
-    <col min="2" max="2" width="4.5" style="115" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="115" customWidth="1"/>
-    <col min="4" max="10" width="10.83203125" style="115"/>
-    <col min="11" max="11" width="10" style="115" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="115"/>
+    <col min="1" max="1" width="5.625" style="114" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="114" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="114" customWidth="1"/>
+    <col min="4" max="10" width="10.625" style="114"/>
+    <col min="11" max="11" width="10" style="114" customWidth="1"/>
+    <col min="12" max="16384" width="10.625" style="114"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="118"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-    </row>
-    <row r="3" spans="2:11" s="20" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" ht="16" thickBot="1"/>
+    <row r="2" spans="2:11">
+      <c r="B2" s="117"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+    </row>
+    <row r="3" spans="2:11" s="20" customFormat="1">
       <c r="B3" s="76"/>
       <c r="C3" s="77" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D3" s="77" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E3" s="77"/>
       <c r="F3" s="77"/>
@@ -3657,871 +3569,876 @@
       <c r="J3" s="77"/>
       <c r="K3" s="77"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="120"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="120"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="116"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="120"/>
-      <c r="C6" s="116" t="s">
-        <v>77</v>
-      </c>
-      <c r="D6" s="116"/>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
-      <c r="J6" s="116"/>
-      <c r="K6" s="116"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="120"/>
-      <c r="C7" s="116" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="116"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="120"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="116"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="120"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="120"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="120"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="116"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="120"/>
-      <c r="C12" s="116">
+    <row r="4" spans="2:11">
+      <c r="B4" s="119"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="119"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="119"/>
+      <c r="C6" s="115" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="119"/>
+      <c r="C7" s="115" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="119"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="119"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="115"/>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="119"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="115"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="119"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="115"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="119"/>
+      <c r="C12" s="115">
         <v>12</v>
       </c>
-      <c r="D12" s="116" t="s">
+      <c r="D12" s="115" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="115"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="115"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="119"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="115"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="119"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="119"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="115"/>
+      <c r="J15" s="115"/>
+      <c r="K15" s="115"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="119"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="119"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="115"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="119"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="115"/>
+      <c r="J18" s="115"/>
+      <c r="K18" s="115"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="119"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="115"/>
+      <c r="K19" s="115"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="119"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="115"/>
+      <c r="K20" s="115"/>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="119"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="115"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="115"/>
+      <c r="I21" s="115"/>
+      <c r="J21" s="115"/>
+      <c r="K21" s="115"/>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="119"/>
+      <c r="C22" s="115" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="115"/>
+      <c r="K22" s="115"/>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="119"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="115"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="115"/>
+      <c r="I23" s="115"/>
+      <c r="J23" s="115"/>
+      <c r="K23" s="115"/>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="119"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="115"/>
+      <c r="I24" s="115"/>
+      <c r="J24" s="115"/>
+      <c r="K24" s="115"/>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="119"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="115"/>
+      <c r="J25" s="115"/>
+      <c r="K25" s="115"/>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="119"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="115"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="115"/>
+      <c r="J26" s="115"/>
+      <c r="K26" s="115"/>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="119"/>
+      <c r="C27" s="115"/>
+      <c r="D27" s="115"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="115"/>
+      <c r="G27" s="115"/>
+      <c r="H27" s="115"/>
+      <c r="I27" s="115"/>
+      <c r="J27" s="115"/>
+      <c r="K27" s="115"/>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="119"/>
+      <c r="C28" s="115"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="115"/>
+      <c r="G28" s="115"/>
+      <c r="H28" s="115"/>
+      <c r="I28" s="115"/>
+      <c r="J28" s="115"/>
+      <c r="K28" s="115"/>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" s="119"/>
+      <c r="C29" s="115">
+        <v>168000</v>
+      </c>
+      <c r="D29" s="115" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="115"/>
+      <c r="F29" s="115"/>
+      <c r="G29" s="115"/>
+      <c r="H29" s="115"/>
+      <c r="I29" s="115"/>
+      <c r="J29" s="115"/>
+      <c r="K29" s="115"/>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="119"/>
+      <c r="C30" s="115"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="115"/>
+      <c r="H30" s="115"/>
+      <c r="I30" s="115"/>
+      <c r="J30" s="115"/>
+      <c r="K30" s="115"/>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" s="119"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="115"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="115"/>
+      <c r="G31" s="115"/>
+      <c r="H31" s="115"/>
+      <c r="I31" s="115"/>
+      <c r="J31" s="115"/>
+      <c r="K31" s="115"/>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" s="119"/>
+      <c r="C32" s="115"/>
+      <c r="D32" s="115"/>
+      <c r="E32" s="115"/>
+      <c r="F32" s="115"/>
+      <c r="G32" s="115"/>
+      <c r="H32" s="115"/>
+      <c r="I32" s="115"/>
+      <c r="J32" s="115"/>
+      <c r="K32" s="115"/>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33" s="119"/>
+      <c r="C33" s="115"/>
+      <c r="D33" s="115"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="115"/>
+      <c r="G33" s="115"/>
+      <c r="H33" s="115"/>
+      <c r="I33" s="115"/>
+      <c r="J33" s="115"/>
+      <c r="K33" s="115"/>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34" s="119"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="115"/>
+      <c r="I34" s="115"/>
+      <c r="J34" s="115"/>
+      <c r="K34" s="115"/>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="B35" s="119"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="115"/>
+      <c r="E35" s="115"/>
+      <c r="F35" s="115"/>
+      <c r="G35" s="115"/>
+      <c r="H35" s="115"/>
+      <c r="I35" s="115"/>
+      <c r="J35" s="115"/>
+      <c r="K35" s="115"/>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="B36" s="119"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="115"/>
+      <c r="E36" s="115"/>
+      <c r="F36" s="115"/>
+      <c r="G36" s="115"/>
+      <c r="H36" s="115"/>
+      <c r="I36" s="115"/>
+      <c r="J36" s="115"/>
+      <c r="K36" s="115"/>
+    </row>
+    <row r="37" spans="2:11">
+      <c r="B37" s="119"/>
+      <c r="C37" s="115"/>
+      <c r="D37" s="115"/>
+      <c r="E37" s="115"/>
+      <c r="F37" s="115"/>
+      <c r="G37" s="115"/>
+      <c r="H37" s="115"/>
+      <c r="I37" s="115"/>
+      <c r="J37" s="115"/>
+      <c r="K37" s="115"/>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="B38" s="119"/>
+      <c r="C38" s="115"/>
+      <c r="D38" s="115"/>
+      <c r="E38" s="115"/>
+      <c r="F38" s="115"/>
+      <c r="G38" s="115"/>
+      <c r="H38" s="115"/>
+      <c r="I38" s="115"/>
+      <c r="J38" s="115"/>
+      <c r="K38" s="115"/>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="B39" s="119"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="115"/>
+      <c r="E39" s="115"/>
+      <c r="F39" s="115"/>
+      <c r="G39" s="115"/>
+      <c r="H39" s="115"/>
+      <c r="I39" s="115"/>
+      <c r="J39" s="115"/>
+      <c r="K39" s="115"/>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="B40" s="119"/>
+      <c r="C40" s="115"/>
+      <c r="D40" s="115"/>
+      <c r="E40" s="115"/>
+      <c r="F40" s="115"/>
+      <c r="G40" s="115"/>
+      <c r="H40" s="115"/>
+      <c r="I40" s="115"/>
+      <c r="J40" s="115"/>
+      <c r="K40" s="115"/>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="B41" s="119"/>
+      <c r="C41" s="115" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="115"/>
+      <c r="E41" s="115"/>
+      <c r="F41" s="115"/>
+      <c r="G41" s="115"/>
+      <c r="H41" s="115"/>
+      <c r="I41" s="115"/>
+      <c r="J41" s="115"/>
+      <c r="K41" s="115"/>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="B42" s="119"/>
+      <c r="C42" s="115" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="115"/>
+      <c r="E42" s="115"/>
+      <c r="F42" s="115"/>
+      <c r="G42" s="115"/>
+      <c r="H42" s="115"/>
+      <c r="I42" s="115"/>
+      <c r="J42" s="115"/>
+      <c r="K42" s="115"/>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="B43" s="119"/>
+      <c r="C43" s="115"/>
+      <c r="D43" s="115"/>
+      <c r="E43" s="115"/>
+      <c r="F43" s="115"/>
+      <c r="G43" s="115"/>
+      <c r="H43" s="115"/>
+      <c r="I43" s="115"/>
+      <c r="J43" s="115"/>
+      <c r="K43" s="115"/>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="B44" s="119"/>
+      <c r="C44" s="115"/>
+      <c r="D44" s="115"/>
+      <c r="E44" s="115"/>
+      <c r="F44" s="115"/>
+      <c r="G44" s="115"/>
+      <c r="H44" s="115"/>
+      <c r="I44" s="115"/>
+      <c r="J44" s="115"/>
+      <c r="K44" s="115"/>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="B45" s="119"/>
+      <c r="C45" s="115"/>
+      <c r="D45" s="115"/>
+      <c r="E45" s="115"/>
+      <c r="F45" s="115"/>
+      <c r="G45" s="115"/>
+      <c r="H45" s="115"/>
+      <c r="I45" s="115"/>
+      <c r="J45" s="115"/>
+      <c r="K45" s="115"/>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="B46" s="119"/>
+      <c r="C46" s="115"/>
+      <c r="D46" s="115"/>
+      <c r="E46" s="115"/>
+      <c r="F46" s="115"/>
+      <c r="G46" s="115"/>
+      <c r="H46" s="115"/>
+      <c r="I46" s="115"/>
+      <c r="J46" s="115"/>
+      <c r="K46" s="115"/>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="B47" s="119"/>
+      <c r="C47" s="115">
+        <v>200621</v>
+      </c>
+      <c r="D47" s="115" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="115"/>
+      <c r="F47" s="115"/>
+      <c r="G47" s="115"/>
+      <c r="H47" s="115"/>
+      <c r="I47" s="115"/>
+      <c r="J47" s="115"/>
+      <c r="K47" s="115"/>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48" s="119"/>
+      <c r="C48" s="115"/>
+      <c r="D48" s="115"/>
+      <c r="E48" s="115"/>
+      <c r="F48" s="115"/>
+      <c r="G48" s="115"/>
+      <c r="H48" s="115"/>
+      <c r="I48" s="115"/>
+      <c r="J48" s="115"/>
+      <c r="K48" s="115"/>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49" s="119"/>
+      <c r="C49" s="115"/>
+      <c r="D49" s="115"/>
+      <c r="E49" s="115"/>
+      <c r="F49" s="115"/>
+      <c r="G49" s="115"/>
+      <c r="H49" s="115"/>
+      <c r="I49" s="115"/>
+      <c r="J49" s="115"/>
+      <c r="K49" s="115"/>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="B50" s="119"/>
+      <c r="C50" s="115"/>
+      <c r="D50" s="115"/>
+      <c r="E50" s="115"/>
+      <c r="F50" s="115"/>
+      <c r="G50" s="115"/>
+      <c r="H50" s="115"/>
+      <c r="I50" s="115"/>
+      <c r="J50" s="115"/>
+      <c r="K50" s="115"/>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="B51" s="119"/>
+      <c r="C51" s="115"/>
+      <c r="D51" s="115"/>
+      <c r="E51" s="115"/>
+      <c r="F51" s="115"/>
+      <c r="G51" s="115"/>
+      <c r="H51" s="115"/>
+      <c r="I51" s="115"/>
+      <c r="J51" s="115"/>
+      <c r="K51" s="115"/>
+    </row>
+    <row r="52" spans="2:11">
+      <c r="B52" s="119"/>
+      <c r="C52" s="115"/>
+      <c r="D52" s="115"/>
+      <c r="E52" s="115"/>
+      <c r="F52" s="115"/>
+      <c r="G52" s="115"/>
+      <c r="H52" s="115"/>
+      <c r="I52" s="115"/>
+      <c r="J52" s="115"/>
+      <c r="K52" s="115"/>
+    </row>
+    <row r="53" spans="2:11">
+      <c r="B53" s="119"/>
+      <c r="C53" s="115"/>
+      <c r="D53" s="115"/>
+      <c r="E53" s="115"/>
+      <c r="F53" s="115"/>
+      <c r="G53" s="115"/>
+      <c r="H53" s="115"/>
+      <c r="I53" s="115"/>
+      <c r="J53" s="115"/>
+      <c r="K53" s="115"/>
+    </row>
+    <row r="54" spans="2:11">
+      <c r="B54" s="119"/>
+      <c r="C54" s="115">
+        <v>2080</v>
+      </c>
+      <c r="D54" s="115" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="116"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="116"/>
-      <c r="I12" s="116"/>
-      <c r="J12" s="116"/>
-      <c r="K12" s="116"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="120"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="120"/>
-      <c r="C14" s="116"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="116"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="116"/>
-      <c r="I14" s="116"/>
-      <c r="J14" s="116"/>
-      <c r="K14" s="116"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="120"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="116"/>
-      <c r="I15" s="116"/>
-      <c r="J15" s="116"/>
-      <c r="K15" s="116"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="120"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="120"/>
-      <c r="C17" s="116"/>
-      <c r="D17" s="116"/>
-      <c r="E17" s="116"/>
-      <c r="F17" s="116"/>
-      <c r="G17" s="116"/>
-      <c r="H17" s="116"/>
-      <c r="I17" s="116"/>
-      <c r="J17" s="116"/>
-      <c r="K17" s="116"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="120"/>
-      <c r="C18" s="116"/>
-      <c r="D18" s="116"/>
-      <c r="E18" s="116"/>
-      <c r="F18" s="116"/>
-      <c r="G18" s="116"/>
-      <c r="H18" s="116"/>
-      <c r="I18" s="116"/>
-      <c r="J18" s="116"/>
-      <c r="K18" s="116"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="120"/>
-      <c r="C19" s="116"/>
-      <c r="D19" s="116"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="116"/>
-      <c r="K19" s="116"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="120"/>
-      <c r="C20" s="116"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="116"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="116"/>
-      <c r="K20" s="116"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="120"/>
-      <c r="C21" s="116"/>
-      <c r="D21" s="116"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="116"/>
-      <c r="K21" s="116"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="120"/>
-      <c r="C22" s="116" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" s="116"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="116"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="116"/>
-      <c r="K22" s="116"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="120"/>
-      <c r="C23" s="116"/>
-      <c r="D23" s="116"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="116"/>
-      <c r="J23" s="116"/>
-      <c r="K23" s="116"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="120"/>
-      <c r="C24" s="116"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="116"/>
-      <c r="I24" s="116"/>
-      <c r="J24" s="116"/>
-      <c r="K24" s="116"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="120"/>
-      <c r="C25" s="116"/>
-      <c r="D25" s="116"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="116"/>
-      <c r="G25" s="116"/>
-      <c r="H25" s="116"/>
-      <c r="I25" s="116"/>
-      <c r="J25" s="116"/>
-      <c r="K25" s="116"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B26" s="120"/>
-      <c r="C26" s="116"/>
-      <c r="D26" s="116"/>
-      <c r="E26" s="116"/>
-      <c r="F26" s="116"/>
-      <c r="G26" s="116"/>
-      <c r="H26" s="116"/>
-      <c r="I26" s="116"/>
-      <c r="J26" s="116"/>
-      <c r="K26" s="116"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="120"/>
-      <c r="C27" s="116"/>
-      <c r="D27" s="116"/>
-      <c r="E27" s="116"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="116"/>
-      <c r="H27" s="116"/>
-      <c r="I27" s="116"/>
-      <c r="J27" s="116"/>
-      <c r="K27" s="116"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="120"/>
-      <c r="C28" s="116"/>
-      <c r="D28" s="116"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="116"/>
-      <c r="G28" s="116"/>
-      <c r="H28" s="116"/>
-      <c r="I28" s="116"/>
-      <c r="J28" s="116"/>
-      <c r="K28" s="116"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="120"/>
-      <c r="C29" s="116">
-        <v>168000</v>
-      </c>
-      <c r="D29" s="116" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="116"/>
-      <c r="F29" s="116"/>
-      <c r="G29" s="116"/>
-      <c r="H29" s="116"/>
-      <c r="I29" s="116"/>
-      <c r="J29" s="116"/>
-      <c r="K29" s="116"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="120"/>
-      <c r="C30" s="116"/>
-      <c r="D30" s="116"/>
-      <c r="E30" s="116"/>
-      <c r="F30" s="116"/>
-      <c r="G30" s="116"/>
-      <c r="H30" s="116"/>
-      <c r="I30" s="116"/>
-      <c r="J30" s="116"/>
-      <c r="K30" s="116"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="120"/>
-      <c r="C31" s="116"/>
-      <c r="D31" s="116"/>
-      <c r="E31" s="116"/>
-      <c r="F31" s="116"/>
-      <c r="G31" s="116"/>
-      <c r="H31" s="116"/>
-      <c r="I31" s="116"/>
-      <c r="J31" s="116"/>
-      <c r="K31" s="116"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="120"/>
-      <c r="C32" s="116"/>
-      <c r="D32" s="116"/>
-      <c r="E32" s="116"/>
-      <c r="F32" s="116"/>
-      <c r="G32" s="116"/>
-      <c r="H32" s="116"/>
-      <c r="I32" s="116"/>
-      <c r="J32" s="116"/>
-      <c r="K32" s="116"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B33" s="120"/>
-      <c r="C33" s="116"/>
-      <c r="D33" s="116"/>
-      <c r="E33" s="116"/>
-      <c r="F33" s="116"/>
-      <c r="G33" s="116"/>
-      <c r="H33" s="116"/>
-      <c r="I33" s="116"/>
-      <c r="J33" s="116"/>
-      <c r="K33" s="116"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B34" s="120"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="116"/>
-      <c r="E34" s="116"/>
-      <c r="F34" s="116"/>
-      <c r="G34" s="116"/>
-      <c r="H34" s="116"/>
-      <c r="I34" s="116"/>
-      <c r="J34" s="116"/>
-      <c r="K34" s="116"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B35" s="120"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="116"/>
-      <c r="E35" s="116"/>
-      <c r="F35" s="116"/>
-      <c r="G35" s="116"/>
-      <c r="H35" s="116"/>
-      <c r="I35" s="116"/>
-      <c r="J35" s="116"/>
-      <c r="K35" s="116"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B36" s="120"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="116"/>
-      <c r="E36" s="116"/>
-      <c r="F36" s="116"/>
-      <c r="G36" s="116"/>
-      <c r="H36" s="116"/>
-      <c r="I36" s="116"/>
-      <c r="J36" s="116"/>
-      <c r="K36" s="116"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B37" s="120"/>
-      <c r="C37" s="116"/>
-      <c r="D37" s="116"/>
-      <c r="E37" s="116"/>
-      <c r="F37" s="116"/>
-      <c r="G37" s="116"/>
-      <c r="H37" s="116"/>
-      <c r="I37" s="116"/>
-      <c r="J37" s="116"/>
-      <c r="K37" s="116"/>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B38" s="120"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="116"/>
-      <c r="E38" s="116"/>
-      <c r="F38" s="116"/>
-      <c r="G38" s="116"/>
-      <c r="H38" s="116"/>
-      <c r="I38" s="116"/>
-      <c r="J38" s="116"/>
-      <c r="K38" s="116"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B39" s="120"/>
-      <c r="C39" s="116"/>
-      <c r="D39" s="116"/>
-      <c r="E39" s="116"/>
-      <c r="F39" s="116"/>
-      <c r="G39" s="116"/>
-      <c r="H39" s="116"/>
-      <c r="I39" s="116"/>
-      <c r="J39" s="116"/>
-      <c r="K39" s="116"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B40" s="120"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="116"/>
-      <c r="E40" s="116"/>
-      <c r="F40" s="116"/>
-      <c r="G40" s="116"/>
-      <c r="H40" s="116"/>
-      <c r="I40" s="116"/>
-      <c r="J40" s="116"/>
-      <c r="K40" s="116"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B41" s="120"/>
-      <c r="C41" s="116" t="s">
-        <v>76</v>
-      </c>
-      <c r="D41" s="116"/>
-      <c r="E41" s="116"/>
-      <c r="F41" s="116"/>
-      <c r="G41" s="116"/>
-      <c r="H41" s="116"/>
-      <c r="I41" s="116"/>
-      <c r="J41" s="116"/>
-      <c r="K41" s="116"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B42" s="120"/>
-      <c r="C42" s="116" t="s">
-        <v>89</v>
-      </c>
-      <c r="D42" s="116"/>
-      <c r="E42" s="116"/>
-      <c r="F42" s="116"/>
-      <c r="G42" s="116"/>
-      <c r="H42" s="116"/>
-      <c r="I42" s="116"/>
-      <c r="J42" s="116"/>
-      <c r="K42" s="116"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B43" s="120"/>
-      <c r="C43" s="116"/>
-      <c r="D43" s="116"/>
-      <c r="E43" s="116"/>
-      <c r="F43" s="116"/>
-      <c r="G43" s="116"/>
-      <c r="H43" s="116"/>
-      <c r="I43" s="116"/>
-      <c r="J43" s="116"/>
-      <c r="K43" s="116"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B44" s="120"/>
-      <c r="C44" s="116"/>
-      <c r="D44" s="116"/>
-      <c r="E44" s="116"/>
-      <c r="F44" s="116"/>
-      <c r="G44" s="116"/>
-      <c r="H44" s="116"/>
-      <c r="I44" s="116"/>
-      <c r="J44" s="116"/>
-      <c r="K44" s="116"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B45" s="120"/>
-      <c r="C45" s="116"/>
-      <c r="D45" s="116"/>
-      <c r="E45" s="116"/>
-      <c r="F45" s="116"/>
-      <c r="G45" s="116"/>
-      <c r="H45" s="116"/>
-      <c r="I45" s="116"/>
-      <c r="J45" s="116"/>
-      <c r="K45" s="116"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B46" s="120"/>
-      <c r="C46" s="116"/>
-      <c r="D46" s="116"/>
-      <c r="E46" s="116"/>
-      <c r="F46" s="116"/>
-      <c r="G46" s="116"/>
-      <c r="H46" s="116"/>
-      <c r="I46" s="116"/>
-      <c r="J46" s="116"/>
-      <c r="K46" s="116"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B47" s="120"/>
-      <c r="C47" s="116">
-        <v>200621</v>
-      </c>
-      <c r="D47" s="116" t="s">
-        <v>21</v>
-      </c>
-      <c r="E47" s="116"/>
-      <c r="F47" s="116"/>
-      <c r="G47" s="116"/>
-      <c r="H47" s="116"/>
-      <c r="I47" s="116"/>
-      <c r="J47" s="116"/>
-      <c r="K47" s="116"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B48" s="120"/>
-      <c r="C48" s="116"/>
-      <c r="D48" s="116"/>
-      <c r="E48" s="116"/>
-      <c r="F48" s="116"/>
-      <c r="G48" s="116"/>
-      <c r="H48" s="116"/>
-      <c r="I48" s="116"/>
-      <c r="J48" s="116"/>
-      <c r="K48" s="116"/>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B49" s="120"/>
-      <c r="C49" s="116"/>
-      <c r="D49" s="116"/>
-      <c r="E49" s="116"/>
-      <c r="F49" s="116"/>
-      <c r="G49" s="116"/>
-      <c r="H49" s="116"/>
-      <c r="I49" s="116"/>
-      <c r="J49" s="116"/>
-      <c r="K49" s="116"/>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B50" s="120"/>
-      <c r="C50" s="116"/>
-      <c r="D50" s="116"/>
-      <c r="E50" s="116"/>
-      <c r="F50" s="116"/>
-      <c r="G50" s="116"/>
-      <c r="H50" s="116"/>
-      <c r="I50" s="116"/>
-      <c r="J50" s="116"/>
-      <c r="K50" s="116"/>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B51" s="120"/>
-      <c r="C51" s="116"/>
-      <c r="D51" s="116"/>
-      <c r="E51" s="116"/>
-      <c r="F51" s="116"/>
-      <c r="G51" s="116"/>
-      <c r="H51" s="116"/>
-      <c r="I51" s="116"/>
-      <c r="J51" s="116"/>
-      <c r="K51" s="116"/>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B52" s="120"/>
-      <c r="C52" s="116"/>
-      <c r="D52" s="116"/>
-      <c r="E52" s="116"/>
-      <c r="F52" s="116"/>
-      <c r="G52" s="116"/>
-      <c r="H52" s="116"/>
-      <c r="I52" s="116"/>
-      <c r="J52" s="116"/>
-      <c r="K52" s="116"/>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B53" s="120"/>
-      <c r="C53" s="116"/>
-      <c r="D53" s="116"/>
-      <c r="E53" s="116"/>
-      <c r="F53" s="116"/>
-      <c r="G53" s="116"/>
-      <c r="H53" s="116"/>
-      <c r="I53" s="116"/>
-      <c r="J53" s="116"/>
-      <c r="K53" s="116"/>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B54" s="120"/>
-      <c r="C54" s="116">
-        <v>2080</v>
-      </c>
-      <c r="D54" s="116" t="s">
+      <c r="E54" s="115"/>
+      <c r="F54" s="115"/>
+      <c r="G54" s="115"/>
+      <c r="H54" s="115"/>
+      <c r="I54" s="115"/>
+      <c r="J54" s="115"/>
+      <c r="K54" s="115"/>
+    </row>
+    <row r="55" spans="2:11">
+      <c r="B55" s="119"/>
+      <c r="C55" s="115">
+        <v>520</v>
+      </c>
+      <c r="D55" s="115" t="s">
+        <v>85</v>
+      </c>
+      <c r="E55" s="115"/>
+      <c r="F55" s="115"/>
+      <c r="G55" s="115"/>
+      <c r="H55" s="115"/>
+      <c r="I55" s="115"/>
+      <c r="J55" s="115"/>
+      <c r="K55" s="115"/>
+    </row>
+    <row r="56" spans="2:11">
+      <c r="B56" s="119"/>
+      <c r="C56" s="115"/>
+      <c r="D56" s="115"/>
+      <c r="E56" s="115"/>
+      <c r="F56" s="115"/>
+      <c r="G56" s="115"/>
+      <c r="H56" s="115"/>
+      <c r="I56" s="115"/>
+      <c r="J56" s="115"/>
+      <c r="K56" s="115"/>
+    </row>
+    <row r="57" spans="2:11">
+      <c r="B57" s="119"/>
+      <c r="C57" s="115"/>
+      <c r="D57" s="115"/>
+      <c r="E57" s="115"/>
+      <c r="F57" s="115"/>
+      <c r="G57" s="115"/>
+      <c r="H57" s="115"/>
+      <c r="I57" s="115"/>
+      <c r="J57" s="115"/>
+      <c r="K57" s="115"/>
+    </row>
+    <row r="58" spans="2:11">
+      <c r="B58" s="119"/>
+      <c r="C58" s="115"/>
+      <c r="D58" s="115"/>
+      <c r="E58" s="115"/>
+      <c r="F58" s="115"/>
+      <c r="G58" s="115"/>
+      <c r="H58" s="115"/>
+      <c r="I58" s="115"/>
+      <c r="J58" s="115"/>
+      <c r="K58" s="115"/>
+    </row>
+    <row r="59" spans="2:11">
+      <c r="B59" s="119"/>
+      <c r="C59" s="115"/>
+      <c r="D59" s="115"/>
+      <c r="E59" s="115"/>
+      <c r="F59" s="115"/>
+      <c r="G59" s="115"/>
+      <c r="H59" s="115"/>
+      <c r="I59" s="115"/>
+      <c r="J59" s="115"/>
+      <c r="K59" s="115"/>
+    </row>
+    <row r="60" spans="2:11">
+      <c r="B60" s="119"/>
+      <c r="C60" s="115"/>
+      <c r="D60" s="115"/>
+      <c r="E60" s="115"/>
+      <c r="F60" s="115"/>
+      <c r="G60" s="115"/>
+      <c r="H60" s="115"/>
+      <c r="I60" s="115"/>
+      <c r="J60" s="115"/>
+      <c r="K60" s="115"/>
+    </row>
+    <row r="61" spans="2:11">
+      <c r="B61" s="119"/>
+    </row>
+    <row r="62" spans="2:11">
+      <c r="B62" s="119"/>
+    </row>
+    <row r="63" spans="2:11">
+      <c r="B63" s="119"/>
+    </row>
+    <row r="64" spans="2:11">
+      <c r="B64" s="119"/>
+    </row>
+    <row r="65" spans="2:6">
+      <c r="B65" s="119"/>
+    </row>
+    <row r="66" spans="2:6">
+      <c r="B66" s="119"/>
+    </row>
+    <row r="67" spans="2:6">
+      <c r="B67" s="119"/>
+      <c r="C67" s="122" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6">
+      <c r="B68" s="119"/>
+      <c r="C68" s="122" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6">
+      <c r="B69" s="119"/>
+      <c r="E69" s="114">
+        <v>5.22</v>
+      </c>
+      <c r="F69" s="122" t="s">
         <v>90</v>
       </c>
-      <c r="E54" s="116"/>
-      <c r="F54" s="116"/>
-      <c r="G54" s="116"/>
-      <c r="H54" s="116"/>
-      <c r="I54" s="116"/>
-      <c r="J54" s="116"/>
-      <c r="K54" s="116"/>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B55" s="120"/>
-      <c r="C55" s="116">
-        <v>520</v>
-      </c>
-      <c r="D55" s="116" t="s">
-        <v>90</v>
-      </c>
-      <c r="E55" s="116"/>
-      <c r="F55" s="116"/>
-      <c r="G55" s="116"/>
-      <c r="H55" s="116"/>
-      <c r="I55" s="116"/>
-      <c r="J55" s="116"/>
-      <c r="K55" s="116"/>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B56" s="120"/>
-      <c r="C56" s="116"/>
-      <c r="D56" s="116"/>
-      <c r="E56" s="116"/>
-      <c r="F56" s="116"/>
-      <c r="G56" s="116"/>
-      <c r="H56" s="116"/>
-      <c r="I56" s="116"/>
-      <c r="J56" s="116"/>
-      <c r="K56" s="116"/>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B57" s="120"/>
-      <c r="C57" s="116"/>
-      <c r="D57" s="116"/>
-      <c r="E57" s="116"/>
-      <c r="F57" s="116"/>
-      <c r="G57" s="116"/>
-      <c r="H57" s="116"/>
-      <c r="I57" s="116"/>
-      <c r="J57" s="116"/>
-      <c r="K57" s="116"/>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B58" s="120"/>
-      <c r="C58" s="116"/>
-      <c r="D58" s="116"/>
-      <c r="E58" s="116"/>
-      <c r="F58" s="116"/>
-      <c r="G58" s="116"/>
-      <c r="H58" s="116"/>
-      <c r="I58" s="116"/>
-      <c r="J58" s="116"/>
-      <c r="K58" s="116"/>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B59" s="120"/>
-      <c r="C59" s="116"/>
-      <c r="D59" s="116"/>
-      <c r="E59" s="116"/>
-      <c r="F59" s="116"/>
-      <c r="G59" s="116"/>
-      <c r="H59" s="116"/>
-      <c r="I59" s="116"/>
-      <c r="J59" s="116"/>
-      <c r="K59" s="116"/>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B60" s="120"/>
-      <c r="C60" s="116"/>
-      <c r="D60" s="116"/>
-      <c r="E60" s="116"/>
-      <c r="F60" s="116"/>
-      <c r="G60" s="116"/>
-      <c r="H60" s="116"/>
-      <c r="I60" s="116"/>
-      <c r="J60" s="116"/>
-      <c r="K60" s="116"/>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B61" s="120"/>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B62" s="120"/>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B63" s="120"/>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B64" s="120"/>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B65" s="120"/>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B66" s="120"/>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B67" s="120"/>
-      <c r="C67" s="123" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B68" s="120"/>
-      <c r="C68" s="123" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B69" s="120"/>
-      <c r="E69" s="115">
-        <v>5.22</v>
-      </c>
-      <c r="F69" s="123" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B70" s="120"/>
-      <c r="E70" s="115">
+    </row>
+    <row r="70" spans="2:6">
+      <c r="B70" s="119"/>
+      <c r="E70" s="114">
         <f>1/E69</f>
         <v>0.19157088122605365</v>
       </c>
-      <c r="F70" s="123" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B71" s="120"/>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B72" s="120"/>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B73" s="120"/>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B74" s="120"/>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B75" s="120"/>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B76" s="120"/>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B77" s="120"/>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B78" s="120"/>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B79" s="120"/>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B80" s="120"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B81" s="120"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B82" s="120"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B83" s="120"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B84" s="120"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B85" s="120"/>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B86" s="120"/>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B87" s="120"/>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B88" s="120"/>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B89" s="120"/>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B90" s="120"/>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B91" s="120"/>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B92" s="120"/>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B93" s="120"/>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B94" s="120"/>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B95" s="120"/>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B96" s="120"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B97" s="120"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B98" s="120"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B99" s="120"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B100" s="120"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B101" s="120"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B102" s="120"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B103" s="120"/>
+      <c r="F70" s="122" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6">
+      <c r="B71" s="119"/>
+    </row>
+    <row r="72" spans="2:6">
+      <c r="B72" s="119"/>
+    </row>
+    <row r="73" spans="2:6">
+      <c r="B73" s="119"/>
+    </row>
+    <row r="74" spans="2:6">
+      <c r="B74" s="119"/>
+    </row>
+    <row r="75" spans="2:6">
+      <c r="B75" s="119"/>
+    </row>
+    <row r="76" spans="2:6">
+      <c r="B76" s="119"/>
+    </row>
+    <row r="77" spans="2:6">
+      <c r="B77" s="119"/>
+    </row>
+    <row r="78" spans="2:6">
+      <c r="B78" s="119"/>
+    </row>
+    <row r="79" spans="2:6">
+      <c r="B79" s="119"/>
+    </row>
+    <row r="80" spans="2:6">
+      <c r="B80" s="119"/>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="119"/>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="119"/>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="119"/>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="119"/>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="119"/>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="119"/>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="119"/>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="119"/>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="119"/>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="119"/>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="119"/>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="119"/>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="119"/>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="119"/>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="119"/>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="119"/>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="119"/>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="119"/>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="119"/>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="119"/>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="119"/>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="119"/>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="119"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/transport/transport_truck_using_electricity.converter.xlsx
+++ b/nodes_source_analyses/transport/transport_truck_using_electricity.converter.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/transport/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="1600" yWindow="460" windowWidth="24720" windowHeight="14540" tabRatio="762" activeTab="1"/>
   </bookViews>
@@ -31,8 +36,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="150001" iterate="1" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -176,9 +184,6 @@
   </si>
   <si>
     <t>Output to csv</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <t>Technical</t>
@@ -415,6 +420,10 @@
   <si>
     <t>efficiency</t>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
@@ -424,7 +433,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -640,11 +649,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1193,7 +1197,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1291,7 +1295,7 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1307,7 +1311,7 @@
     <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1322,7 +1326,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="22" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="22" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1380,31 +1384,10 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1664,77 +1647,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>304800</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>88900</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1891,7 +1804,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2334,41 +2247,41 @@
       <selection activeCell="J27" sqref="A1:J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="17" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="17"/>
+    <col min="1" max="1" width="3.140625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="17" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="23" customFormat="1">
+    <row r="1" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="21"/>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="24" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="24"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>28</v>
@@ -2377,7 +2290,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>14</v>
@@ -2386,29 +2299,29 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="61" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="62"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="63"/>
       <c r="C10" s="64"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="63" t="s">
         <v>31</v>
@@ -2417,33 +2330,33 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="63"/>
       <c r="C12" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="63"/>
       <c r="C13" s="66" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="63"/>
       <c r="C14" s="64" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="63"/>
       <c r="C15" s="64"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="63" t="s">
         <v>36</v>
@@ -2452,49 +2365,49 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="63"/>
       <c r="C17" s="68" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="63"/>
       <c r="C18" s="69" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="63"/>
       <c r="C19" s="70" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="71"/>
       <c r="C20" s="72" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="71"/>
       <c r="C21" s="73" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="71"/>
       <c r="C22" s="74" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="71"/>
       <c r="C23" s="75" t="s">
         <v>44</v>
@@ -2503,84 +2416,79 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:K29"/>
+      <selection activeCell="B2" sqref="B2:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="30" customWidth="1"/>
-    <col min="2" max="2" width="3.625" style="30" customWidth="1"/>
-    <col min="3" max="3" width="33.875" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="30" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="30" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="30" customWidth="1"/>
-    <col min="7" max="7" width="44.125" style="30" customWidth="1"/>
-    <col min="8" max="8" width="2.5" style="30" customWidth="1"/>
-    <col min="9" max="9" width="42.5" style="30" customWidth="1"/>
-    <col min="10" max="10" width="3.625" style="30" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="30"/>
+    <col min="1" max="1" width="3.140625" style="30" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" style="30" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="30" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="30" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="30" customWidth="1"/>
+    <col min="7" max="7" width="44.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="2.42578125" style="30" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" style="30" customWidth="1"/>
+    <col min="10" max="10" width="3.5703125" style="30" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D1" s="31"/>
       <c r="E1" s="31"/>
       <c r="F1" s="31"/>
       <c r="G1" s="31"/>
     </row>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="128" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="C2" s="129"/>
       <c r="D2" s="129"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-    </row>
-    <row r="3" spans="2:10">
-      <c r="B3" s="131"/>
-      <c r="C3" s="132"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-    </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="131"/>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-    </row>
-    <row r="5" spans="2:10">
-      <c r="B5" s="134"/>
-      <c r="C5" s="135"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-    </row>
-    <row r="6" spans="2:10" ht="16" thickBot="1">
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="128"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="129"/>
+      <c r="G3" s="129"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="128"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="128"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+    </row>
+    <row r="6" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D6" s="31"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="32"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -2591,7 +2499,7 @@
       <c r="I7" s="15"/>
       <c r="J7" s="33"/>
     </row>
-    <row r="8" spans="2:10" s="20" customFormat="1">
+    <row r="8" spans="2:10" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="76"/>
       <c r="C8" s="77" t="s">
         <v>20</v>
@@ -2612,7 +2520,7 @@
       </c>
       <c r="J8" s="79"/>
     </row>
-    <row r="9" spans="2:10" s="20" customFormat="1">
+    <row r="9" spans="2:10" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="19"/>
       <c r="C9" s="13"/>
       <c r="D9" s="27"/>
@@ -2623,10 +2531,10 @@
       <c r="I9" s="13"/>
       <c r="J9" s="14"/>
     </row>
-    <row r="10" spans="2:10" s="20" customFormat="1" ht="16" thickBot="1">
+    <row r="10" spans="2:10" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="19"/>
       <c r="C10" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="13"/>
@@ -2636,10 +2544,10 @@
       <c r="I10" s="13"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="2:10" s="20" customFormat="1" ht="16" thickBot="1">
+    <row r="11" spans="2:10" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="19"/>
       <c r="C11" s="121" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>2</v>
@@ -2650,18 +2558,18 @@
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="127" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H11" s="26"/>
       <c r="I11" s="106" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="2:10" s="20" customFormat="1" ht="16" thickBot="1">
+    <row r="12" spans="2:10" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="19"/>
       <c r="C12" s="87" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>2</v>
@@ -2677,10 +2585,10 @@
       </c>
       <c r="J12" s="14"/>
     </row>
-    <row r="13" spans="2:10" s="20" customFormat="1" ht="16" thickBot="1">
+    <row r="13" spans="2:10" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="19"/>
       <c r="C13" s="87" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>2</v>
@@ -2696,10 +2604,10 @@
       </c>
       <c r="J13" s="14"/>
     </row>
-    <row r="14" spans="2:10" s="20" customFormat="1" ht="16" thickBot="1">
+    <row r="14" spans="2:10" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="19"/>
       <c r="C14" s="87" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>2</v>
@@ -2715,10 +2623,10 @@
       </c>
       <c r="J14" s="14"/>
     </row>
-    <row r="15" spans="2:10" s="20" customFormat="1" ht="16" thickBot="1">
+    <row r="15" spans="2:10" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="19"/>
       <c r="C15" s="87" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>2</v>
@@ -2734,10 +2642,10 @@
       </c>
       <c r="J15" s="14"/>
     </row>
-    <row r="16" spans="2:10" s="20" customFormat="1" ht="16" thickBot="1">
+    <row r="16" spans="2:10" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="19"/>
       <c r="C16" s="87" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>2</v>
@@ -2753,10 +2661,10 @@
       </c>
       <c r="J16" s="14"/>
     </row>
-    <row r="17" spans="2:11" s="20" customFormat="1" ht="16" thickBot="1">
+    <row r="17" spans="2:11" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="19"/>
       <c r="C17" s="87" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>2</v>
@@ -2772,10 +2680,10 @@
       </c>
       <c r="J17" s="14"/>
     </row>
-    <row r="18" spans="2:11" s="20" customFormat="1" ht="16" thickBot="1">
+    <row r="18" spans="2:11" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="19"/>
       <c r="C18" s="87" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="16" t="s">
         <v>2</v>
@@ -2791,10 +2699,10 @@
       </c>
       <c r="J18" s="14"/>
     </row>
-    <row r="19" spans="2:11" s="20" customFormat="1" ht="16" thickBot="1">
+    <row r="19" spans="2:11" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="19"/>
       <c r="C19" s="87" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>2</v>
@@ -2810,10 +2718,10 @@
       </c>
       <c r="J19" s="14"/>
     </row>
-    <row r="20" spans="2:11" s="20" customFormat="1" ht="16" thickBot="1">
+    <row r="20" spans="2:11" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="19"/>
       <c r="C20" s="87" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>2</v>
@@ -2823,7 +2731,7 @@
       </c>
       <c r="F20" s="34"/>
       <c r="G20" s="90" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H20" s="26"/>
       <c r="I20" s="29" t="s">
@@ -2831,10 +2739,10 @@
       </c>
       <c r="J20" s="14"/>
     </row>
-    <row r="21" spans="2:11" s="20" customFormat="1" ht="16" thickBot="1">
+    <row r="21" spans="2:11" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="19"/>
       <c r="C21" s="87" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>2</v>
@@ -2844,7 +2752,7 @@
       </c>
       <c r="F21" s="34"/>
       <c r="G21" s="90" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H21" s="26"/>
       <c r="I21" s="29" t="s">
@@ -2852,10 +2760,10 @@
       </c>
       <c r="J21" s="14"/>
     </row>
-    <row r="22" spans="2:11" s="20" customFormat="1" ht="16" thickBot="1">
+    <row r="22" spans="2:11" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="19"/>
       <c r="C22" s="87" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22" s="16" t="s">
         <v>2</v>
@@ -2865,7 +2773,7 @@
       </c>
       <c r="F22" s="34"/>
       <c r="G22" s="90" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H22" s="26"/>
       <c r="I22" s="29" t="s">
@@ -2873,10 +2781,10 @@
       </c>
       <c r="J22" s="14"/>
     </row>
-    <row r="23" spans="2:11" s="20" customFormat="1" ht="16" thickBot="1">
+    <row r="23" spans="2:11" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="19"/>
       <c r="C23" s="87" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>2</v>
@@ -2886,7 +2794,7 @@
       </c>
       <c r="F23" s="34"/>
       <c r="G23" s="90" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H23" s="26"/>
       <c r="I23" s="29" t="s">
@@ -2894,10 +2802,10 @@
       </c>
       <c r="J23" s="14"/>
     </row>
-    <row r="24" spans="2:11" ht="16" thickBot="1">
+    <row r="24" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="35"/>
       <c r="C24" s="87" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>2</v>
@@ -2907,14 +2815,14 @@
       </c>
       <c r="F24" s="34"/>
       <c r="G24" s="91" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H24" s="31"/>
       <c r="I24" s="31"/>
       <c r="J24" s="83"/>
       <c r="K24" s="31"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="35"/>
       <c r="C25" s="31"/>
       <c r="D25" s="80"/>
@@ -2925,7 +2833,7 @@
       <c r="I25" s="82"/>
       <c r="J25" s="83"/>
     </row>
-    <row r="26" spans="2:11" ht="16" thickBot="1">
+    <row r="26" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="35"/>
       <c r="C26" s="13" t="s">
         <v>5</v>
@@ -2938,7 +2846,7 @@
       <c r="I26" s="82"/>
       <c r="J26" s="83"/>
     </row>
-    <row r="27" spans="2:11" ht="16" thickBot="1">
+    <row r="27" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="35"/>
       <c r="C27" s="34" t="s">
         <v>23</v>
@@ -2956,11 +2864,11 @@
       </c>
       <c r="H27" s="34"/>
       <c r="I27" s="113" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J27" s="83"/>
     </row>
-    <row r="28" spans="2:11" ht="16" thickBot="1">
+    <row r="28" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="35"/>
       <c r="C28" s="34" t="s">
         <v>22</v>
@@ -2979,7 +2887,7 @@
       </c>
       <c r="J28" s="83"/>
     </row>
-    <row r="29" spans="2:11" ht="16" thickBot="1">
+    <row r="29" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="37"/>
       <c r="C29" s="38"/>
       <c r="D29" s="38"/>
@@ -2990,50 +2898,13 @@
       <c r="I29" s="38"/>
       <c r="J29" s="39"/>
     </row>
-    <row r="34" ht="15" customHeight="1"/>
+    <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:E5"/>
+    <mergeCell ref="B2:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>304800</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>88900</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>76200</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3048,26 +2919,25 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="40" customWidth="1"/>
-    <col min="2" max="2" width="4.5" style="40" customWidth="1"/>
-    <col min="3" max="3" width="33.125" style="40" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="40" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="40" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="40" customWidth="1"/>
-    <col min="7" max="7" width="9.625" style="40" customWidth="1"/>
-    <col min="8" max="8" width="2.625" style="40" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="40" customWidth="1"/>
-    <col min="10" max="10" width="2.125" style="40" customWidth="1"/>
-    <col min="11" max="11" width="12.625" style="40" customWidth="1"/>
-    <col min="12" max="12" width="2.5" style="40" customWidth="1"/>
-    <col min="13" max="13" width="61.5" style="40" customWidth="1"/>
-    <col min="14" max="16384" width="10.625" style="40"/>
+    <col min="1" max="2" width="4.42578125" style="40" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" style="40" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="40" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="40" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="40" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="40" customWidth="1"/>
+    <col min="8" max="8" width="2.5703125" style="40" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="40" customWidth="1"/>
+    <col min="10" max="10" width="2.140625" style="40" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" style="40" customWidth="1"/>
+    <col min="12" max="12" width="2.42578125" style="40" customWidth="1"/>
+    <col min="13" max="13" width="61.42578125" style="40" customWidth="1"/>
+    <col min="14" max="16384" width="10.7109375" style="40"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="16" thickBot="1"/>
-    <row r="3" spans="2:13">
+    <row r="2" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B3" s="41"/>
       <c r="C3" s="42"/>
       <c r="D3" s="42"/>
@@ -3081,10 +2951,10 @@
       <c r="L3" s="42"/>
       <c r="M3" s="42"/>
     </row>
-    <row r="4" spans="2:13" s="20" customFormat="1">
+    <row r="4" spans="2:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="19"/>
       <c r="C4" s="86" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -3096,18 +2966,18 @@
       </c>
       <c r="H4" s="86"/>
       <c r="I4" s="86" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J4" s="86"/>
       <c r="K4" s="86" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L4" s="86"/>
       <c r="M4" s="86" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" ht="18" customHeight="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="43"/>
       <c r="C5" s="49"/>
       <c r="D5" s="49"/>
@@ -3118,10 +2988,10 @@
       <c r="I5" s="47"/>
       <c r="M5" s="56"/>
     </row>
-    <row r="6" spans="2:13" ht="18" customHeight="1" thickBot="1">
+    <row r="6" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="43"/>
       <c r="C6" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -3133,15 +3003,15 @@
       <c r="L6" s="44"/>
       <c r="M6" s="55"/>
     </row>
-    <row r="7" spans="2:13" ht="16" thickBot="1">
+    <row r="7" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="43"/>
       <c r="C7" s="123" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D7" s="50"/>
       <c r="E7" s="50"/>
       <c r="F7" s="124" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G7" s="126">
         <f>K7</f>
@@ -3157,7 +3027,7 @@
       <c r="L7" s="44"/>
       <c r="M7" s="58"/>
     </row>
-    <row r="8" spans="2:13">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B8" s="43"/>
       <c r="C8" s="49"/>
       <c r="D8" s="49"/>
@@ -3168,7 +3038,7 @@
       <c r="I8" s="47"/>
       <c r="M8" s="56"/>
     </row>
-    <row r="9" spans="2:13" ht="16" thickBot="1">
+    <row r="9" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="43"/>
       <c r="C9" s="12" t="s">
         <v>5</v>
@@ -3184,7 +3054,7 @@
       <c r="L9" s="44"/>
       <c r="M9" s="55"/>
     </row>
-    <row r="10" spans="2:13" ht="16" thickBot="1">
+    <row r="10" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="43"/>
       <c r="C10" s="50" t="s">
         <v>3</v>
@@ -3208,7 +3078,7 @@
       <c r="L10" s="44"/>
       <c r="M10" s="58"/>
     </row>
-    <row r="11" spans="2:13">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="43"/>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
@@ -3222,9 +3092,9 @@
       <c r="L11" s="44"/>
       <c r="M11" s="46"/>
     </row>
-    <row r="12" spans="2:13" ht="16" thickBot="1">
+    <row r="12" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C12" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -3237,9 +3107,9 @@
       <c r="L12" s="44"/>
       <c r="M12" s="60"/>
     </row>
-    <row r="13" spans="2:13" ht="16" thickBot="1">
+    <row r="13" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C13" s="85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -3262,12 +3132,12 @@
       </c>
       <c r="L13" s="47"/>
       <c r="M13" s="108" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" ht="16" thickBot="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C14" s="107" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="52"/>
       <c r="E14" s="52"/>
@@ -3287,17 +3157,12 @@
       <c r="K14" s="47"/>
       <c r="L14" s="47"/>
       <c r="M14" s="108" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3312,22 +3177,22 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.625" style="92" customWidth="1"/>
-    <col min="2" max="2" width="3.375" style="92" customWidth="1"/>
-    <col min="3" max="3" width="27.875" style="92" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="92" customWidth="1"/>
-    <col min="5" max="5" width="10.125" style="92" customWidth="1"/>
-    <col min="6" max="7" width="13.125" style="92" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="93" customWidth="1"/>
-    <col min="9" max="9" width="31.375" style="93" customWidth="1"/>
-    <col min="10" max="10" width="98.375" style="92" customWidth="1"/>
-    <col min="11" max="16384" width="33.125" style="92"/>
+    <col min="1" max="1" width="3.5703125" style="92" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="92" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="92" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="92" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="92" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" style="92" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="93" customWidth="1"/>
+    <col min="9" max="9" width="31.42578125" style="93" customWidth="1"/>
+    <col min="10" max="10" width="98.42578125" style="92" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="92"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16" thickBot="1"/>
-    <row r="2" spans="2:10">
+    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="94"/>
       <c r="C2" s="95"/>
       <c r="D2" s="95"/>
@@ -3338,7 +3203,7 @@
       <c r="I2" s="96"/>
       <c r="J2" s="95"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="97"/>
       <c r="C3" s="13" t="s">
         <v>16</v>
@@ -3351,7 +3216,7 @@
       <c r="I3" s="98"/>
       <c r="J3" s="99"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="97"/>
       <c r="C4" s="99"/>
       <c r="D4" s="99"/>
@@ -3362,7 +3227,7 @@
       <c r="I4" s="100"/>
       <c r="J4" s="99"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="101"/>
       <c r="C5" s="77" t="s">
         <v>17</v>
@@ -3377,19 +3242,19 @@
         <v>18</v>
       </c>
       <c r="G5" s="77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H5" s="102" t="s">
         <v>19</v>
       </c>
       <c r="I5" s="102" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J5" s="77" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="97"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -3400,11 +3265,11 @@
       <c r="I6" s="98"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="97"/>
       <c r="C7" s="103"/>
       <c r="D7" s="115" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E7" s="99" t="s">
         <v>7</v>
@@ -3417,13 +3282,13 @@
       </c>
       <c r="H7" s="104"/>
       <c r="I7" s="120" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J7" s="116" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="97"/>
       <c r="C8" s="105" t="s">
         <v>6</v>
@@ -3436,10 +3301,10 @@
       <c r="I8" s="99"/>
       <c r="J8" s="99"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="97"/>
       <c r="C9" s="103" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D9" s="99"/>
       <c r="E9" s="99"/>
@@ -3449,7 +3314,7 @@
       <c r="I9" s="99"/>
       <c r="J9" s="99"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="97"/>
       <c r="C10" s="103"/>
       <c r="D10" s="99"/>
@@ -3460,13 +3325,13 @@
       <c r="I10" s="99"/>
       <c r="J10" s="99"/>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="97"/>
       <c r="C11" s="125" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D11" s="115" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" s="99" t="s">
         <v>7</v>
@@ -3479,13 +3344,13 @@
       </c>
       <c r="H11" s="99"/>
       <c r="I11" s="120" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J11" s="115" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="97"/>
       <c r="C12" s="103" t="s">
         <v>6</v>
@@ -3498,7 +3363,7 @@
       <c r="I12" s="99"/>
       <c r="J12" s="99"/>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="97"/>
       <c r="C13" s="111" t="s">
         <v>3</v>
@@ -3514,11 +3379,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3530,18 +3390,18 @@
       <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="114" customWidth="1"/>
-    <col min="2" max="2" width="4.5" style="114" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="114" customWidth="1"/>
-    <col min="4" max="10" width="10.625" style="114"/>
+    <col min="1" max="1" width="5.5703125" style="114" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="114" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="114" customWidth="1"/>
+    <col min="4" max="10" width="10.7109375" style="114"/>
     <col min="11" max="11" width="10" style="114" customWidth="1"/>
-    <col min="12" max="16384" width="10.625" style="114"/>
+    <col min="12" max="16384" width="10.7109375" style="114"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" thickBot="1"/>
-    <row r="2" spans="2:11">
+    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="117"/>
       <c r="C2" s="118"/>
       <c r="D2" s="118"/>
@@ -3553,13 +3413,13 @@
       <c r="J2" s="118"/>
       <c r="K2" s="118"/>
     </row>
-    <row r="3" spans="2:11" s="20" customFormat="1">
+    <row r="3" spans="2:11" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="76"/>
       <c r="C3" s="77" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="77" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E3" s="77"/>
       <c r="F3" s="77"/>
@@ -3569,7 +3429,7 @@
       <c r="J3" s="77"/>
       <c r="K3" s="77"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="119"/>
       <c r="C4" s="115"/>
       <c r="D4" s="115"/>
@@ -3581,7 +3441,7 @@
       <c r="J4" s="115"/>
       <c r="K4" s="115"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="119"/>
       <c r="C5" s="115"/>
       <c r="D5" s="115"/>
@@ -3593,10 +3453,10 @@
       <c r="J5" s="115"/>
       <c r="K5" s="115"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="119"/>
       <c r="C6" s="115" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6" s="115"/>
       <c r="E6" s="115"/>
@@ -3607,10 +3467,10 @@
       <c r="J6" s="115"/>
       <c r="K6" s="115"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="119"/>
       <c r="C7" s="115" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D7" s="115"/>
       <c r="E7" s="115"/>
@@ -3621,7 +3481,7 @@
       <c r="J7" s="115"/>
       <c r="K7" s="115"/>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="119"/>
       <c r="C8" s="115"/>
       <c r="D8" s="115"/>
@@ -3633,7 +3493,7 @@
       <c r="J8" s="115"/>
       <c r="K8" s="115"/>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="119"/>
       <c r="C9" s="115"/>
       <c r="D9" s="115"/>
@@ -3645,7 +3505,7 @@
       <c r="J9" s="115"/>
       <c r="K9" s="115"/>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="119"/>
       <c r="C10" s="115"/>
       <c r="D10" s="115"/>
@@ -3657,7 +3517,7 @@
       <c r="J10" s="115"/>
       <c r="K10" s="115"/>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="119"/>
       <c r="C11" s="115"/>
       <c r="D11" s="115"/>
@@ -3669,13 +3529,13 @@
       <c r="J11" s="115"/>
       <c r="K11" s="115"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="119"/>
       <c r="C12" s="115">
         <v>12</v>
       </c>
       <c r="D12" s="115" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E12" s="115"/>
       <c r="F12" s="115"/>
@@ -3685,7 +3545,7 @@
       <c r="J12" s="115"/>
       <c r="K12" s="115"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="119"/>
       <c r="C13" s="115"/>
       <c r="D13" s="115"/>
@@ -3697,7 +3557,7 @@
       <c r="J13" s="115"/>
       <c r="K13" s="115"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="119"/>
       <c r="C14" s="115"/>
       <c r="D14" s="115"/>
@@ -3709,7 +3569,7 @@
       <c r="J14" s="115"/>
       <c r="K14" s="115"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="119"/>
       <c r="C15" s="115"/>
       <c r="D15" s="115"/>
@@ -3721,7 +3581,7 @@
       <c r="J15" s="115"/>
       <c r="K15" s="115"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="119"/>
       <c r="C16" s="115"/>
       <c r="D16" s="115"/>
@@ -3733,7 +3593,7 @@
       <c r="J16" s="115"/>
       <c r="K16" s="115"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="119"/>
       <c r="C17" s="115"/>
       <c r="D17" s="115"/>
@@ -3745,7 +3605,7 @@
       <c r="J17" s="115"/>
       <c r="K17" s="115"/>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="119"/>
       <c r="C18" s="115"/>
       <c r="D18" s="115"/>
@@ -3757,7 +3617,7 @@
       <c r="J18" s="115"/>
       <c r="K18" s="115"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="119"/>
       <c r="C19" s="115"/>
       <c r="D19" s="115"/>
@@ -3769,7 +3629,7 @@
       <c r="J19" s="115"/>
       <c r="K19" s="115"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="119"/>
       <c r="C20" s="115"/>
       <c r="D20" s="115"/>
@@ -3781,7 +3641,7 @@
       <c r="J20" s="115"/>
       <c r="K20" s="115"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="119"/>
       <c r="C21" s="115"/>
       <c r="D21" s="115"/>
@@ -3793,10 +3653,10 @@
       <c r="J21" s="115"/>
       <c r="K21" s="115"/>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="119"/>
       <c r="C22" s="115" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D22" s="115"/>
       <c r="E22" s="115"/>
@@ -3807,7 +3667,7 @@
       <c r="J22" s="115"/>
       <c r="K22" s="115"/>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="119"/>
       <c r="C23" s="115"/>
       <c r="D23" s="115"/>
@@ -3819,7 +3679,7 @@
       <c r="J23" s="115"/>
       <c r="K23" s="115"/>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="119"/>
       <c r="C24" s="115"/>
       <c r="D24" s="115"/>
@@ -3831,7 +3691,7 @@
       <c r="J24" s="115"/>
       <c r="K24" s="115"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="119"/>
       <c r="C25" s="115"/>
       <c r="D25" s="115"/>
@@ -3843,7 +3703,7 @@
       <c r="J25" s="115"/>
       <c r="K25" s="115"/>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="119"/>
       <c r="C26" s="115"/>
       <c r="D26" s="115"/>
@@ -3855,7 +3715,7 @@
       <c r="J26" s="115"/>
       <c r="K26" s="115"/>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="119"/>
       <c r="C27" s="115"/>
       <c r="D27" s="115"/>
@@ -3867,7 +3727,7 @@
       <c r="J27" s="115"/>
       <c r="K27" s="115"/>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="119"/>
       <c r="C28" s="115"/>
       <c r="D28" s="115"/>
@@ -3879,7 +3739,7 @@
       <c r="J28" s="115"/>
       <c r="K28" s="115"/>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" s="119"/>
       <c r="C29" s="115">
         <v>168000</v>
@@ -3895,7 +3755,7 @@
       <c r="J29" s="115"/>
       <c r="K29" s="115"/>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B30" s="119"/>
       <c r="C30" s="115"/>
       <c r="D30" s="115"/>
@@ -3907,7 +3767,7 @@
       <c r="J30" s="115"/>
       <c r="K30" s="115"/>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" s="119"/>
       <c r="C31" s="115"/>
       <c r="D31" s="115"/>
@@ -3919,7 +3779,7 @@
       <c r="J31" s="115"/>
       <c r="K31" s="115"/>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" s="119"/>
       <c r="C32" s="115"/>
       <c r="D32" s="115"/>
@@ -3931,7 +3791,7 @@
       <c r="J32" s="115"/>
       <c r="K32" s="115"/>
     </row>
-    <row r="33" spans="2:11">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" s="119"/>
       <c r="C33" s="115"/>
       <c r="D33" s="115"/>
@@ -3943,7 +3803,7 @@
       <c r="J33" s="115"/>
       <c r="K33" s="115"/>
     </row>
-    <row r="34" spans="2:11">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" s="119"/>
       <c r="C34" s="115"/>
       <c r="D34" s="115"/>
@@ -3955,7 +3815,7 @@
       <c r="J34" s="115"/>
       <c r="K34" s="115"/>
     </row>
-    <row r="35" spans="2:11">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="119"/>
       <c r="C35" s="115"/>
       <c r="D35" s="115"/>
@@ -3967,7 +3827,7 @@
       <c r="J35" s="115"/>
       <c r="K35" s="115"/>
     </row>
-    <row r="36" spans="2:11">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36" s="119"/>
       <c r="C36" s="115"/>
       <c r="D36" s="115"/>
@@ -3979,7 +3839,7 @@
       <c r="J36" s="115"/>
       <c r="K36" s="115"/>
     </row>
-    <row r="37" spans="2:11">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" s="119"/>
       <c r="C37" s="115"/>
       <c r="D37" s="115"/>
@@ -3991,7 +3851,7 @@
       <c r="J37" s="115"/>
       <c r="K37" s="115"/>
     </row>
-    <row r="38" spans="2:11">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" s="119"/>
       <c r="C38" s="115"/>
       <c r="D38" s="115"/>
@@ -4003,7 +3863,7 @@
       <c r="J38" s="115"/>
       <c r="K38" s="115"/>
     </row>
-    <row r="39" spans="2:11">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" s="119"/>
       <c r="C39" s="115"/>
       <c r="D39" s="115"/>
@@ -4015,7 +3875,7 @@
       <c r="J39" s="115"/>
       <c r="K39" s="115"/>
     </row>
-    <row r="40" spans="2:11">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B40" s="119"/>
       <c r="C40" s="115"/>
       <c r="D40" s="115"/>
@@ -4027,10 +3887,10 @@
       <c r="J40" s="115"/>
       <c r="K40" s="115"/>
     </row>
-    <row r="41" spans="2:11">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41" s="119"/>
       <c r="C41" s="115" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D41" s="115"/>
       <c r="E41" s="115"/>
@@ -4041,10 +3901,10 @@
       <c r="J41" s="115"/>
       <c r="K41" s="115"/>
     </row>
-    <row r="42" spans="2:11">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B42" s="119"/>
       <c r="C42" s="115" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D42" s="115"/>
       <c r="E42" s="115"/>
@@ -4055,7 +3915,7 @@
       <c r="J42" s="115"/>
       <c r="K42" s="115"/>
     </row>
-    <row r="43" spans="2:11">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B43" s="119"/>
       <c r="C43" s="115"/>
       <c r="D43" s="115"/>
@@ -4067,7 +3927,7 @@
       <c r="J43" s="115"/>
       <c r="K43" s="115"/>
     </row>
-    <row r="44" spans="2:11">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B44" s="119"/>
       <c r="C44" s="115"/>
       <c r="D44" s="115"/>
@@ -4079,7 +3939,7 @@
       <c r="J44" s="115"/>
       <c r="K44" s="115"/>
     </row>
-    <row r="45" spans="2:11">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B45" s="119"/>
       <c r="C45" s="115"/>
       <c r="D45" s="115"/>
@@ -4091,7 +3951,7 @@
       <c r="J45" s="115"/>
       <c r="K45" s="115"/>
     </row>
-    <row r="46" spans="2:11">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B46" s="119"/>
       <c r="C46" s="115"/>
       <c r="D46" s="115"/>
@@ -4103,7 +3963,7 @@
       <c r="J46" s="115"/>
       <c r="K46" s="115"/>
     </row>
-    <row r="47" spans="2:11">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B47" s="119"/>
       <c r="C47" s="115">
         <v>200621</v>
@@ -4119,7 +3979,7 @@
       <c r="J47" s="115"/>
       <c r="K47" s="115"/>
     </row>
-    <row r="48" spans="2:11">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B48" s="119"/>
       <c r="C48" s="115"/>
       <c r="D48" s="115"/>
@@ -4131,7 +3991,7 @@
       <c r="J48" s="115"/>
       <c r="K48" s="115"/>
     </row>
-    <row r="49" spans="2:11">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B49" s="119"/>
       <c r="C49" s="115"/>
       <c r="D49" s="115"/>
@@ -4143,7 +4003,7 @@
       <c r="J49" s="115"/>
       <c r="K49" s="115"/>
     </row>
-    <row r="50" spans="2:11">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B50" s="119"/>
       <c r="C50" s="115"/>
       <c r="D50" s="115"/>
@@ -4155,7 +4015,7 @@
       <c r="J50" s="115"/>
       <c r="K50" s="115"/>
     </row>
-    <row r="51" spans="2:11">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B51" s="119"/>
       <c r="C51" s="115"/>
       <c r="D51" s="115"/>
@@ -4167,7 +4027,7 @@
       <c r="J51" s="115"/>
       <c r="K51" s="115"/>
     </row>
-    <row r="52" spans="2:11">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B52" s="119"/>
       <c r="C52" s="115"/>
       <c r="D52" s="115"/>
@@ -4179,7 +4039,7 @@
       <c r="J52" s="115"/>
       <c r="K52" s="115"/>
     </row>
-    <row r="53" spans="2:11">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B53" s="119"/>
       <c r="C53" s="115"/>
       <c r="D53" s="115"/>
@@ -4191,13 +4051,13 @@
       <c r="J53" s="115"/>
       <c r="K53" s="115"/>
     </row>
-    <row r="54" spans="2:11">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B54" s="119"/>
       <c r="C54" s="115">
         <v>2080</v>
       </c>
       <c r="D54" s="115" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E54" s="115"/>
       <c r="F54" s="115"/>
@@ -4207,13 +4067,13 @@
       <c r="J54" s="115"/>
       <c r="K54" s="115"/>
     </row>
-    <row r="55" spans="2:11">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B55" s="119"/>
       <c r="C55" s="115">
         <v>520</v>
       </c>
       <c r="D55" s="115" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E55" s="115"/>
       <c r="F55" s="115"/>
@@ -4223,7 +4083,7 @@
       <c r="J55" s="115"/>
       <c r="K55" s="115"/>
     </row>
-    <row r="56" spans="2:11">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B56" s="119"/>
       <c r="C56" s="115"/>
       <c r="D56" s="115"/>
@@ -4235,7 +4095,7 @@
       <c r="J56" s="115"/>
       <c r="K56" s="115"/>
     </row>
-    <row r="57" spans="2:11">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B57" s="119"/>
       <c r="C57" s="115"/>
       <c r="D57" s="115"/>
@@ -4247,7 +4107,7 @@
       <c r="J57" s="115"/>
       <c r="K57" s="115"/>
     </row>
-    <row r="58" spans="2:11">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B58" s="119"/>
       <c r="C58" s="115"/>
       <c r="D58" s="115"/>
@@ -4259,7 +4119,7 @@
       <c r="J58" s="115"/>
       <c r="K58" s="115"/>
     </row>
-    <row r="59" spans="2:11">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B59" s="119"/>
       <c r="C59" s="115"/>
       <c r="D59" s="115"/>
@@ -4271,7 +4131,7 @@
       <c r="J59" s="115"/>
       <c r="K59" s="115"/>
     </row>
-    <row r="60" spans="2:11">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B60" s="119"/>
       <c r="C60" s="115"/>
       <c r="D60" s="115"/>
@@ -4283,162 +4143,157 @@
       <c r="J60" s="115"/>
       <c r="K60" s="115"/>
     </row>
-    <row r="61" spans="2:11">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B61" s="119"/>
     </row>
-    <row r="62" spans="2:11">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B62" s="119"/>
     </row>
-    <row r="63" spans="2:11">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B63" s="119"/>
     </row>
-    <row r="64" spans="2:11">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B64" s="119"/>
     </row>
-    <row r="65" spans="2:6">
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B65" s="119"/>
     </row>
-    <row r="66" spans="2:6">
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B66" s="119"/>
     </row>
-    <row r="67" spans="2:6">
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B67" s="119"/>
       <c r="C67" s="122" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B68" s="119"/>
       <c r="C68" s="122" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B69" s="119"/>
       <c r="E69" s="114">
         <v>5.22</v>
       </c>
       <c r="F69" s="122" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B70" s="119"/>
       <c r="E70" s="114">
         <f>1/E69</f>
         <v>0.19157088122605365</v>
       </c>
       <c r="F70" s="122" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B71" s="119"/>
     </row>
-    <row r="72" spans="2:6">
+    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B72" s="119"/>
     </row>
-    <row r="73" spans="2:6">
+    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B73" s="119"/>
     </row>
-    <row r="74" spans="2:6">
+    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B74" s="119"/>
     </row>
-    <row r="75" spans="2:6">
+    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B75" s="119"/>
     </row>
-    <row r="76" spans="2:6">
+    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B76" s="119"/>
     </row>
-    <row r="77" spans="2:6">
+    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B77" s="119"/>
     </row>
-    <row r="78" spans="2:6">
+    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B78" s="119"/>
     </row>
-    <row r="79" spans="2:6">
+    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B79" s="119"/>
     </row>
-    <row r="80" spans="2:6">
+    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B80" s="119"/>
     </row>
-    <row r="81" spans="2:2">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B81" s="119"/>
     </row>
-    <row r="82" spans="2:2">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B82" s="119"/>
     </row>
-    <row r="83" spans="2:2">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B83" s="119"/>
     </row>
-    <row r="84" spans="2:2">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B84" s="119"/>
     </row>
-    <row r="85" spans="2:2">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B85" s="119"/>
     </row>
-    <row r="86" spans="2:2">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B86" s="119"/>
     </row>
-    <row r="87" spans="2:2">
+    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B87" s="119"/>
     </row>
-    <row r="88" spans="2:2">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B88" s="119"/>
     </row>
-    <row r="89" spans="2:2">
+    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B89" s="119"/>
     </row>
-    <row r="90" spans="2:2">
+    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B90" s="119"/>
     </row>
-    <row r="91" spans="2:2">
+    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B91" s="119"/>
     </row>
-    <row r="92" spans="2:2">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B92" s="119"/>
     </row>
-    <row r="93" spans="2:2">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B93" s="119"/>
     </row>
-    <row r="94" spans="2:2">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B94" s="119"/>
     </row>
-    <row r="95" spans="2:2">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B95" s="119"/>
     </row>
-    <row r="96" spans="2:2">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B96" s="119"/>
     </row>
-    <row r="97" spans="2:2">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B97" s="119"/>
     </row>
-    <row r="98" spans="2:2">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B98" s="119"/>
     </row>
-    <row r="99" spans="2:2">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B99" s="119"/>
     </row>
-    <row r="100" spans="2:2">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B100" s="119"/>
     </row>
-    <row r="101" spans="2:2">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B101" s="119"/>
     </row>
-    <row r="102" spans="2:2">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B102" s="119"/>
     </row>
-    <row r="103" spans="2:2">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B103" s="119"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/transport/transport_truck_using_electricity.converter.xlsx
+++ b/nodes_source_analyses/transport/transport_truck_using_electricity.converter.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/transport/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/nodes_source_analyses/transport/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="460" windowWidth="24720" windowHeight="14540" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="26900" tabRatio="762" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="125">
   <si>
     <t>Source</t>
   </si>
@@ -381,31 +381,6 @@
     <t>http://refman.et-model.com/publications/1928</t>
   </si>
   <si>
-    <r>
-      <t>output.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>truck</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_kms</t>
-    </r>
-  </si>
-  <si>
     <t>MJ/km</t>
   </si>
   <si>
@@ -423,6 +398,99 @@
   <si>
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
 </t>
+  </si>
+  <si>
+    <t>output.freight_tonne_kms</t>
+  </si>
+  <si>
+    <t>tkm/MJ</t>
+  </si>
+  <si>
+    <t>Eurostat</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>http://ec.europa.eu/eurostat/web/transport/data/main-tables?p_p_id=NavTreeportletprod_WAR_NavTreeportletprod_INSTANCE_BXN01QNK1Jk7&amp;p_p_lifecycle=0&amp;p_p_state=normal&amp;p_p_mode=view&amp;p_p_col_id=column-2&amp;p_p_col_count=1</t>
+  </si>
+  <si>
+    <t>vehicle km</t>
+  </si>
+  <si>
+    <t>mln vehicle km</t>
+  </si>
+  <si>
+    <t>tonne km</t>
+  </si>
+  <si>
+    <t>mln tonne km</t>
+  </si>
+  <si>
+    <t>tonne km/vehicle km</t>
+  </si>
+  <si>
+    <t>tonne km/MJ</t>
+  </si>
+  <si>
+    <t>Tonne km trucks</t>
+  </si>
+  <si>
+    <t>Vehicle km trucks</t>
+  </si>
+  <si>
+    <t>Tonne km vans</t>
+  </si>
+  <si>
+    <t>CBS</t>
+  </si>
+  <si>
+    <t>http://statline.cbs.nl/Statweb/publication/?DM=SLNL&amp;PA=82836ned&amp;D1=1-2&amp;D2=0&amp;D3=0&amp;D4=l&amp;HDR=T&amp;STB=G1,G2,G3&amp;VW=T</t>
+  </si>
+  <si>
+    <t>Vehicle km vans</t>
+  </si>
+  <si>
+    <t>http://statline.cbs.nl/Statweb/publication/?DM=SLNL&amp;PA=80353ned&amp;D1=a&amp;D2=a&amp;D3=0&amp;D4=25-26&amp;HDR=T&amp;STB=G1,G2,G3&amp;VW=T</t>
+  </si>
+  <si>
+    <t>truck</t>
+  </si>
+  <si>
+    <t>van</t>
+  </si>
+  <si>
+    <t>based on relative efficiencies electric passenger cars, see NL 2015 source analysis for details</t>
+  </si>
+  <si>
+    <t>truck kms</t>
+  </si>
+  <si>
+    <t>truck tonne kms</t>
+  </si>
+  <si>
+    <t>van kms</t>
+  </si>
+  <si>
+    <t>van tonne kms</t>
+  </si>
+  <si>
+    <t>mln</t>
+  </si>
+  <si>
+    <t>Note: Eurostat freight transport excludes all vehicles &lt; 3.5 tonne. Since vans are included in the truck category in the ETM, we calculated the weighted efficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note: used 2016 data since tonne kms is only available for 2016. Used van vehicle kms from different Statline than tonne kms since we are interested in all vehicle kms, not just loaded </t>
+  </si>
+  <si>
+    <t>Note: used 2016 data since tonne kms is only available for 2016</t>
+  </si>
+  <si>
+    <t>weighted efficiency</t>
+  </si>
+  <si>
+    <t>km/mj</t>
   </si>
 </sst>
 </file>
@@ -433,12 +501,19 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -627,6 +702,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -634,6 +710,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -641,6 +718,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -648,11 +726,13 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -660,12 +740,21 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="13">
@@ -950,446 +1039,451 @@
   </borders>
   <cellStyleXfs count="244">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="22" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="22" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="23" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="27" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="21" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="177" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="1" fontId="21" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="2" fontId="21" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="31" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="22" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="26" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="177" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="34" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="244">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1657,8 +1751,8 @@
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
@@ -1696,7 +1790,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:colOff>88900</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -1733,8 +1827,8 @@
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
@@ -1772,8 +1866,8 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1792,6 +1886,196 @@
         <a:xfrm>
           <a:off x="4610100" y="12496800"/>
           <a:ext cx="7302500" cy="3403600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9728200" y="23710900"/>
+          <a:ext cx="13512800" cy="3543300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9728200" y="27254200"/>
+          <a:ext cx="13373100" cy="3441700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13538200" y="13970000"/>
+          <a:ext cx="7823200" cy="2044700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>2297</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11341100" y="14287500"/>
+          <a:ext cx="6019800" cy="2707397"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>554264</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13360400" y="11595100"/>
+          <a:ext cx="5050064" cy="1930400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2249,23 +2533,23 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="25" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="17" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" style="17" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="17"/>
+    <col min="1" max="1" width="3.1640625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="16" customWidth="1"/>
+    <col min="3" max="3" width="38.5" style="16" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+    <row r="1" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
     </row>
     <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="24"/>
+      <c r="C2" s="23"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -2311,105 +2595,105 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="62"/>
+      <c r="C9" s="60"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="62"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="63" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="61"/>
+      <c r="C12" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="66" t="s">
+      <c r="B13" s="61"/>
+      <c r="C13" s="64" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="64" t="s">
+      <c r="B14" s="61"/>
+      <c r="C14" s="62" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="64"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="62"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="67" t="s">
+      <c r="C16" s="65" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="68" t="s">
+      <c r="B17" s="61"/>
+      <c r="C17" s="66" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="69" t="s">
+      <c r="B18" s="61"/>
+      <c r="C18" s="67" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="70" t="s">
+      <c r="B19" s="61"/>
+      <c r="C19" s="68" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="72" t="s">
+      <c r="B20" s="69"/>
+      <c r="C20" s="70" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="73" t="s">
+      <c r="B21" s="69"/>
+      <c r="C21" s="71" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="74" t="s">
+      <c r="B22" s="69"/>
+      <c r="C22" s="72" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="71"/>
-      <c r="C23" s="75" t="s">
+      <c r="B23" s="69"/>
+      <c r="C23" s="73" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2426,477 +2710,477 @@
   </sheetPr>
   <dimension ref="B1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.140625" style="30" customWidth="1"/>
-    <col min="2" max="2" width="3.5703125" style="30" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="30" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="30" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="30" customWidth="1"/>
-    <col min="7" max="7" width="44.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="2.42578125" style="30" customWidth="1"/>
-    <col min="9" max="9" width="42.42578125" style="30" customWidth="1"/>
-    <col min="10" max="10" width="3.5703125" style="30" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="30"/>
+    <col min="1" max="1" width="3.1640625" style="29" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="29" customWidth="1"/>
+    <col min="3" max="3" width="33.83203125" style="29" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="29" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="29" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="29" customWidth="1"/>
+    <col min="7" max="7" width="44.1640625" style="29" customWidth="1"/>
+    <col min="8" max="8" width="2.5" style="29" customWidth="1"/>
+    <col min="9" max="9" width="42.5" style="29" customWidth="1"/>
+    <col min="10" max="10" width="3.5" style="29" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="128" t="s">
+      <c r="B2" s="134" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="134"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="134"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="134"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+    </row>
+    <row r="6" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="30"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="31"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="32"/>
+    </row>
+    <row r="8" spans="2:10" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="74"/>
+      <c r="C8" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="76" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="77"/>
+    </row>
+    <row r="9" spans="2:10" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="18"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="2:10" s="19" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="18"/>
+      <c r="C10" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="2:10" s="19" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="18"/>
+      <c r="C11" s="119" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
-      <c r="G2" s="129"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="128"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="128"/>
-      <c r="C4" s="129"/>
-      <c r="D4" s="129"/>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="129"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="128"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-    </row>
-    <row r="6" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="31"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="32"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="33"/>
-    </row>
-    <row r="8" spans="2:10" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="76"/>
-      <c r="C8" s="77" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="78" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="77" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77" t="s">
+      <c r="D11" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="28">
+        <f>'Research data'!E7</f>
+        <v>1.1075069559277897</v>
+      </c>
+      <c r="F11" s="33"/>
+      <c r="G11" s="125" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="25"/>
+      <c r="I11" s="104" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="2:10" s="19" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="18"/>
+      <c r="C12" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="86">
         <v>0</v>
       </c>
-      <c r="J8" s="79"/>
-    </row>
-    <row r="9" spans="2:10" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="19"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="2:10" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="19"/>
-      <c r="C10" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
-    </row>
-    <row r="11" spans="2:10" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="19"/>
-      <c r="C11" s="121" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="16" t="s">
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="2:10" s="19" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="18"/>
+      <c r="C13" s="85" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="29">
-        <f>'Research data'!G7</f>
-        <v>0.19157088122605365</v>
-      </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="127" t="s">
-        <v>92</v>
-      </c>
-      <c r="H11" s="26"/>
-      <c r="I11" s="106" t="s">
-        <v>73</v>
-      </c>
-      <c r="J11" s="14"/>
-    </row>
-    <row r="12" spans="2:10" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="19"/>
-      <c r="C12" s="87" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="16" t="s">
+      <c r="E13" s="86">
+        <v>0</v>
+      </c>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="2:10" s="19" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="18"/>
+      <c r="C14" s="85" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E14" s="86">
+        <v>1062.9980361595201</v>
+      </c>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="2:10" s="19" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="18"/>
+      <c r="C15" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="86">
         <v>0</v>
       </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="29" t="s">
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="J12" s="14"/>
-    </row>
-    <row r="13" spans="2:10" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="19"/>
-      <c r="C13" s="87" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="16" t="s">
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" spans="2:10" s="19" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="18"/>
+      <c r="C16" s="85" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E16" s="86">
         <v>0</v>
       </c>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="29" t="s">
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="14"/>
-    </row>
-    <row r="14" spans="2:10" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="19"/>
-      <c r="C14" s="87" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" s="16" t="s">
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="2:11" s="19" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="18"/>
+      <c r="C17" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="88">
-        <v>1062.9980361595201</v>
-      </c>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="29" t="s">
+      <c r="E17" s="86">
+        <v>0.01</v>
+      </c>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="14"/>
-    </row>
-    <row r="15" spans="2:10" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="19"/>
-      <c r="C15" s="87" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="16" t="s">
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="2:11" s="19" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="18"/>
+      <c r="C18" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="88">
+      <c r="E18" s="86">
         <v>0</v>
       </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="29" t="s">
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="J15" s="14"/>
-    </row>
-    <row r="16" spans="2:10" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="19"/>
-      <c r="C16" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="16" t="s">
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="2:11" s="19" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="18"/>
+      <c r="C19" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="88">
+      <c r="E19" s="86">
+        <v>0.01</v>
+      </c>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" spans="2:11" s="19" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="18"/>
+      <c r="C20" s="85" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="86">
         <v>0</v>
       </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="29" t="s">
+      <c r="F20" s="33"/>
+      <c r="G20" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" s="25"/>
+      <c r="I20" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="J16" s="14"/>
-    </row>
-    <row r="17" spans="2:11" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="19"/>
-      <c r="C17" s="87" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="16" t="s">
+      <c r="J20" s="13"/>
+    </row>
+    <row r="21" spans="2:11" s="19" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="18"/>
+      <c r="C21" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="88">
-        <v>0.01</v>
-      </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="29" t="s">
+      <c r="E21" s="86">
+        <v>0.25</v>
+      </c>
+      <c r="F21" s="33"/>
+      <c r="G21" s="88" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="25"/>
+      <c r="I21" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="J17" s="14"/>
-    </row>
-    <row r="18" spans="2:11" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="19"/>
-      <c r="C18" s="87" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="16" t="s">
+      <c r="J21" s="13"/>
+    </row>
+    <row r="22" spans="2:11" s="19" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="18"/>
+      <c r="C22" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="88">
+      <c r="E22" s="86">
         <v>0</v>
       </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="29" t="s">
+      <c r="F22" s="33"/>
+      <c r="G22" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="25"/>
+      <c r="I22" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="J18" s="14"/>
-    </row>
-    <row r="19" spans="2:11" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="19"/>
-      <c r="C19" s="87" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="16" t="s">
+      <c r="J22" s="13"/>
+    </row>
+    <row r="23" spans="2:11" s="19" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="18"/>
+      <c r="C23" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="88">
-        <v>0.01</v>
-      </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="29" t="s">
+      <c r="E23" s="87">
+        <v>0.25</v>
+      </c>
+      <c r="F23" s="33"/>
+      <c r="G23" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" s="25"/>
+      <c r="I23" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="J19" s="14"/>
-    </row>
-    <row r="20" spans="2:11" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="19"/>
-      <c r="C20" s="87" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="16" t="s">
+      <c r="J23" s="13"/>
+    </row>
+    <row r="24" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="34"/>
+      <c r="C24" s="85" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="88">
+      <c r="E24" s="87">
         <v>0</v>
       </c>
-      <c r="F20" s="34"/>
-      <c r="G20" s="90" t="s">
-        <v>64</v>
-      </c>
-      <c r="H20" s="26"/>
-      <c r="I20" s="29" t="s">
+      <c r="F24" s="33"/>
+      <c r="G24" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="30"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="34"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="81"/>
+    </row>
+    <row r="26" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="34"/>
+      <c r="C26" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="78"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="80"/>
+      <c r="J26" s="81"/>
+    </row>
+    <row r="27" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="34"/>
+      <c r="C27" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="35">
+        <f>'Research data'!E10</f>
+        <v>12</v>
+      </c>
+      <c r="F27" s="33"/>
+      <c r="G27" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="33"/>
+      <c r="I27" s="111" t="s">
+        <v>71</v>
+      </c>
+      <c r="J27" s="81"/>
+    </row>
+    <row r="28" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="34"/>
+      <c r="C28" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="35">
+        <v>0</v>
+      </c>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="J20" s="14"/>
-    </row>
-    <row r="21" spans="2:11" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="19"/>
-      <c r="C21" s="87" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="88">
-        <v>0.25</v>
-      </c>
-      <c r="F21" s="34"/>
-      <c r="G21" s="90" t="s">
-        <v>65</v>
-      </c>
-      <c r="H21" s="26"/>
-      <c r="I21" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="J21" s="14"/>
-    </row>
-    <row r="22" spans="2:11" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="19"/>
-      <c r="C22" s="87" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="88">
-        <v>0</v>
-      </c>
-      <c r="F22" s="34"/>
-      <c r="G22" s="90" t="s">
-        <v>66</v>
-      </c>
-      <c r="H22" s="26"/>
-      <c r="I22" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="J22" s="14"/>
-    </row>
-    <row r="23" spans="2:11" s="20" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="19"/>
-      <c r="C23" s="87" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="89">
-        <v>0.25</v>
-      </c>
-      <c r="F23" s="34"/>
-      <c r="G23" s="90" t="s">
-        <v>67</v>
-      </c>
-      <c r="H23" s="26"/>
-      <c r="I23" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="J23" s="14"/>
-    </row>
-    <row r="24" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="35"/>
-      <c r="C24" s="87" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" s="89">
-        <v>0</v>
-      </c>
-      <c r="F24" s="34"/>
-      <c r="G24" s="91" t="s">
-        <v>68</v>
-      </c>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="31"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="35"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="83"/>
-    </row>
-    <row r="26" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="35"/>
-      <c r="C26" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="80"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="83"/>
-    </row>
-    <row r="27" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="35"/>
-      <c r="C27" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="36">
-        <f>'Research data'!G10</f>
-        <v>12</v>
-      </c>
-      <c r="F27" s="34"/>
-      <c r="G27" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27" s="34"/>
-      <c r="I27" s="113" t="s">
-        <v>71</v>
-      </c>
-      <c r="J27" s="83"/>
-    </row>
-    <row r="28" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="35"/>
-      <c r="C28" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" s="36">
-        <v>0</v>
-      </c>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="J28" s="83"/>
+      <c r="J28" s="81"/>
     </row>
     <row r="29" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="37"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="39"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="38"/>
     </row>
     <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -2913,250 +3197,224 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B2:M14"/>
+  <dimension ref="B2:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="4.42578125" style="40" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" style="40" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="40" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="40" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="40" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="40" customWidth="1"/>
-    <col min="8" max="8" width="2.5703125" style="40" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="40" customWidth="1"/>
-    <col min="10" max="10" width="2.140625" style="40" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="40" customWidth="1"/>
-    <col min="12" max="12" width="2.42578125" style="40" customWidth="1"/>
-    <col min="13" max="13" width="61.42578125" style="40" customWidth="1"/>
-    <col min="14" max="16384" width="10.7109375" style="40"/>
+    <col min="1" max="2" width="4.5" style="39" customWidth="1"/>
+    <col min="3" max="3" width="33.1640625" style="39" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="39" customWidth="1"/>
+    <col min="5" max="5" width="9.5" style="39" customWidth="1"/>
+    <col min="6" max="6" width="2.5" style="39" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="39" customWidth="1"/>
+    <col min="8" max="8" width="2.1640625" style="39" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="39" customWidth="1"/>
+    <col min="10" max="10" width="2.5" style="39" customWidth="1"/>
+    <col min="11" max="11" width="61.5" style="39" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="39"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B3" s="41"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-    </row>
-    <row r="4" spans="2:13" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="19"/>
-      <c r="C4" s="86" t="s">
+    <row r="2" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+    </row>
+    <row r="4" spans="2:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="18"/>
+      <c r="C4" s="84" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="86" t="s">
+      <c r="D4" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="86" t="s">
+      <c r="E4" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86" t="s">
+      <c r="F4" s="84"/>
+      <c r="G4" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86" t="s">
+      <c r="H4" s="84"/>
+      <c r="I4" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86" t="s">
+      <c r="J4" s="84"/>
+      <c r="K4" s="84" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="43"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="M5" s="56"/>
-    </row>
-    <row r="6" spans="2:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="43"/>
-      <c r="C6" s="12" t="s">
+    <row r="5" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="42"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="K5" s="54"/>
+    </row>
+    <row r="6" spans="2:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="42"/>
+      <c r="C6" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="55"/>
-    </row>
-    <row r="7" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="43"/>
-      <c r="C7" s="123" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="124" t="s">
-        <v>90</v>
-      </c>
-      <c r="G7" s="126">
-        <f>K7</f>
-        <v>0.19157088122605365</v>
-      </c>
-      <c r="H7" s="47"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="126">
-        <f>Notes!E70</f>
-        <v>0.19157088122605365</v>
-      </c>
-      <c r="L7" s="44"/>
-      <c r="M7" s="58"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="43"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="M8" s="56"/>
-    </row>
-    <row r="9" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="43"/>
-      <c r="C9" s="12" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="53"/>
+    </row>
+    <row r="7" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="42"/>
+      <c r="C7" s="121" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="122" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="124">
+        <f>I7</f>
+        <v>1.1075069559277897</v>
+      </c>
+      <c r="F7" s="46"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="124">
+        <f>Notes!E94</f>
+        <v>1.1075069559277897</v>
+      </c>
+      <c r="J7" s="43"/>
+      <c r="K7" s="56"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="42"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="K8" s="54"/>
+    </row>
+    <row r="9" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="42"/>
+      <c r="C9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="55"/>
-    </row>
-    <row r="10" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="43"/>
-      <c r="C10" s="50" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="53"/>
+    </row>
+    <row r="10" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="42"/>
+      <c r="C10" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="45" t="s">
+      <c r="D10" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="51">
+      <c r="E10" s="50">
         <f>ROUND(12,0)</f>
         <v>12</v>
       </c>
-      <c r="H10" s="47"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="51">
+      <c r="F10" s="46"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="50">
         <f>Notes!C12</f>
         <v>12</v>
       </c>
-      <c r="L10" s="44"/>
-      <c r="M10" s="58"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="43"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="46"/>
-    </row>
-    <row r="12" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="12" t="s">
+      <c r="J10" s="43"/>
+      <c r="K10" s="56"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="42"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="45"/>
+    </row>
+    <row r="12" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="60"/>
-    </row>
-    <row r="13" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="85" t="s">
+      <c r="D12" s="11"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="58"/>
+    </row>
+    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="57" t="s">
+      <c r="D13" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="48">
-        <f>ROUND(AVERAGE(I13,K13),2)</f>
+      <c r="E13" s="47">
+        <f>ROUND(AVERAGE(G13,I13),2)</f>
         <v>184310.5</v>
       </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="110">
+      <c r="F13" s="10"/>
+      <c r="G13" s="108">
         <f>Notes!C47</f>
         <v>200621</v>
       </c>
-      <c r="J13" s="44"/>
-      <c r="K13" s="48">
+      <c r="H13" s="43"/>
+      <c r="I13" s="47">
         <f>Notes!C29</f>
         <v>168000</v>
       </c>
-      <c r="L13" s="47"/>
-      <c r="M13" s="108" t="s">
+      <c r="J13" s="46"/>
+      <c r="K13" s="106" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="107" t="s">
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="84" t="s">
+      <c r="D14" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="53">
+      <c r="E14" s="51">
         <f>ROUND(2600,2)</f>
         <v>2600</v>
       </c>
-      <c r="H14" s="54"/>
-      <c r="I14" s="109">
+      <c r="F14" s="52"/>
+      <c r="G14" s="107">
         <f>Notes!C54+Notes!C55</f>
         <v>2600</v>
       </c>
-      <c r="J14" s="44"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="108" t="s">
+      <c r="H14" s="43"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="106" t="s">
         <v>75</v>
       </c>
     </row>
@@ -3171,210 +3429,305 @@
   <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:J13"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A15" sqref="A15:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="92" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="92" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="92" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="92" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="92" customWidth="1"/>
-    <col min="6" max="7" width="13.140625" style="92" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="93" customWidth="1"/>
-    <col min="9" max="9" width="31.42578125" style="93" customWidth="1"/>
-    <col min="10" max="10" width="98.42578125" style="92" customWidth="1"/>
-    <col min="11" max="16384" width="33.140625" style="92"/>
+    <col min="1" max="2" width="3.5" style="90" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" style="90" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="90" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="90" customWidth="1"/>
+    <col min="6" max="7" width="13.1640625" style="90" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="91" customWidth="1"/>
+    <col min="9" max="9" width="31.5" style="91" customWidth="1"/>
+    <col min="10" max="10" width="98.5" style="90" customWidth="1"/>
+    <col min="11" max="16384" width="33.1640625" style="90"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="94"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="95"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="97"/>
-      <c r="C3" s="13" t="s">
+    <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B2" s="92"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="93"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="95"/>
+      <c r="C3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="99"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="97"/>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="100"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="99"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="101"/>
-      <c r="C5" s="77" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="97"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="95"/>
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="97"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="99"/>
+      <c r="C5" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="77" t="s">
+      <c r="D5" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="77" t="s">
+      <c r="E5" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="77" t="s">
+      <c r="F5" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="77" t="s">
+      <c r="G5" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="H5" s="102" t="s">
+      <c r="H5" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="102" t="s">
+      <c r="I5" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="J5" s="77" t="s">
+      <c r="J5" s="75" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="97"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="13"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="97"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="115" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="95"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="95"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="113" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="99" t="s">
+      <c r="E7" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="99">
+      <c r="F7" s="97">
         <v>2013</v>
       </c>
-      <c r="G7" s="99">
+      <c r="G7" s="97">
         <v>2012</v>
       </c>
-      <c r="H7" s="104"/>
-      <c r="I7" s="120" t="s">
+      <c r="H7" s="102"/>
+      <c r="I7" s="118" t="s">
         <v>86</v>
       </c>
-      <c r="J7" s="116" t="s">
+      <c r="J7" s="114" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="97"/>
-      <c r="C8" s="105" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="95"/>
+      <c r="C8" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="97"/>
-      <c r="C9" s="103" t="s">
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="102"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="97"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="95"/>
+      <c r="C9" s="101" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="97"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="99"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="97"/>
-      <c r="C11" s="125" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="115" t="s">
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="95"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="97"/>
+      <c r="J10" s="97"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="95"/>
+      <c r="C11" s="123" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="99" t="s">
+      <c r="E11" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="99">
+      <c r="F11" s="97">
         <v>2013</v>
       </c>
-      <c r="G11" s="99">
+      <c r="G11" s="97">
         <v>2012</v>
       </c>
-      <c r="H11" s="99"/>
-      <c r="I11" s="120" t="s">
+      <c r="H11" s="97"/>
+      <c r="I11" s="118" t="s">
         <v>87</v>
       </c>
-      <c r="J11" s="115" t="s">
+      <c r="J11" s="113" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="97"/>
-      <c r="C12" s="103" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="95"/>
+      <c r="C12" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="99"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="97"/>
-      <c r="C13" s="111" t="s">
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="97"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="95"/>
+      <c r="C13" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="99"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="99"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="97"/>
+    </row>
+    <row r="15" spans="1:10" s="126" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="136"/>
+      <c r="B15" s="136"/>
+      <c r="C15" s="136" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="136" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" s="136" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="136"/>
+      <c r="G15" s="136">
+        <v>2015</v>
+      </c>
+      <c r="H15" s="137" t="s">
+        <v>97</v>
+      </c>
+      <c r="I15" s="137" t="s">
+        <v>98</v>
+      </c>
+      <c r="J15" s="137"/>
+    </row>
+    <row r="16" spans="1:10" s="126" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="136"/>
+      <c r="B16" s="136"/>
+      <c r="C16" s="136" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="136" t="s">
+        <v>96</v>
+      </c>
+      <c r="E16" s="136" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="136"/>
+      <c r="G16" s="136">
+        <v>2015</v>
+      </c>
+      <c r="H16" s="137" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="137" t="s">
+        <v>98</v>
+      </c>
+      <c r="J16" s="137"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="136"/>
+      <c r="B17" s="136"/>
+      <c r="C17" s="136" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="136" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" s="136" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" s="136"/>
+      <c r="G17" s="136">
+        <v>2016</v>
+      </c>
+      <c r="H17" s="137" t="s">
+        <v>97</v>
+      </c>
+      <c r="I17" s="137" t="s">
+        <v>109</v>
+      </c>
+      <c r="J17" s="137"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="136"/>
+      <c r="B18" s="136"/>
+      <c r="C18" s="136" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="136" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" s="136" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="136"/>
+      <c r="G18" s="136">
+        <v>2016</v>
+      </c>
+      <c r="H18" s="137" t="s">
+        <v>97</v>
+      </c>
+      <c r="I18" s="137" t="s">
+        <v>111</v>
+      </c>
+      <c r="J18" s="137"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3384,912 +3737,1202 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K103"/>
+  <dimension ref="B1:K143"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="114" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" style="114" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="114" customWidth="1"/>
-    <col min="4" max="10" width="10.7109375" style="114"/>
-    <col min="11" max="11" width="10" style="114" customWidth="1"/>
-    <col min="12" max="16384" width="10.7109375" style="114"/>
+    <col min="1" max="1" width="5.5" style="112" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="112" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="112" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="112"/>
+    <col min="5" max="5" width="17.6640625" style="112" customWidth="1"/>
+    <col min="6" max="10" width="10.83203125" style="112"/>
+    <col min="11" max="11" width="10" style="112" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="112"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="117"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
-    </row>
-    <row r="3" spans="2:11" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="76"/>
-      <c r="C3" s="77" t="s">
+      <c r="B2" s="115"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+    </row>
+    <row r="3" spans="2:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="74"/>
+      <c r="C3" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="119"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115"/>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+      <c r="I4" s="113"/>
+      <c r="J4" s="113"/>
+      <c r="K4" s="113"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="119"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="113"/>
+      <c r="K5" s="113"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="119"/>
-      <c r="C6" s="115" t="s">
+      <c r="B6" s="117"/>
+      <c r="C6" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="115"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="113"/>
+      <c r="K6" s="113"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="119"/>
-      <c r="C7" s="115" t="s">
+      <c r="B7" s="117"/>
+      <c r="C7" s="113" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="113"/>
+      <c r="J7" s="113"/>
+      <c r="K7" s="113"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="119"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="113"/>
+      <c r="K8" s="113"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="119"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="115"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="115"/>
+      <c r="B9" s="117"/>
+      <c r="C9" s="113"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="113"/>
+      <c r="H9" s="113"/>
+      <c r="I9" s="113"/>
+      <c r="J9" s="113"/>
+      <c r="K9" s="113"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="119"/>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="115"/>
-      <c r="K10" s="115"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="113"/>
+      <c r="K10" s="113"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="119"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="115"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="115"/>
-      <c r="K11" s="115"/>
+      <c r="B11" s="117"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="113"/>
+      <c r="J11" s="113"/>
+      <c r="K11" s="113"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="119"/>
-      <c r="C12" s="115">
+      <c r="B12" s="117"/>
+      <c r="C12" s="113">
         <v>12</v>
       </c>
-      <c r="D12" s="115" t="s">
+      <c r="D12" s="113" t="s">
         <v>79</v>
       </c>
-      <c r="E12" s="115"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="115"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="115"/>
-      <c r="K12" s="115"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+      <c r="K12" s="113"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="119"/>
-      <c r="C13" s="115"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="115"/>
-      <c r="J13" s="115"/>
-      <c r="K13" s="115"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="113"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="119"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="115"/>
-      <c r="K14" s="115"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="113"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="113"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="113"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="119"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="115"/>
-      <c r="K15" s="115"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="113"/>
+      <c r="K15" s="113"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="119"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="115"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="113"/>
+      <c r="G16" s="113"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="113"/>
+      <c r="K16" s="113"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="119"/>
-      <c r="C17" s="115"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="115"/>
-      <c r="K17" s="115"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="113"/>
+      <c r="J17" s="113"/>
+      <c r="K17" s="113"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="119"/>
-      <c r="C18" s="115"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="115"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="115"/>
-      <c r="H18" s="115"/>
-      <c r="I18" s="115"/>
-      <c r="J18" s="115"/>
-      <c r="K18" s="115"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="113"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="113"/>
+      <c r="I18" s="113"/>
+      <c r="J18" s="113"/>
+      <c r="K18" s="113"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="119"/>
-      <c r="C19" s="115"/>
-      <c r="D19" s="115"/>
-      <c r="E19" s="115"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="115"/>
-      <c r="K19" s="115"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="113"/>
+      <c r="G19" s="113"/>
+      <c r="H19" s="113"/>
+      <c r="I19" s="113"/>
+      <c r="J19" s="113"/>
+      <c r="K19" s="113"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="119"/>
-      <c r="C20" s="115"/>
-      <c r="D20" s="115"/>
-      <c r="E20" s="115"/>
-      <c r="F20" s="115"/>
-      <c r="G20" s="115"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="115"/>
-      <c r="K20" s="115"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
+      <c r="I20" s="113"/>
+      <c r="J20" s="113"/>
+      <c r="K20" s="113"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="119"/>
-      <c r="C21" s="115"/>
-      <c r="D21" s="115"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="115"/>
-      <c r="G21" s="115"/>
-      <c r="H21" s="115"/>
-      <c r="I21" s="115"/>
-      <c r="J21" s="115"/>
-      <c r="K21" s="115"/>
+      <c r="B21" s="117"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="113"/>
+      <c r="G21" s="113"/>
+      <c r="H21" s="113"/>
+      <c r="I21" s="113"/>
+      <c r="J21" s="113"/>
+      <c r="K21" s="113"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="119"/>
-      <c r="C22" s="115" t="s">
+      <c r="B22" s="117"/>
+      <c r="C22" s="113" t="s">
         <v>82</v>
       </c>
-      <c r="D22" s="115"/>
-      <c r="E22" s="115"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="115"/>
-      <c r="H22" s="115"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="115"/>
-      <c r="K22" s="115"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="113"/>
+      <c r="G22" s="113"/>
+      <c r="H22" s="113"/>
+      <c r="I22" s="113"/>
+      <c r="J22" s="113"/>
+      <c r="K22" s="113"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="119"/>
-      <c r="C23" s="115"/>
-      <c r="D23" s="115"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="115"/>
-      <c r="H23" s="115"/>
-      <c r="I23" s="115"/>
-      <c r="J23" s="115"/>
-      <c r="K23" s="115"/>
+      <c r="B23" s="117"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="113"/>
+      <c r="G23" s="113"/>
+      <c r="H23" s="113"/>
+      <c r="I23" s="113"/>
+      <c r="J23" s="113"/>
+      <c r="K23" s="113"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="119"/>
-      <c r="C24" s="115"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="115"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="115"/>
-      <c r="H24" s="115"/>
-      <c r="I24" s="115"/>
-      <c r="J24" s="115"/>
-      <c r="K24" s="115"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="113"/>
+      <c r="D24" s="113"/>
+      <c r="E24" s="113"/>
+      <c r="F24" s="113"/>
+      <c r="G24" s="113"/>
+      <c r="H24" s="113"/>
+      <c r="I24" s="113"/>
+      <c r="J24" s="113"/>
+      <c r="K24" s="113"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="119"/>
-      <c r="C25" s="115"/>
-      <c r="D25" s="115"/>
-      <c r="E25" s="115"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="115"/>
-      <c r="H25" s="115"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="115"/>
-      <c r="K25" s="115"/>
+      <c r="B25" s="117"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="113"/>
+      <c r="G25" s="113"/>
+      <c r="H25" s="113"/>
+      <c r="I25" s="113"/>
+      <c r="J25" s="113"/>
+      <c r="K25" s="113"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B26" s="119"/>
-      <c r="C26" s="115"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="115"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="115"/>
-      <c r="H26" s="115"/>
-      <c r="I26" s="115"/>
-      <c r="J26" s="115"/>
-      <c r="K26" s="115"/>
+      <c r="B26" s="117"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="113"/>
+      <c r="F26" s="113"/>
+      <c r="G26" s="113"/>
+      <c r="H26" s="113"/>
+      <c r="I26" s="113"/>
+      <c r="J26" s="113"/>
+      <c r="K26" s="113"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="119"/>
-      <c r="C27" s="115"/>
-      <c r="D27" s="115"/>
-      <c r="E27" s="115"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="115"/>
-      <c r="H27" s="115"/>
-      <c r="I27" s="115"/>
-      <c r="J27" s="115"/>
-      <c r="K27" s="115"/>
+      <c r="B27" s="117"/>
+      <c r="C27" s="113"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="113"/>
+      <c r="F27" s="113"/>
+      <c r="G27" s="113"/>
+      <c r="H27" s="113"/>
+      <c r="I27" s="113"/>
+      <c r="J27" s="113"/>
+      <c r="K27" s="113"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="119"/>
-      <c r="C28" s="115"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="115"/>
-      <c r="H28" s="115"/>
-      <c r="I28" s="115"/>
-      <c r="J28" s="115"/>
-      <c r="K28" s="115"/>
+      <c r="B28" s="117"/>
+      <c r="C28" s="113"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="113"/>
+      <c r="F28" s="113"/>
+      <c r="G28" s="113"/>
+      <c r="H28" s="113"/>
+      <c r="I28" s="113"/>
+      <c r="J28" s="113"/>
+      <c r="K28" s="113"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="119"/>
-      <c r="C29" s="115">
+      <c r="B29" s="117"/>
+      <c r="C29" s="113">
         <v>168000</v>
       </c>
-      <c r="D29" s="115" t="s">
+      <c r="D29" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="115"/>
-      <c r="F29" s="115"/>
-      <c r="G29" s="115"/>
-      <c r="H29" s="115"/>
-      <c r="I29" s="115"/>
-      <c r="J29" s="115"/>
-      <c r="K29" s="115"/>
+      <c r="E29" s="113"/>
+      <c r="F29" s="113"/>
+      <c r="G29" s="113"/>
+      <c r="H29" s="113"/>
+      <c r="I29" s="113"/>
+      <c r="J29" s="113"/>
+      <c r="K29" s="113"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="119"/>
-      <c r="C30" s="115"/>
-      <c r="D30" s="115"/>
-      <c r="E30" s="115"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="115"/>
-      <c r="H30" s="115"/>
-      <c r="I30" s="115"/>
-      <c r="J30" s="115"/>
-      <c r="K30" s="115"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="113"/>
+      <c r="E30" s="113"/>
+      <c r="F30" s="113"/>
+      <c r="G30" s="113"/>
+      <c r="H30" s="113"/>
+      <c r="I30" s="113"/>
+      <c r="J30" s="113"/>
+      <c r="K30" s="113"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="119"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="115"/>
-      <c r="E31" s="115"/>
-      <c r="F31" s="115"/>
-      <c r="G31" s="115"/>
-      <c r="H31" s="115"/>
-      <c r="I31" s="115"/>
-      <c r="J31" s="115"/>
-      <c r="K31" s="115"/>
+      <c r="B31" s="117"/>
+      <c r="C31" s="113"/>
+      <c r="D31" s="113"/>
+      <c r="E31" s="113"/>
+      <c r="F31" s="113"/>
+      <c r="G31" s="113"/>
+      <c r="H31" s="113"/>
+      <c r="I31" s="113"/>
+      <c r="J31" s="113"/>
+      <c r="K31" s="113"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="119"/>
-      <c r="C32" s="115"/>
-      <c r="D32" s="115"/>
-      <c r="E32" s="115"/>
-      <c r="F32" s="115"/>
-      <c r="G32" s="115"/>
-      <c r="H32" s="115"/>
-      <c r="I32" s="115"/>
-      <c r="J32" s="115"/>
-      <c r="K32" s="115"/>
+      <c r="B32" s="117"/>
+      <c r="C32" s="113"/>
+      <c r="D32" s="113"/>
+      <c r="E32" s="113"/>
+      <c r="F32" s="113"/>
+      <c r="G32" s="113"/>
+      <c r="H32" s="113"/>
+      <c r="I32" s="113"/>
+      <c r="J32" s="113"/>
+      <c r="K32" s="113"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B33" s="119"/>
-      <c r="C33" s="115"/>
-      <c r="D33" s="115"/>
-      <c r="E33" s="115"/>
-      <c r="F33" s="115"/>
-      <c r="G33" s="115"/>
-      <c r="H33" s="115"/>
-      <c r="I33" s="115"/>
-      <c r="J33" s="115"/>
-      <c r="K33" s="115"/>
+      <c r="B33" s="117"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="113"/>
+      <c r="G33" s="113"/>
+      <c r="H33" s="113"/>
+      <c r="I33" s="113"/>
+      <c r="J33" s="113"/>
+      <c r="K33" s="113"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B34" s="119"/>
-      <c r="C34" s="115"/>
-      <c r="D34" s="115"/>
-      <c r="E34" s="115"/>
-      <c r="F34" s="115"/>
-      <c r="G34" s="115"/>
-      <c r="H34" s="115"/>
-      <c r="I34" s="115"/>
-      <c r="J34" s="115"/>
-      <c r="K34" s="115"/>
+      <c r="B34" s="117"/>
+      <c r="C34" s="113"/>
+      <c r="D34" s="113"/>
+      <c r="E34" s="113"/>
+      <c r="F34" s="113"/>
+      <c r="G34" s="113"/>
+      <c r="H34" s="113"/>
+      <c r="I34" s="113"/>
+      <c r="J34" s="113"/>
+      <c r="K34" s="113"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B35" s="119"/>
-      <c r="C35" s="115"/>
-      <c r="D35" s="115"/>
-      <c r="E35" s="115"/>
-      <c r="F35" s="115"/>
-      <c r="G35" s="115"/>
-      <c r="H35" s="115"/>
-      <c r="I35" s="115"/>
-      <c r="J35" s="115"/>
-      <c r="K35" s="115"/>
+      <c r="B35" s="117"/>
+      <c r="C35" s="113"/>
+      <c r="D35" s="113"/>
+      <c r="E35" s="113"/>
+      <c r="F35" s="113"/>
+      <c r="G35" s="113"/>
+      <c r="H35" s="113"/>
+      <c r="I35" s="113"/>
+      <c r="J35" s="113"/>
+      <c r="K35" s="113"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B36" s="119"/>
-      <c r="C36" s="115"/>
-      <c r="D36" s="115"/>
-      <c r="E36" s="115"/>
-      <c r="F36" s="115"/>
-      <c r="G36" s="115"/>
-      <c r="H36" s="115"/>
-      <c r="I36" s="115"/>
-      <c r="J36" s="115"/>
-      <c r="K36" s="115"/>
+      <c r="B36" s="117"/>
+      <c r="C36" s="113"/>
+      <c r="D36" s="113"/>
+      <c r="E36" s="113"/>
+      <c r="F36" s="113"/>
+      <c r="G36" s="113"/>
+      <c r="H36" s="113"/>
+      <c r="I36" s="113"/>
+      <c r="J36" s="113"/>
+      <c r="K36" s="113"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B37" s="119"/>
-      <c r="C37" s="115"/>
-      <c r="D37" s="115"/>
-      <c r="E37" s="115"/>
-      <c r="F37" s="115"/>
-      <c r="G37" s="115"/>
-      <c r="H37" s="115"/>
-      <c r="I37" s="115"/>
-      <c r="J37" s="115"/>
-      <c r="K37" s="115"/>
+      <c r="B37" s="117"/>
+      <c r="C37" s="113"/>
+      <c r="D37" s="113"/>
+      <c r="E37" s="113"/>
+      <c r="F37" s="113"/>
+      <c r="G37" s="113"/>
+      <c r="H37" s="113"/>
+      <c r="I37" s="113"/>
+      <c r="J37" s="113"/>
+      <c r="K37" s="113"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B38" s="119"/>
-      <c r="C38" s="115"/>
-      <c r="D38" s="115"/>
-      <c r="E38" s="115"/>
-      <c r="F38" s="115"/>
-      <c r="G38" s="115"/>
-      <c r="H38" s="115"/>
-      <c r="I38" s="115"/>
-      <c r="J38" s="115"/>
-      <c r="K38" s="115"/>
+      <c r="B38" s="117"/>
+      <c r="C38" s="113"/>
+      <c r="D38" s="113"/>
+      <c r="E38" s="113"/>
+      <c r="F38" s="113"/>
+      <c r="G38" s="113"/>
+      <c r="H38" s="113"/>
+      <c r="I38" s="113"/>
+      <c r="J38" s="113"/>
+      <c r="K38" s="113"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B39" s="119"/>
-      <c r="C39" s="115"/>
-      <c r="D39" s="115"/>
-      <c r="E39" s="115"/>
-      <c r="F39" s="115"/>
-      <c r="G39" s="115"/>
-      <c r="H39" s="115"/>
-      <c r="I39" s="115"/>
-      <c r="J39" s="115"/>
-      <c r="K39" s="115"/>
+      <c r="B39" s="117"/>
+      <c r="C39" s="113"/>
+      <c r="D39" s="113"/>
+      <c r="E39" s="113"/>
+      <c r="F39" s="113"/>
+      <c r="G39" s="113"/>
+      <c r="H39" s="113"/>
+      <c r="I39" s="113"/>
+      <c r="J39" s="113"/>
+      <c r="K39" s="113"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B40" s="119"/>
-      <c r="C40" s="115"/>
-      <c r="D40" s="115"/>
-      <c r="E40" s="115"/>
-      <c r="F40" s="115"/>
-      <c r="G40" s="115"/>
-      <c r="H40" s="115"/>
-      <c r="I40" s="115"/>
-      <c r="J40" s="115"/>
-      <c r="K40" s="115"/>
+      <c r="B40" s="117"/>
+      <c r="C40" s="113"/>
+      <c r="D40" s="113"/>
+      <c r="E40" s="113"/>
+      <c r="F40" s="113"/>
+      <c r="G40" s="113"/>
+      <c r="H40" s="113"/>
+      <c r="I40" s="113"/>
+      <c r="J40" s="113"/>
+      <c r="K40" s="113"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B41" s="119"/>
-      <c r="C41" s="115" t="s">
+      <c r="B41" s="117"/>
+      <c r="C41" s="113" t="s">
         <v>70</v>
       </c>
-      <c r="D41" s="115"/>
-      <c r="E41" s="115"/>
-      <c r="F41" s="115"/>
-      <c r="G41" s="115"/>
-      <c r="H41" s="115"/>
-      <c r="I41" s="115"/>
-      <c r="J41" s="115"/>
-      <c r="K41" s="115"/>
+      <c r="D41" s="113"/>
+      <c r="E41" s="113"/>
+      <c r="F41" s="113"/>
+      <c r="G41" s="113"/>
+      <c r="H41" s="113"/>
+      <c r="I41" s="113"/>
+      <c r="J41" s="113"/>
+      <c r="K41" s="113"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B42" s="119"/>
-      <c r="C42" s="115" t="s">
+      <c r="B42" s="117"/>
+      <c r="C42" s="113" t="s">
         <v>83</v>
       </c>
-      <c r="D42" s="115"/>
-      <c r="E42" s="115"/>
-      <c r="F42" s="115"/>
-      <c r="G42" s="115"/>
-      <c r="H42" s="115"/>
-      <c r="I42" s="115"/>
-      <c r="J42" s="115"/>
-      <c r="K42" s="115"/>
+      <c r="D42" s="113"/>
+      <c r="E42" s="113"/>
+      <c r="F42" s="113"/>
+      <c r="G42" s="113"/>
+      <c r="H42" s="113"/>
+      <c r="I42" s="113"/>
+      <c r="J42" s="113"/>
+      <c r="K42" s="113"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B43" s="119"/>
-      <c r="C43" s="115"/>
-      <c r="D43" s="115"/>
-      <c r="E43" s="115"/>
-      <c r="F43" s="115"/>
-      <c r="G43" s="115"/>
-      <c r="H43" s="115"/>
-      <c r="I43" s="115"/>
-      <c r="J43" s="115"/>
-      <c r="K43" s="115"/>
+      <c r="B43" s="117"/>
+      <c r="C43" s="113"/>
+      <c r="D43" s="113"/>
+      <c r="E43" s="113"/>
+      <c r="F43" s="113"/>
+      <c r="G43" s="113"/>
+      <c r="H43" s="113"/>
+      <c r="I43" s="113"/>
+      <c r="J43" s="113"/>
+      <c r="K43" s="113"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B44" s="119"/>
-      <c r="C44" s="115"/>
-      <c r="D44" s="115"/>
-      <c r="E44" s="115"/>
-      <c r="F44" s="115"/>
-      <c r="G44" s="115"/>
-      <c r="H44" s="115"/>
-      <c r="I44" s="115"/>
-      <c r="J44" s="115"/>
-      <c r="K44" s="115"/>
+      <c r="B44" s="117"/>
+      <c r="C44" s="113"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="113"/>
+      <c r="F44" s="113"/>
+      <c r="G44" s="113"/>
+      <c r="H44" s="113"/>
+      <c r="I44" s="113"/>
+      <c r="J44" s="113"/>
+      <c r="K44" s="113"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B45" s="119"/>
-      <c r="C45" s="115"/>
-      <c r="D45" s="115"/>
-      <c r="E45" s="115"/>
-      <c r="F45" s="115"/>
-      <c r="G45" s="115"/>
-      <c r="H45" s="115"/>
-      <c r="I45" s="115"/>
-      <c r="J45" s="115"/>
-      <c r="K45" s="115"/>
+      <c r="B45" s="117"/>
+      <c r="C45" s="113"/>
+      <c r="D45" s="113"/>
+      <c r="E45" s="113"/>
+      <c r="F45" s="113"/>
+      <c r="G45" s="113"/>
+      <c r="H45" s="113"/>
+      <c r="I45" s="113"/>
+      <c r="J45" s="113"/>
+      <c r="K45" s="113"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B46" s="119"/>
-      <c r="C46" s="115"/>
-      <c r="D46" s="115"/>
-      <c r="E46" s="115"/>
-      <c r="F46" s="115"/>
-      <c r="G46" s="115"/>
-      <c r="H46" s="115"/>
-      <c r="I46" s="115"/>
-      <c r="J46" s="115"/>
-      <c r="K46" s="115"/>
+      <c r="B46" s="117"/>
+      <c r="C46" s="113"/>
+      <c r="D46" s="113"/>
+      <c r="E46" s="113"/>
+      <c r="F46" s="113"/>
+      <c r="G46" s="113"/>
+      <c r="H46" s="113"/>
+      <c r="I46" s="113"/>
+      <c r="J46" s="113"/>
+      <c r="K46" s="113"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B47" s="119"/>
-      <c r="C47" s="115">
+      <c r="B47" s="117"/>
+      <c r="C47" s="113">
         <v>200621</v>
       </c>
-      <c r="D47" s="115" t="s">
+      <c r="D47" s="113" t="s">
         <v>21</v>
       </c>
-      <c r="E47" s="115"/>
-      <c r="F47" s="115"/>
-      <c r="G47" s="115"/>
-      <c r="H47" s="115"/>
-      <c r="I47" s="115"/>
-      <c r="J47" s="115"/>
-      <c r="K47" s="115"/>
+      <c r="E47" s="113"/>
+      <c r="F47" s="113"/>
+      <c r="G47" s="113"/>
+      <c r="H47" s="113"/>
+      <c r="I47" s="113"/>
+      <c r="J47" s="113"/>
+      <c r="K47" s="113"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B48" s="119"/>
-      <c r="C48" s="115"/>
-      <c r="D48" s="115"/>
-      <c r="E48" s="115"/>
-      <c r="F48" s="115"/>
-      <c r="G48" s="115"/>
-      <c r="H48" s="115"/>
-      <c r="I48" s="115"/>
-      <c r="J48" s="115"/>
-      <c r="K48" s="115"/>
+      <c r="B48" s="117"/>
+      <c r="C48" s="113"/>
+      <c r="D48" s="113"/>
+      <c r="E48" s="113"/>
+      <c r="F48" s="113"/>
+      <c r="G48" s="113"/>
+      <c r="H48" s="113"/>
+      <c r="I48" s="113"/>
+      <c r="J48" s="113"/>
+      <c r="K48" s="113"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B49" s="119"/>
-      <c r="C49" s="115"/>
-      <c r="D49" s="115"/>
-      <c r="E49" s="115"/>
-      <c r="F49" s="115"/>
-      <c r="G49" s="115"/>
-      <c r="H49" s="115"/>
-      <c r="I49" s="115"/>
-      <c r="J49" s="115"/>
-      <c r="K49" s="115"/>
+      <c r="B49" s="117"/>
+      <c r="C49" s="113"/>
+      <c r="D49" s="113"/>
+      <c r="E49" s="113"/>
+      <c r="F49" s="113"/>
+      <c r="G49" s="113"/>
+      <c r="H49" s="113"/>
+      <c r="I49" s="113"/>
+      <c r="J49" s="113"/>
+      <c r="K49" s="113"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B50" s="119"/>
-      <c r="C50" s="115"/>
-      <c r="D50" s="115"/>
-      <c r="E50" s="115"/>
-      <c r="F50" s="115"/>
-      <c r="G50" s="115"/>
-      <c r="H50" s="115"/>
-      <c r="I50" s="115"/>
-      <c r="J50" s="115"/>
-      <c r="K50" s="115"/>
+      <c r="B50" s="117"/>
+      <c r="C50" s="113"/>
+      <c r="D50" s="113"/>
+      <c r="E50" s="113"/>
+      <c r="F50" s="113"/>
+      <c r="G50" s="113"/>
+      <c r="H50" s="113"/>
+      <c r="I50" s="113"/>
+      <c r="J50" s="113"/>
+      <c r="K50" s="113"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B51" s="119"/>
-      <c r="C51" s="115"/>
-      <c r="D51" s="115"/>
-      <c r="E51" s="115"/>
-      <c r="F51" s="115"/>
-      <c r="G51" s="115"/>
-      <c r="H51" s="115"/>
-      <c r="I51" s="115"/>
-      <c r="J51" s="115"/>
-      <c r="K51" s="115"/>
+      <c r="B51" s="117"/>
+      <c r="C51" s="113"/>
+      <c r="D51" s="113"/>
+      <c r="E51" s="113"/>
+      <c r="F51" s="113"/>
+      <c r="G51" s="113"/>
+      <c r="H51" s="113"/>
+      <c r="I51" s="113"/>
+      <c r="J51" s="113"/>
+      <c r="K51" s="113"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B52" s="119"/>
-      <c r="C52" s="115"/>
-      <c r="D52" s="115"/>
-      <c r="E52" s="115"/>
-      <c r="F52" s="115"/>
-      <c r="G52" s="115"/>
-      <c r="H52" s="115"/>
-      <c r="I52" s="115"/>
-      <c r="J52" s="115"/>
-      <c r="K52" s="115"/>
+      <c r="B52" s="117"/>
+      <c r="C52" s="113"/>
+      <c r="D52" s="113"/>
+      <c r="E52" s="113"/>
+      <c r="F52" s="113"/>
+      <c r="G52" s="113"/>
+      <c r="H52" s="113"/>
+      <c r="I52" s="113"/>
+      <c r="J52" s="113"/>
+      <c r="K52" s="113"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B53" s="119"/>
-      <c r="C53" s="115"/>
-      <c r="D53" s="115"/>
-      <c r="E53" s="115"/>
-      <c r="F53" s="115"/>
-      <c r="G53" s="115"/>
-      <c r="H53" s="115"/>
-      <c r="I53" s="115"/>
-      <c r="J53" s="115"/>
-      <c r="K53" s="115"/>
+      <c r="B53" s="117"/>
+      <c r="C53" s="113"/>
+      <c r="D53" s="113"/>
+      <c r="E53" s="113"/>
+      <c r="F53" s="113"/>
+      <c r="G53" s="113"/>
+      <c r="H53" s="113"/>
+      <c r="I53" s="113"/>
+      <c r="J53" s="113"/>
+      <c r="K53" s="113"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B54" s="119"/>
-      <c r="C54" s="115">
+      <c r="B54" s="117"/>
+      <c r="C54" s="113">
         <v>2080</v>
       </c>
-      <c r="D54" s="115" t="s">
+      <c r="D54" s="113" t="s">
         <v>84</v>
       </c>
-      <c r="E54" s="115"/>
-      <c r="F54" s="115"/>
-      <c r="G54" s="115"/>
-      <c r="H54" s="115"/>
-      <c r="I54" s="115"/>
-      <c r="J54" s="115"/>
-      <c r="K54" s="115"/>
+      <c r="E54" s="113"/>
+      <c r="F54" s="113"/>
+      <c r="G54" s="113"/>
+      <c r="H54" s="113"/>
+      <c r="I54" s="113"/>
+      <c r="J54" s="113"/>
+      <c r="K54" s="113"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B55" s="119"/>
-      <c r="C55" s="115">
+      <c r="B55" s="117"/>
+      <c r="C55" s="113">
         <v>520</v>
       </c>
-      <c r="D55" s="115" t="s">
+      <c r="D55" s="113" t="s">
         <v>84</v>
       </c>
-      <c r="E55" s="115"/>
-      <c r="F55" s="115"/>
-      <c r="G55" s="115"/>
-      <c r="H55" s="115"/>
-      <c r="I55" s="115"/>
-      <c r="J55" s="115"/>
-      <c r="K55" s="115"/>
+      <c r="E55" s="113"/>
+      <c r="F55" s="113"/>
+      <c r="G55" s="113"/>
+      <c r="H55" s="113"/>
+      <c r="I55" s="113"/>
+      <c r="J55" s="113"/>
+      <c r="K55" s="113"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B56" s="119"/>
-      <c r="C56" s="115"/>
-      <c r="D56" s="115"/>
-      <c r="E56" s="115"/>
-      <c r="F56" s="115"/>
-      <c r="G56" s="115"/>
-      <c r="H56" s="115"/>
-      <c r="I56" s="115"/>
-      <c r="J56" s="115"/>
-      <c r="K56" s="115"/>
+      <c r="B56" s="117"/>
+      <c r="C56" s="113"/>
+      <c r="D56" s="113"/>
+      <c r="E56" s="113"/>
+      <c r="F56" s="113"/>
+      <c r="G56" s="113"/>
+      <c r="H56" s="113"/>
+      <c r="I56" s="113"/>
+      <c r="J56" s="113"/>
+      <c r="K56" s="113"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B57" s="119"/>
-      <c r="C57" s="115"/>
-      <c r="D57" s="115"/>
-      <c r="E57" s="115"/>
-      <c r="F57" s="115"/>
-      <c r="G57" s="115"/>
-      <c r="H57" s="115"/>
-      <c r="I57" s="115"/>
-      <c r="J57" s="115"/>
-      <c r="K57" s="115"/>
+      <c r="B57" s="117"/>
+      <c r="C57" s="113"/>
+      <c r="D57" s="113"/>
+      <c r="E57" s="113"/>
+      <c r="F57" s="113"/>
+      <c r="G57" s="113"/>
+      <c r="H57" s="113"/>
+      <c r="I57" s="113"/>
+      <c r="J57" s="113"/>
+      <c r="K57" s="113"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B58" s="119"/>
-      <c r="C58" s="115"/>
-      <c r="D58" s="115"/>
-      <c r="E58" s="115"/>
-      <c r="F58" s="115"/>
-      <c r="G58" s="115"/>
-      <c r="H58" s="115"/>
-      <c r="I58" s="115"/>
-      <c r="J58" s="115"/>
-      <c r="K58" s="115"/>
+      <c r="B58" s="117"/>
+      <c r="C58" s="113"/>
+      <c r="D58" s="113"/>
+      <c r="E58" s="113"/>
+      <c r="F58" s="113"/>
+      <c r="G58" s="113"/>
+      <c r="H58" s="113"/>
+      <c r="I58" s="113"/>
+      <c r="J58" s="113"/>
+      <c r="K58" s="113"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B59" s="119"/>
-      <c r="C59" s="115"/>
-      <c r="D59" s="115"/>
-      <c r="E59" s="115"/>
-      <c r="F59" s="115"/>
-      <c r="G59" s="115"/>
-      <c r="H59" s="115"/>
-      <c r="I59" s="115"/>
-      <c r="J59" s="115"/>
-      <c r="K59" s="115"/>
+      <c r="B59" s="117"/>
+      <c r="C59" s="113"/>
+      <c r="D59" s="113"/>
+      <c r="E59" s="113"/>
+      <c r="F59" s="113"/>
+      <c r="G59" s="113"/>
+      <c r="H59" s="113"/>
+      <c r="I59" s="113"/>
+      <c r="J59" s="113"/>
+      <c r="K59" s="113"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B60" s="119"/>
-      <c r="C60" s="115"/>
-      <c r="D60" s="115"/>
-      <c r="E60" s="115"/>
-      <c r="F60" s="115"/>
-      <c r="G60" s="115"/>
-      <c r="H60" s="115"/>
-      <c r="I60" s="115"/>
-      <c r="J60" s="115"/>
-      <c r="K60" s="115"/>
+      <c r="B60" s="117"/>
+      <c r="C60" s="113"/>
+      <c r="D60" s="113"/>
+      <c r="E60" s="113"/>
+      <c r="F60" s="113"/>
+      <c r="G60" s="113"/>
+      <c r="H60" s="113"/>
+      <c r="I60" s="113"/>
+      <c r="J60" s="113"/>
+      <c r="K60" s="113"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B61" s="119"/>
+      <c r="B61" s="117"/>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B62" s="119"/>
+      <c r="B62" s="117"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B63" s="119"/>
+      <c r="B63" s="117"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B64" s="119"/>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B65" s="119"/>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B66" s="119"/>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B67" s="119"/>
-      <c r="C67" s="122" t="s">
+      <c r="B64" s="117"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B65" s="117"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B66" s="117"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B67" s="117"/>
+      <c r="C67" s="120" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B68" s="119"/>
-      <c r="C68" s="122" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B69" s="119"/>
-      <c r="E69" s="114">
+    <row r="68" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="117"/>
+      <c r="C68" s="120" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="117"/>
+      <c r="D69" s="138" t="s">
+        <v>112</v>
+      </c>
+      <c r="E69" s="130">
         <v>5.22</v>
       </c>
-      <c r="F69" s="122" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B70" s="119"/>
-      <c r="E70" s="114">
+      <c r="F69" s="120" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B70" s="117"/>
+      <c r="E70" s="112">
         <f>1/E69</f>
         <v>0.19157088122605365</v>
       </c>
-      <c r="F70" s="122" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B71" s="119"/>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B72" s="119"/>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B73" s="119"/>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B74" s="119"/>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B75" s="119"/>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B76" s="119"/>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B77" s="119"/>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B78" s="119"/>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B79" s="119"/>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B80" s="119"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B81" s="119"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B82" s="119"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B83" s="119"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B84" s="119"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B85" s="119"/>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B86" s="119"/>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B87" s="119"/>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B88" s="119"/>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B89" s="119"/>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B90" s="119"/>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B91" s="119"/>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B92" s="119"/>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B93" s="119"/>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B94" s="119"/>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B95" s="119"/>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B96" s="119"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B97" s="119"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B98" s="119"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B99" s="119"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B100" s="119"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B101" s="119"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B102" s="119"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B103" s="119"/>
+      <c r="F70" s="120" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B71" s="117"/>
+      <c r="D71" s="138"/>
+      <c r="F71" s="120"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B72" s="117"/>
+      <c r="F72" s="120"/>
+    </row>
+    <row r="73" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="117"/>
+    </row>
+    <row r="74" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="117"/>
+      <c r="D74" s="138" t="s">
+        <v>113</v>
+      </c>
+      <c r="E74" s="130">
+        <v>1.396472478</v>
+      </c>
+      <c r="F74" s="138" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B75" s="117"/>
+      <c r="E75" s="138" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B76" s="117"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B77" s="117"/>
+      <c r="D77" s="138" t="s">
+        <v>123</v>
+      </c>
+      <c r="E77" s="112">
+        <f>((E69*E80)+(E74*E82))/(E80+E82)</f>
+        <v>2.5580839748480804</v>
+      </c>
+      <c r="F77" s="138" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B78" s="117"/>
+      <c r="E78" s="112">
+        <f>1/E77</f>
+        <v>0.39091758121794579</v>
+      </c>
+      <c r="F78" s="138" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="117"/>
+    </row>
+    <row r="80" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="117"/>
+      <c r="D80" s="129" t="s">
+        <v>115</v>
+      </c>
+      <c r="E80" s="130">
+        <v>7546</v>
+      </c>
+      <c r="F80" s="138" t="s">
+        <v>119</v>
+      </c>
+      <c r="G80" s="138"/>
+      <c r="H80" s="138" t="s">
+        <v>96</v>
+      </c>
+      <c r="I80" s="138"/>
+      <c r="J80" s="138" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="117"/>
+      <c r="D81" s="129" t="s">
+        <v>116</v>
+      </c>
+      <c r="E81" s="130">
+        <v>68900</v>
+      </c>
+      <c r="F81" s="138" t="s">
+        <v>119</v>
+      </c>
+      <c r="G81" s="138"/>
+      <c r="H81" s="138" t="s">
+        <v>96</v>
+      </c>
+      <c r="I81" s="138"/>
+      <c r="J81" s="138"/>
+    </row>
+    <row r="82" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="117"/>
+      <c r="D82" s="129" t="s">
+        <v>117</v>
+      </c>
+      <c r="E82" s="130">
+        <v>17292.2</v>
+      </c>
+      <c r="F82" s="138" t="s">
+        <v>119</v>
+      </c>
+      <c r="G82" s="138"/>
+      <c r="H82" s="138" t="s">
+        <v>108</v>
+      </c>
+      <c r="I82" s="138"/>
+      <c r="J82" s="138" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="117"/>
+      <c r="D83" s="129" t="s">
+        <v>118</v>
+      </c>
+      <c r="E83" s="130">
+        <v>1469</v>
+      </c>
+      <c r="F83" s="138" t="s">
+        <v>119</v>
+      </c>
+      <c r="G83" s="138"/>
+      <c r="H83" s="138" t="s">
+        <v>108</v>
+      </c>
+      <c r="I83" s="138"/>
+      <c r="J83" s="138" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="117"/>
+    </row>
+    <row r="85" spans="2:10" s="127" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C85" s="128" t="s">
+        <v>96</v>
+      </c>
+      <c r="E85" s="130">
+        <f>E80+E82</f>
+        <v>24838.2</v>
+      </c>
+      <c r="F85" s="129" t="s">
+        <v>100</v>
+      </c>
+      <c r="G85" s="129"/>
+      <c r="H85" s="129"/>
+      <c r="I85" s="129"/>
+    </row>
+    <row r="86" spans="2:10" s="127" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C86" s="129"/>
+      <c r="E86" s="129">
+        <f>E85*1000000</f>
+        <v>24838200000</v>
+      </c>
+      <c r="F86" s="129" t="s">
+        <v>99</v>
+      </c>
+      <c r="G86" s="129"/>
+      <c r="H86" s="129"/>
+      <c r="I86" s="129"/>
+    </row>
+    <row r="87" spans="2:10" s="127" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C87" s="129"/>
+      <c r="E87" s="131">
+        <f>E81+E83</f>
+        <v>70369</v>
+      </c>
+      <c r="F87" s="129" t="s">
+        <v>102</v>
+      </c>
+      <c r="G87" s="129"/>
+      <c r="H87" s="129"/>
+      <c r="I87" s="129"/>
+    </row>
+    <row r="88" spans="2:10" s="127" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C88" s="129"/>
+      <c r="E88" s="132">
+        <f>E87*1000000</f>
+        <v>70369000000</v>
+      </c>
+      <c r="F88" s="129" t="s">
+        <v>101</v>
+      </c>
+      <c r="G88" s="129"/>
+      <c r="H88" s="129"/>
+      <c r="I88" s="129"/>
+    </row>
+    <row r="89" spans="2:10" s="127" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C89" s="129"/>
+      <c r="D89" s="129"/>
+      <c r="E89" s="129"/>
+      <c r="F89" s="129"/>
+      <c r="G89" s="129"/>
+      <c r="H89" s="129"/>
+      <c r="I89" s="129"/>
+    </row>
+    <row r="90" spans="2:10" s="127" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C90" s="129"/>
+      <c r="D90" s="129"/>
+      <c r="E90" s="133">
+        <f>E88/E86</f>
+        <v>2.8330957959916581</v>
+      </c>
+      <c r="F90" s="129" t="s">
+        <v>103</v>
+      </c>
+      <c r="G90" s="129"/>
+      <c r="H90" s="129"/>
+      <c r="I90" s="129"/>
+    </row>
+    <row r="91" spans="2:10" s="127" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C91" s="129"/>
+      <c r="D91" s="129"/>
+      <c r="E91" s="129"/>
+      <c r="F91" s="129"/>
+      <c r="G91" s="129"/>
+      <c r="H91" s="129"/>
+      <c r="I91" s="129"/>
+    </row>
+    <row r="92" spans="2:10" s="127" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C92" s="129"/>
+      <c r="D92" s="129"/>
+      <c r="E92" s="129"/>
+      <c r="F92" s="129"/>
+      <c r="G92" s="129"/>
+      <c r="H92" s="129"/>
+      <c r="I92" s="129"/>
+    </row>
+    <row r="93" spans="2:10" s="127" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C93" s="129"/>
+      <c r="D93" s="129"/>
+      <c r="E93" s="129"/>
+      <c r="F93" s="129"/>
+      <c r="G93" s="129"/>
+      <c r="H93" s="129"/>
+      <c r="I93" s="129"/>
+    </row>
+    <row r="94" spans="2:10" s="127" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C94" s="129"/>
+      <c r="D94" s="129" t="str">
+        <f>Dashboard!C11</f>
+        <v>output.freight_tonne_kms</v>
+      </c>
+      <c r="E94" s="129">
+        <f>E90*E78</f>
+        <v>1.1075069559277897</v>
+      </c>
+      <c r="F94" s="129" t="s">
+        <v>104</v>
+      </c>
+      <c r="G94" s="129"/>
+      <c r="H94" s="84" t="s">
+        <v>71</v>
+      </c>
+      <c r="I94" s="129"/>
+    </row>
+    <row r="95" spans="2:10" s="127" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C95" s="129"/>
+      <c r="D95" s="129"/>
+      <c r="E95" s="129"/>
+      <c r="F95" s="129"/>
+      <c r="G95" s="129"/>
+      <c r="H95" s="84"/>
+      <c r="I95" s="129"/>
+    </row>
+    <row r="96" spans="2:10" s="127" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C96" s="129"/>
+      <c r="D96" s="129"/>
+      <c r="E96" s="129"/>
+      <c r="F96" s="129"/>
+      <c r="G96" s="129"/>
+      <c r="H96" s="84"/>
+      <c r="I96" s="129"/>
+    </row>
+    <row r="97" spans="3:9" s="127" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C97" s="129"/>
+      <c r="D97" s="129"/>
+      <c r="E97" s="129"/>
+      <c r="F97" s="129"/>
+      <c r="G97" s="129"/>
+      <c r="H97" s="129"/>
+      <c r="I97" s="129"/>
+    </row>
+    <row r="98" spans="3:9" s="127" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" spans="3:9" s="127" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" spans="3:9" s="127" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="101" spans="3:9" s="127" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="102" spans="3:9" s="127" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="103" spans="3:9" s="127" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="104" spans="3:9" s="127" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="105" spans="3:9" s="127" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="106" spans="3:9" s="127" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="107" spans="3:9" s="127" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="108" spans="3:9" s="127" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" spans="3:9" s="127" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="110" spans="3:9" s="127" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="111" spans="3:9" s="127" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="112" spans="3:9" s="127" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="113" spans="2:2" s="127" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="114" spans="2:2" s="127" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="115" spans="2:2" s="127" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" spans="2:2" s="127" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="117" spans="2:2" s="127" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="118" spans="2:2" s="127" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="119" spans="2:2" s="127" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B120" s="117"/>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B121" s="117"/>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B122" s="117"/>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B123" s="117"/>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B124" s="117"/>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B125" s="117"/>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B126" s="117"/>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B127" s="117"/>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B128" s="117"/>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B129" s="117"/>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B130" s="117"/>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B131" s="117"/>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B132" s="117"/>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B133" s="117"/>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B134" s="117"/>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B135" s="117"/>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B136" s="117"/>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B137" s="117"/>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B138" s="117"/>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B139" s="117"/>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B140" s="117"/>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B141" s="117"/>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B142" s="117"/>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B143" s="117"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/nodes_source_analyses/transport/transport_truck_using_electricity.converter.xlsx
+++ b/nodes_source_analyses/transport/transport_truck_using_electricity.converter.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/nodes_source_analyses/transport/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/transport/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C58F19A-E30F-0247-90D0-EFDB64DC7D60}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="26900" tabRatio="762" activeTab="4"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="26820" tabRatio="762" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -36,7 +37,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="115">
   <si>
     <t>Source</t>
   </si>
@@ -244,40 +245,10 @@
     <t>network_capacity_available_in_mw</t>
   </si>
   <si>
-    <t>peak_load_units_present</t>
-  </si>
-  <si>
     <t>part_load_operating_point</t>
   </si>
   <si>
     <t>network_capacity_used_in_mw</t>
-  </si>
-  <si>
-    <t>simult_sd</t>
-  </si>
-  <si>
-    <t>simult_se</t>
-  </si>
-  <si>
-    <t>simult_wd</t>
-  </si>
-  <si>
-    <t>simult_we</t>
-  </si>
-  <si>
-    <t>Probability that two peaks fall in the same time in the summer day</t>
-  </si>
-  <si>
-    <t>Probability that two peaks fal in the same time in the summer evining</t>
-  </si>
-  <si>
-    <t>Probability that two peaks fall in the same time in the winter day</t>
-  </si>
-  <si>
-    <t>Probability that two peaks fall in the same time in the winter evining</t>
-  </si>
-  <si>
-    <t>The number of units for the present year</t>
   </si>
   <si>
     <t>http://www.theicct.org/sites/default/files/publications/CE_Delft_4841_Zero_emissions_trucks_Def.pdf</t>
@@ -496,17 +467,24 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="37">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1039,451 +1017,448 @@
   </borders>
   <cellStyleXfs count="244">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="24" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="23" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="22" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="23" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="1" fontId="22" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="23" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="22" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="23" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="23" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="27" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="24" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="177" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="177" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="35" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="32" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="34" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="244">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1737,6 +1712,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1758,7 +1736,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1796,7 +1780,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1834,7 +1824,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1871,7 +1867,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1909,7 +1911,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1947,7 +1955,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1985,7 +1999,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2023,7 +2043,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2061,7 +2087,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2521,8 +2553,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1">
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A1:C23"/>
@@ -2531,7 +2563,7 @@
       <selection activeCell="J27" sqref="A1:J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.1640625" style="24" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="16" customWidth="1"/>
@@ -2539,24 +2571,24 @@
     <col min="4" max="16384" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="22" customFormat="1">
       <c r="A1" s="20"/>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="23"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
@@ -2565,7 +2597,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>28</v>
@@ -2574,7 +2606,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>14</v>
@@ -2583,29 +2615,29 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="1"/>
       <c r="B9" s="59" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="60"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="1"/>
       <c r="B10" s="61"/>
       <c r="C10" s="62"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="1"/>
       <c r="B11" s="61" t="s">
         <v>31</v>
@@ -2614,33 +2646,33 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="17" thickBot="1">
       <c r="A12" s="1"/>
       <c r="B12" s="61"/>
       <c r="C12" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="17" thickBot="1">
       <c r="A13" s="1"/>
       <c r="B13" s="61"/>
       <c r="C13" s="64" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="1"/>
       <c r="B14" s="61"/>
       <c r="C14" s="62" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="1"/>
       <c r="B15" s="61"/>
       <c r="C15" s="62"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="1"/>
       <c r="B16" s="61" t="s">
         <v>36</v>
@@ -2649,49 +2681,49 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="B17" s="61"/>
       <c r="C17" s="66" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="B18" s="61"/>
       <c r="C18" s="67" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="B19" s="61"/>
       <c r="C19" s="68" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="B20" s="69"/>
       <c r="C20" s="70" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="1"/>
       <c r="B21" s="69"/>
       <c r="C21" s="71" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="1"/>
       <c r="B22" s="69"/>
       <c r="C22" s="72" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="B23" s="69"/>
       <c r="C23" s="73" t="s">
         <v>44</v>
@@ -2704,17 +2736,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K34"/>
+  <dimension ref="B1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:D11"/>
+      <selection activeCell="A20" sqref="A20:XFD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.1640625" style="29" customWidth="1"/>
     <col min="2" max="2" width="3.5" style="29" customWidth="1"/>
@@ -2729,15 +2761,15 @@
     <col min="11" max="16384" width="10.83203125" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:10">
       <c r="D1" s="30"/>
       <c r="E1" s="30"/>
       <c r="F1" s="30"/>
       <c r="G1" s="30"/>
     </row>
-    <row r="2" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" ht="16" customHeight="1">
       <c r="B2" s="134" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C2" s="135"/>
       <c r="D2" s="135"/>
@@ -2745,7 +2777,7 @@
       <c r="F2" s="135"/>
       <c r="G2" s="135"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10">
       <c r="B3" s="134"/>
       <c r="C3" s="135"/>
       <c r="D3" s="135"/>
@@ -2753,7 +2785,7 @@
       <c r="F3" s="135"/>
       <c r="G3" s="135"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10">
       <c r="B4" s="134"/>
       <c r="C4" s="135"/>
       <c r="D4" s="135"/>
@@ -2761,7 +2793,7 @@
       <c r="F4" s="135"/>
       <c r="G4" s="135"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10">
       <c r="B5" s="134"/>
       <c r="C5" s="135"/>
       <c r="D5" s="135"/>
@@ -2769,10 +2801,10 @@
       <c r="F5" s="135"/>
       <c r="G5" s="135"/>
     </row>
-    <row r="6" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="17" thickBot="1">
       <c r="D6" s="30"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10">
       <c r="B7" s="31"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
@@ -2783,7 +2815,7 @@
       <c r="I7" s="14"/>
       <c r="J7" s="32"/>
     </row>
-    <row r="8" spans="2:10" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" s="19" customFormat="1">
       <c r="B8" s="74"/>
       <c r="C8" s="75" t="s">
         <v>20</v>
@@ -2804,7 +2836,7 @@
       </c>
       <c r="J8" s="77"/>
     </row>
-    <row r="9" spans="2:10" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" s="19" customFormat="1">
       <c r="B9" s="18"/>
       <c r="C9" s="12"/>
       <c r="D9" s="26"/>
@@ -2815,7 +2847,7 @@
       <c r="I9" s="12"/>
       <c r="J9" s="13"/>
     </row>
-    <row r="10" spans="2:10" s="19" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" s="19" customFormat="1" ht="17" thickBot="1">
       <c r="B10" s="18"/>
       <c r="C10" s="12" t="s">
         <v>45</v>
@@ -2828,29 +2860,29 @@
       <c r="I10" s="12"/>
       <c r="J10" s="13"/>
     </row>
-    <row r="11" spans="2:10" s="19" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" s="19" customFormat="1" ht="17" thickBot="1">
       <c r="B11" s="18"/>
-      <c r="C11" s="119" t="s">
-        <v>94</v>
+      <c r="C11" s="116" t="s">
+        <v>84</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E11" s="28">
         <f>'Research data'!E7</f>
         <v>1.1075069559277897</v>
       </c>
       <c r="F11" s="33"/>
-      <c r="G11" s="125" t="s">
-        <v>91</v>
+      <c r="G11" s="122" t="s">
+        <v>81</v>
       </c>
       <c r="H11" s="25"/>
-      <c r="I11" s="104" t="s">
-        <v>73</v>
+      <c r="I11" s="101" t="s">
+        <v>63</v>
       </c>
       <c r="J11" s="13"/>
     </row>
-    <row r="12" spans="2:10" s="19" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" s="19" customFormat="1" ht="17" thickBot="1">
       <c r="B12" s="18"/>
       <c r="C12" s="85" t="s">
         <v>51</v>
@@ -2869,7 +2901,7 @@
       </c>
       <c r="J12" s="13"/>
     </row>
-    <row r="13" spans="2:10" s="19" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" s="19" customFormat="1" ht="17" thickBot="1">
       <c r="B13" s="18"/>
       <c r="C13" s="85" t="s">
         <v>52</v>
@@ -2888,7 +2920,7 @@
       </c>
       <c r="J13" s="13"/>
     </row>
-    <row r="14" spans="2:10" s="19" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" s="19" customFormat="1" ht="17" thickBot="1">
       <c r="B14" s="18"/>
       <c r="C14" s="85" t="s">
         <v>53</v>
@@ -2907,7 +2939,7 @@
       </c>
       <c r="J14" s="13"/>
     </row>
-    <row r="15" spans="2:10" s="19" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" s="19" customFormat="1" ht="17" thickBot="1">
       <c r="B15" s="18"/>
       <c r="C15" s="85" t="s">
         <v>54</v>
@@ -2926,10 +2958,10 @@
       </c>
       <c r="J15" s="13"/>
     </row>
-    <row r="16" spans="2:10" s="19" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" s="19" customFormat="1" ht="17" thickBot="1">
       <c r="B16" s="18"/>
       <c r="C16" s="85" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>2</v>
@@ -2945,7 +2977,7 @@
       </c>
       <c r="J16" s="13"/>
     </row>
-    <row r="17" spans="2:11" s="19" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" s="19" customFormat="1" ht="17" thickBot="1">
       <c r="B17" s="18"/>
       <c r="C17" s="85" t="s">
         <v>55</v>
@@ -2964,7 +2996,7 @@
       </c>
       <c r="J17" s="13"/>
     </row>
-    <row r="18" spans="2:11" s="19" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" s="19" customFormat="1" ht="17" thickBot="1">
       <c r="B18" s="18"/>
       <c r="C18" s="85" t="s">
         <v>56</v>
@@ -2983,10 +3015,10 @@
       </c>
       <c r="J18" s="13"/>
     </row>
-    <row r="19" spans="2:11" s="19" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" s="19" customFormat="1" ht="17" thickBot="1">
       <c r="B19" s="18"/>
       <c r="C19" s="85" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>2</v>
@@ -3002,187 +3034,83 @@
       </c>
       <c r="J19" s="13"/>
     </row>
-    <row r="20" spans="2:11" s="19" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="18"/>
-      <c r="C20" s="85" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="15" t="s">
+    <row r="20" spans="2:10">
+      <c r="B20" s="34"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="81"/>
+    </row>
+    <row r="21" spans="2:10" ht="17" thickBot="1">
+      <c r="B21" s="34"/>
+      <c r="C21" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="78"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="81"/>
+    </row>
+    <row r="22" spans="2:10" ht="17" thickBot="1">
+      <c r="B22" s="34"/>
+      <c r="C22" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="35">
+        <f>'Research data'!E10</f>
+        <v>12</v>
+      </c>
+      <c r="F22" s="33"/>
+      <c r="G22" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="33"/>
+      <c r="I22" s="108" t="s">
+        <v>61</v>
+      </c>
+      <c r="J22" s="81"/>
+    </row>
+    <row r="23" spans="2:10" ht="17" thickBot="1">
+      <c r="B23" s="34"/>
+      <c r="C23" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="86">
+      <c r="E23" s="35">
         <v>0</v>
       </c>
-      <c r="F20" s="33"/>
-      <c r="G20" s="88" t="s">
-        <v>64</v>
-      </c>
-      <c r="H20" s="25"/>
-      <c r="I20" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="J20" s="13"/>
-    </row>
-    <row r="21" spans="2:11" s="19" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="18"/>
-      <c r="C21" s="85" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" s="86">
-        <v>0.25</v>
-      </c>
-      <c r="F21" s="33"/>
-      <c r="G21" s="88" t="s">
-        <v>65</v>
-      </c>
-      <c r="H21" s="25"/>
-      <c r="I21" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="J21" s="13"/>
-    </row>
-    <row r="22" spans="2:11" s="19" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="18"/>
-      <c r="C22" s="85" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" s="86">
-        <v>0</v>
-      </c>
-      <c r="F22" s="33"/>
-      <c r="G22" s="88" t="s">
-        <v>66</v>
-      </c>
-      <c r="H22" s="25"/>
-      <c r="I22" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="J22" s="13"/>
-    </row>
-    <row r="23" spans="2:11" s="19" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="18"/>
-      <c r="C23" s="85" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="87">
-        <v>0.25</v>
-      </c>
       <c r="F23" s="33"/>
-      <c r="G23" s="88" t="s">
-        <v>67</v>
-      </c>
-      <c r="H23" s="25"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
       <c r="I23" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="J23" s="13"/>
-    </row>
-    <row r="24" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="34"/>
-      <c r="C24" s="85" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" s="87">
-        <v>0</v>
-      </c>
-      <c r="F24" s="33"/>
-      <c r="G24" s="89" t="s">
-        <v>68</v>
-      </c>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="81"/>
-      <c r="K24" s="30"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="34"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="81"/>
-    </row>
-    <row r="26" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="34"/>
-      <c r="C26" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="78"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="81"/>
-    </row>
-    <row r="27" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="34"/>
-      <c r="C27" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="35">
-        <f>'Research data'!E10</f>
-        <v>12</v>
-      </c>
-      <c r="F27" s="33"/>
-      <c r="G27" s="57" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27" s="33"/>
-      <c r="I27" s="111" t="s">
-        <v>71</v>
-      </c>
-      <c r="J27" s="81"/>
-    </row>
-    <row r="28" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="34"/>
-      <c r="C28" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" s="35">
-        <v>0</v>
-      </c>
-      <c r="F28" s="33"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="J28" s="81"/>
-    </row>
-    <row r="29" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="36"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="38"/>
-    </row>
-    <row r="34" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="J23" s="81"/>
+    </row>
+    <row r="24" spans="2:10" ht="17" thickBot="1">
+      <c r="B24" s="36"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="38"/>
+    </row>
+    <row r="29" spans="2:10" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:G5"/>
@@ -3193,17 +3121,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B2:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="4.5" style="39" customWidth="1"/>
     <col min="3" max="3" width="33.1640625" style="39" customWidth="1"/>
@@ -3218,8 +3146,8 @@
     <col min="12" max="16384" width="10.83203125" style="39"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" ht="17" thickBot="1"/>
+    <row r="3" spans="2:11">
       <c r="B3" s="40"/>
       <c r="C3" s="41"/>
       <c r="D3" s="41"/>
@@ -3231,7 +3159,7 @@
       <c r="J3" s="41"/>
       <c r="K3" s="41"/>
     </row>
-    <row r="4" spans="2:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11" s="19" customFormat="1">
       <c r="B4" s="18"/>
       <c r="C4" s="84" t="s">
         <v>46</v>
@@ -3244,18 +3172,18 @@
       </c>
       <c r="F4" s="84"/>
       <c r="G4" s="84" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="H4" s="84"/>
       <c r="I4" s="84" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="J4" s="84"/>
       <c r="K4" s="84" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="18" customHeight="1">
       <c r="B5" s="42"/>
       <c r="C5" s="48"/>
       <c r="D5" s="43"/>
@@ -3264,7 +3192,7 @@
       <c r="G5" s="46"/>
       <c r="K5" s="54"/>
     </row>
-    <row r="6" spans="2:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="18" customHeight="1" thickBot="1">
       <c r="B6" s="42"/>
       <c r="C6" s="11" t="s">
         <v>45</v>
@@ -3277,29 +3205,29 @@
       <c r="J6" s="43"/>
       <c r="K6" s="53"/>
     </row>
-    <row r="7" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" ht="17" thickBot="1">
       <c r="B7" s="42"/>
-      <c r="C7" s="121" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="122" t="s">
-        <v>95</v>
-      </c>
-      <c r="E7" s="124">
+      <c r="C7" s="118" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="119" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="121">
         <f>I7</f>
         <v>1.1075069559277897</v>
       </c>
       <c r="F7" s="46"/>
-      <c r="G7" s="110"/>
+      <c r="G7" s="107"/>
       <c r="H7" s="43"/>
-      <c r="I7" s="124">
+      <c r="I7" s="121">
         <f>Notes!E94</f>
         <v>1.1075069559277897</v>
       </c>
       <c r="J7" s="43"/>
       <c r="K7" s="56"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11">
       <c r="B8" s="42"/>
       <c r="C8" s="48"/>
       <c r="D8" s="43"/>
@@ -3308,7 +3236,7 @@
       <c r="G8" s="46"/>
       <c r="K8" s="54"/>
     </row>
-    <row r="9" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" ht="17" thickBot="1">
       <c r="B9" s="42"/>
       <c r="C9" s="11" t="s">
         <v>5</v>
@@ -3322,7 +3250,7 @@
       <c r="J9" s="43"/>
       <c r="K9" s="53"/>
     </row>
-    <row r="10" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" ht="17" thickBot="1">
       <c r="B10" s="42"/>
       <c r="C10" s="49" t="s">
         <v>3</v>
@@ -3335,7 +3263,7 @@
         <v>12</v>
       </c>
       <c r="F10" s="46"/>
-      <c r="G10" s="110"/>
+      <c r="G10" s="107"/>
       <c r="H10" s="43"/>
       <c r="I10" s="50">
         <f>Notes!C12</f>
@@ -3344,7 +3272,7 @@
       <c r="J10" s="43"/>
       <c r="K10" s="56"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11">
       <c r="B11" s="42"/>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
@@ -3356,7 +3284,7 @@
       <c r="J11" s="43"/>
       <c r="K11" s="45"/>
     </row>
-    <row r="12" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="17" thickBot="1">
       <c r="C12" s="11" t="s">
         <v>47</v>
       </c>
@@ -3369,7 +3297,7 @@
       <c r="J12" s="43"/>
       <c r="K12" s="58"/>
     </row>
-    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="17" thickBot="1">
       <c r="C13" s="83" t="s">
         <v>48</v>
       </c>
@@ -3381,7 +3309,7 @@
         <v>184310.5</v>
       </c>
       <c r="F13" s="10"/>
-      <c r="G13" s="108">
+      <c r="G13" s="105">
         <f>Notes!C47</f>
         <v>200621</v>
       </c>
@@ -3391,12 +3319,12 @@
         <v>168000</v>
       </c>
       <c r="J13" s="46"/>
-      <c r="K13" s="106" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="105" t="s">
+      <c r="K13" s="103" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="17" thickBot="1">
+      <c r="C14" s="102" t="s">
         <v>49</v>
       </c>
       <c r="D14" s="82" t="s">
@@ -3407,15 +3335,15 @@
         <v>2600</v>
       </c>
       <c r="F14" s="52"/>
-      <c r="G14" s="107">
+      <c r="G14" s="104">
         <f>Notes!C54+Notes!C55</f>
         <v>2600</v>
       </c>
       <c r="H14" s="43"/>
       <c r="I14" s="46"/>
       <c r="J14" s="46"/>
-      <c r="K14" s="106" t="s">
-        <v>75</v>
+      <c r="K14" s="103" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3425,8 +3353,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="A1:J18"/>
@@ -3435,33 +3363,33 @@
       <selection activeCell="A15" sqref="A15:J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="90" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" style="90" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="90" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" style="90" customWidth="1"/>
-    <col min="6" max="7" width="13.1640625" style="90" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="91" customWidth="1"/>
-    <col min="9" max="9" width="31.5" style="91" customWidth="1"/>
-    <col min="10" max="10" width="98.5" style="90" customWidth="1"/>
-    <col min="11" max="16384" width="33.1640625" style="90"/>
+    <col min="1" max="2" width="3.5" style="87" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" style="87" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="87" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="87" customWidth="1"/>
+    <col min="6" max="7" width="13.1640625" style="87" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="88" customWidth="1"/>
+    <col min="9" max="9" width="31.5" style="88" customWidth="1"/>
+    <col min="10" max="10" width="98.5" style="87" customWidth="1"/>
+    <col min="11" max="16384" width="33.1640625" style="87"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="92"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="93"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="95"/>
+    <row r="1" spans="1:10" ht="17" thickBot="1"/>
+    <row r="2" spans="1:10">
+      <c r="B2" s="89"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="90"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3" s="92"/>
       <c r="C3" s="12" t="s">
         <v>16</v>
       </c>
@@ -3469,23 +3397,23 @@
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="97"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="95"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="97"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="99"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="94"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" s="92"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="94"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" s="96"/>
       <c r="C5" s="75" t="s">
         <v>17</v>
       </c>
@@ -3499,235 +3427,235 @@
         <v>18</v>
       </c>
       <c r="G5" s="75" t="s">
-        <v>81</v>
-      </c>
-      <c r="H5" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="100" t="s">
-        <v>85</v>
+      <c r="I5" s="97" t="s">
+        <v>75</v>
       </c>
       <c r="J5" s="75" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="95"/>
+    <row r="6" spans="1:10">
+      <c r="B6" s="92"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="93"/>
       <c r="J6" s="12"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="95"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="113" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="97" t="s">
+    <row r="7" spans="1:10">
+      <c r="B7" s="92"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="110" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="97">
+      <c r="F7" s="94">
         <v>2013</v>
       </c>
-      <c r="G7" s="97">
+      <c r="G7" s="94">
         <v>2012</v>
       </c>
-      <c r="H7" s="102"/>
-      <c r="I7" s="118" t="s">
+      <c r="H7" s="99"/>
+      <c r="I7" s="115" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" s="111" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="92"/>
+      <c r="C8" s="100" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="94"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="92"/>
+      <c r="C9" s="98" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="94"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" s="92"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="94"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" s="92"/>
+      <c r="C11" s="120" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="110" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="94" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="94">
+        <v>2013</v>
+      </c>
+      <c r="G11" s="94">
+        <v>2012</v>
+      </c>
+      <c r="H11" s="94"/>
+      <c r="I11" s="115" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" s="110" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="92"/>
+      <c r="C12" s="98" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="92"/>
+      <c r="C13" s="106" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="94"/>
+    </row>
+    <row r="15" spans="1:10" s="123" customFormat="1">
+      <c r="A15" s="131"/>
+      <c r="B15" s="131"/>
+      <c r="C15" s="131" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="131" t="s">
         <v>86</v>
       </c>
-      <c r="J7" s="114" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="95"/>
-      <c r="C8" s="103" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="102"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="97"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="95"/>
-      <c r="C9" s="101" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="97"/>
-      <c r="I9" s="97"/>
-      <c r="J9" s="97"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="95"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="97"/>
-      <c r="J10" s="97"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="95"/>
-      <c r="C11" s="123" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" s="113" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="97" t="s">
+      <c r="E15" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="97">
-        <v>2013</v>
-      </c>
-      <c r="G11" s="97">
-        <v>2012</v>
-      </c>
-      <c r="H11" s="97"/>
-      <c r="I11" s="118" t="s">
+      <c r="F15" s="131"/>
+      <c r="G15" s="131">
+        <v>2015</v>
+      </c>
+      <c r="H15" s="132" t="s">
         <v>87</v>
       </c>
-      <c r="J11" s="113" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="95"/>
-      <c r="C12" s="101" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="97"/>
-      <c r="J12" s="97"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="95"/>
-      <c r="C13" s="109" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="97"/>
-    </row>
-    <row r="15" spans="1:10" s="126" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="136"/>
-      <c r="B15" s="136"/>
-      <c r="C15" s="136" t="s">
-        <v>105</v>
-      </c>
-      <c r="D15" s="136" t="s">
+      <c r="I15" s="132" t="s">
+        <v>88</v>
+      </c>
+      <c r="J15" s="132"/>
+    </row>
+    <row r="16" spans="1:10" s="123" customFormat="1">
+      <c r="A16" s="131"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="131" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="136" t="s">
+      <c r="D16" s="131" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="136"/>
-      <c r="G15" s="136">
+      <c r="F16" s="131"/>
+      <c r="G16" s="131">
         <v>2015</v>
       </c>
-      <c r="H15" s="137" t="s">
+      <c r="H16" s="132" t="s">
+        <v>87</v>
+      </c>
+      <c r="I16" s="132" t="s">
+        <v>88</v>
+      </c>
+      <c r="J16" s="132"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="131"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="131" t="s">
         <v>97</v>
       </c>
-      <c r="I15" s="137" t="s">
+      <c r="D17" s="131" t="s">
         <v>98</v>
       </c>
-      <c r="J15" s="137"/>
-    </row>
-    <row r="16" spans="1:10" s="126" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="136"/>
-      <c r="B16" s="136"/>
-      <c r="C16" s="136" t="s">
-        <v>106</v>
-      </c>
-      <c r="D16" s="136" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" s="136" t="s">
+      <c r="E17" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="136"/>
-      <c r="G16" s="136">
-        <v>2015</v>
-      </c>
-      <c r="H16" s="137" t="s">
-        <v>97</v>
-      </c>
-      <c r="I16" s="137" t="s">
+      <c r="F17" s="131"/>
+      <c r="G17" s="131">
+        <v>2016</v>
+      </c>
+      <c r="H17" s="132" t="s">
+        <v>87</v>
+      </c>
+      <c r="I17" s="132" t="s">
+        <v>99</v>
+      </c>
+      <c r="J17" s="132"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="131"/>
+      <c r="B18" s="131"/>
+      <c r="C18" s="131" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" s="131" t="s">
         <v>98</v>
       </c>
-      <c r="J16" s="137"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="136"/>
-      <c r="B17" s="136"/>
-      <c r="C17" s="136" t="s">
-        <v>107</v>
-      </c>
-      <c r="D17" s="136" t="s">
-        <v>108</v>
-      </c>
-      <c r="E17" s="136" t="s">
+      <c r="E18" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="136"/>
-      <c r="G17" s="136">
+      <c r="F18" s="131"/>
+      <c r="G18" s="131">
         <v>2016</v>
       </c>
-      <c r="H17" s="137" t="s">
-        <v>97</v>
-      </c>
-      <c r="I17" s="137" t="s">
-        <v>109</v>
-      </c>
-      <c r="J17" s="137"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="136"/>
-      <c r="B18" s="136"/>
-      <c r="C18" s="136" t="s">
-        <v>110</v>
-      </c>
-      <c r="D18" s="136" t="s">
-        <v>108</v>
-      </c>
-      <c r="E18" s="136" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="136"/>
-      <c r="G18" s="136">
-        <v>2016</v>
-      </c>
-      <c r="H18" s="137" t="s">
-        <v>97</v>
-      </c>
-      <c r="I18" s="137" t="s">
-        <v>111</v>
-      </c>
-      <c r="J18" s="137"/>
+      <c r="H18" s="132" t="s">
+        <v>87</v>
+      </c>
+      <c r="I18" s="132" t="s">
+        <v>101</v>
+      </c>
+      <c r="J18" s="132"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3736,45 +3664,45 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:K143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="5.5" style="112" customWidth="1"/>
-    <col min="2" max="2" width="4.5" style="112" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="112" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="112"/>
-    <col min="5" max="5" width="17.6640625" style="112" customWidth="1"/>
-    <col min="6" max="10" width="10.83203125" style="112"/>
-    <col min="11" max="11" width="10" style="112" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="112"/>
+    <col min="1" max="1" width="5.5" style="109" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="109" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="109" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="109"/>
+    <col min="5" max="5" width="17.6640625" style="109" customWidth="1"/>
+    <col min="6" max="10" width="10.83203125" style="109"/>
+    <col min="11" max="11" width="10" style="109" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="109"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="115"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-    </row>
-    <row r="3" spans="2:11" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" ht="17" thickBot="1"/>
+    <row r="2" spans="2:11">
+      <c r="B2" s="112"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+    </row>
+    <row r="3" spans="2:11" s="19" customFormat="1">
       <c r="B3" s="74"/>
       <c r="C3" s="75" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="75" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E3" s="75"/>
       <c r="F3" s="75"/>
@@ -3784,1155 +3712,1155 @@
       <c r="J3" s="75"/>
       <c r="K3" s="75"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="117"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="113"/>
-      <c r="K4" s="113"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="117"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="113"/>
-      <c r="K5" s="113"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="117"/>
-      <c r="C6" s="113" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="113"/>
-      <c r="K6" s="113"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="117"/>
-      <c r="C7" s="113" t="s">
+    <row r="4" spans="2:11">
+      <c r="B4" s="114"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="110"/>
+      <c r="G4" s="110"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="114"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="110"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="114"/>
+      <c r="C6" s="110" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="110"/>
+      <c r="E6" s="110"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="110"/>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="114"/>
+      <c r="C7" s="110" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="114"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="114"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="110"/>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" s="114"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
+      <c r="K10" s="110"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="114"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="110"/>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="114"/>
+      <c r="C12" s="110">
+        <v>12</v>
+      </c>
+      <c r="D12" s="110" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="110"/>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="114"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="110"/>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="114"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="110"/>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="114"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="110"/>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="114"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="110"/>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" s="114"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="110"/>
+      <c r="I17" s="110"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="110"/>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" s="114"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="110"/>
+      <c r="J18" s="110"/>
+      <c r="K18" s="110"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="114"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="110"/>
+      <c r="K19" s="110"/>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="114"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="110"/>
+      <c r="I20" s="110"/>
+      <c r="J20" s="110"/>
+      <c r="K20" s="110"/>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="114"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="110"/>
+      <c r="J21" s="110"/>
+      <c r="K21" s="110"/>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="114"/>
+      <c r="C22" s="110" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="110"/>
+      <c r="I22" s="110"/>
+      <c r="J22" s="110"/>
+      <c r="K22" s="110"/>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="114"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="110"/>
+      <c r="I23" s="110"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="110"/>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="114"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="110"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="110"/>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="114"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="110"/>
+      <c r="I25" s="110"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="110"/>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="114"/>
+      <c r="C26" s="110"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="110"/>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="114"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="110"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="110"/>
+      <c r="I27" s="110"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="110"/>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="114"/>
+      <c r="C28" s="110"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="110"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="110"/>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" s="114"/>
+      <c r="C29" s="110">
+        <v>168000</v>
+      </c>
+      <c r="D29" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="110"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="110"/>
+      <c r="H29" s="110"/>
+      <c r="I29" s="110"/>
+      <c r="J29" s="110"/>
+      <c r="K29" s="110"/>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="114"/>
+      <c r="C30" s="110"/>
+      <c r="D30" s="110"/>
+      <c r="E30" s="110"/>
+      <c r="F30" s="110"/>
+      <c r="G30" s="110"/>
+      <c r="H30" s="110"/>
+      <c r="I30" s="110"/>
+      <c r="J30" s="110"/>
+      <c r="K30" s="110"/>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" s="114"/>
+      <c r="C31" s="110"/>
+      <c r="D31" s="110"/>
+      <c r="E31" s="110"/>
+      <c r="F31" s="110"/>
+      <c r="G31" s="110"/>
+      <c r="H31" s="110"/>
+      <c r="I31" s="110"/>
+      <c r="J31" s="110"/>
+      <c r="K31" s="110"/>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" s="114"/>
+      <c r="C32" s="110"/>
+      <c r="D32" s="110"/>
+      <c r="E32" s="110"/>
+      <c r="F32" s="110"/>
+      <c r="G32" s="110"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="110"/>
+      <c r="J32" s="110"/>
+      <c r="K32" s="110"/>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33" s="114"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="110"/>
+      <c r="F33" s="110"/>
+      <c r="G33" s="110"/>
+      <c r="H33" s="110"/>
+      <c r="I33" s="110"/>
+      <c r="J33" s="110"/>
+      <c r="K33" s="110"/>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34" s="114"/>
+      <c r="C34" s="110"/>
+      <c r="D34" s="110"/>
+      <c r="E34" s="110"/>
+      <c r="F34" s="110"/>
+      <c r="G34" s="110"/>
+      <c r="H34" s="110"/>
+      <c r="I34" s="110"/>
+      <c r="J34" s="110"/>
+      <c r="K34" s="110"/>
+    </row>
+    <row r="35" spans="2:11">
+      <c r="B35" s="114"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="110"/>
+      <c r="F35" s="110"/>
+      <c r="G35" s="110"/>
+      <c r="H35" s="110"/>
+      <c r="I35" s="110"/>
+      <c r="J35" s="110"/>
+      <c r="K35" s="110"/>
+    </row>
+    <row r="36" spans="2:11">
+      <c r="B36" s="114"/>
+      <c r="C36" s="110"/>
+      <c r="D36" s="110"/>
+      <c r="E36" s="110"/>
+      <c r="F36" s="110"/>
+      <c r="G36" s="110"/>
+      <c r="H36" s="110"/>
+      <c r="I36" s="110"/>
+      <c r="J36" s="110"/>
+      <c r="K36" s="110"/>
+    </row>
+    <row r="37" spans="2:11">
+      <c r="B37" s="114"/>
+      <c r="C37" s="110"/>
+      <c r="D37" s="110"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="110"/>
+      <c r="G37" s="110"/>
+      <c r="H37" s="110"/>
+      <c r="I37" s="110"/>
+      <c r="J37" s="110"/>
+      <c r="K37" s="110"/>
+    </row>
+    <row r="38" spans="2:11">
+      <c r="B38" s="114"/>
+      <c r="C38" s="110"/>
+      <c r="D38" s="110"/>
+      <c r="E38" s="110"/>
+      <c r="F38" s="110"/>
+      <c r="G38" s="110"/>
+      <c r="H38" s="110"/>
+      <c r="I38" s="110"/>
+      <c r="J38" s="110"/>
+      <c r="K38" s="110"/>
+    </row>
+    <row r="39" spans="2:11">
+      <c r="B39" s="114"/>
+      <c r="C39" s="110"/>
+      <c r="D39" s="110"/>
+      <c r="E39" s="110"/>
+      <c r="F39" s="110"/>
+      <c r="G39" s="110"/>
+      <c r="H39" s="110"/>
+      <c r="I39" s="110"/>
+      <c r="J39" s="110"/>
+      <c r="K39" s="110"/>
+    </row>
+    <row r="40" spans="2:11">
+      <c r="B40" s="114"/>
+      <c r="C40" s="110"/>
+      <c r="D40" s="110"/>
+      <c r="E40" s="110"/>
+      <c r="F40" s="110"/>
+      <c r="G40" s="110"/>
+      <c r="H40" s="110"/>
+      <c r="I40" s="110"/>
+      <c r="J40" s="110"/>
+      <c r="K40" s="110"/>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="B41" s="114"/>
+      <c r="C41" s="110" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="110"/>
+      <c r="E41" s="110"/>
+      <c r="F41" s="110"/>
+      <c r="G41" s="110"/>
+      <c r="H41" s="110"/>
+      <c r="I41" s="110"/>
+      <c r="J41" s="110"/>
+      <c r="K41" s="110"/>
+    </row>
+    <row r="42" spans="2:11">
+      <c r="B42" s="114"/>
+      <c r="C42" s="110" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="110"/>
+      <c r="E42" s="110"/>
+      <c r="F42" s="110"/>
+      <c r="G42" s="110"/>
+      <c r="H42" s="110"/>
+      <c r="I42" s="110"/>
+      <c r="J42" s="110"/>
+      <c r="K42" s="110"/>
+    </row>
+    <row r="43" spans="2:11">
+      <c r="B43" s="114"/>
+      <c r="C43" s="110"/>
+      <c r="D43" s="110"/>
+      <c r="E43" s="110"/>
+      <c r="F43" s="110"/>
+      <c r="G43" s="110"/>
+      <c r="H43" s="110"/>
+      <c r="I43" s="110"/>
+      <c r="J43" s="110"/>
+      <c r="K43" s="110"/>
+    </row>
+    <row r="44" spans="2:11">
+      <c r="B44" s="114"/>
+      <c r="C44" s="110"/>
+      <c r="D44" s="110"/>
+      <c r="E44" s="110"/>
+      <c r="F44" s="110"/>
+      <c r="G44" s="110"/>
+      <c r="H44" s="110"/>
+      <c r="I44" s="110"/>
+      <c r="J44" s="110"/>
+      <c r="K44" s="110"/>
+    </row>
+    <row r="45" spans="2:11">
+      <c r="B45" s="114"/>
+      <c r="C45" s="110"/>
+      <c r="D45" s="110"/>
+      <c r="E45" s="110"/>
+      <c r="F45" s="110"/>
+      <c r="G45" s="110"/>
+      <c r="H45" s="110"/>
+      <c r="I45" s="110"/>
+      <c r="J45" s="110"/>
+      <c r="K45" s="110"/>
+    </row>
+    <row r="46" spans="2:11">
+      <c r="B46" s="114"/>
+      <c r="C46" s="110"/>
+      <c r="D46" s="110"/>
+      <c r="E46" s="110"/>
+      <c r="F46" s="110"/>
+      <c r="G46" s="110"/>
+      <c r="H46" s="110"/>
+      <c r="I46" s="110"/>
+      <c r="J46" s="110"/>
+      <c r="K46" s="110"/>
+    </row>
+    <row r="47" spans="2:11">
+      <c r="B47" s="114"/>
+      <c r="C47" s="110">
+        <v>200621</v>
+      </c>
+      <c r="D47" s="110" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="110"/>
+      <c r="F47" s="110"/>
+      <c r="G47" s="110"/>
+      <c r="H47" s="110"/>
+      <c r="I47" s="110"/>
+      <c r="J47" s="110"/>
+      <c r="K47" s="110"/>
+    </row>
+    <row r="48" spans="2:11">
+      <c r="B48" s="114"/>
+      <c r="C48" s="110"/>
+      <c r="D48" s="110"/>
+      <c r="E48" s="110"/>
+      <c r="F48" s="110"/>
+      <c r="G48" s="110"/>
+      <c r="H48" s="110"/>
+      <c r="I48" s="110"/>
+      <c r="J48" s="110"/>
+      <c r="K48" s="110"/>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49" s="114"/>
+      <c r="C49" s="110"/>
+      <c r="D49" s="110"/>
+      <c r="E49" s="110"/>
+      <c r="F49" s="110"/>
+      <c r="G49" s="110"/>
+      <c r="H49" s="110"/>
+      <c r="I49" s="110"/>
+      <c r="J49" s="110"/>
+      <c r="K49" s="110"/>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="B50" s="114"/>
+      <c r="C50" s="110"/>
+      <c r="D50" s="110"/>
+      <c r="E50" s="110"/>
+      <c r="F50" s="110"/>
+      <c r="G50" s="110"/>
+      <c r="H50" s="110"/>
+      <c r="I50" s="110"/>
+      <c r="J50" s="110"/>
+      <c r="K50" s="110"/>
+    </row>
+    <row r="51" spans="2:11">
+      <c r="B51" s="114"/>
+      <c r="C51" s="110"/>
+      <c r="D51" s="110"/>
+      <c r="E51" s="110"/>
+      <c r="F51" s="110"/>
+      <c r="G51" s="110"/>
+      <c r="H51" s="110"/>
+      <c r="I51" s="110"/>
+      <c r="J51" s="110"/>
+      <c r="K51" s="110"/>
+    </row>
+    <row r="52" spans="2:11">
+      <c r="B52" s="114"/>
+      <c r="C52" s="110"/>
+      <c r="D52" s="110"/>
+      <c r="E52" s="110"/>
+      <c r="F52" s="110"/>
+      <c r="G52" s="110"/>
+      <c r="H52" s="110"/>
+      <c r="I52" s="110"/>
+      <c r="J52" s="110"/>
+      <c r="K52" s="110"/>
+    </row>
+    <row r="53" spans="2:11">
+      <c r="B53" s="114"/>
+      <c r="C53" s="110"/>
+      <c r="D53" s="110"/>
+      <c r="E53" s="110"/>
+      <c r="F53" s="110"/>
+      <c r="G53" s="110"/>
+      <c r="H53" s="110"/>
+      <c r="I53" s="110"/>
+      <c r="J53" s="110"/>
+      <c r="K53" s="110"/>
+    </row>
+    <row r="54" spans="2:11">
+      <c r="B54" s="114"/>
+      <c r="C54" s="110">
+        <v>2080</v>
+      </c>
+      <c r="D54" s="110" t="s">
+        <v>74</v>
+      </c>
+      <c r="E54" s="110"/>
+      <c r="F54" s="110"/>
+      <c r="G54" s="110"/>
+      <c r="H54" s="110"/>
+      <c r="I54" s="110"/>
+      <c r="J54" s="110"/>
+      <c r="K54" s="110"/>
+    </row>
+    <row r="55" spans="2:11">
+      <c r="B55" s="114"/>
+      <c r="C55" s="110">
+        <v>520</v>
+      </c>
+      <c r="D55" s="110" t="s">
+        <v>74</v>
+      </c>
+      <c r="E55" s="110"/>
+      <c r="F55" s="110"/>
+      <c r="G55" s="110"/>
+      <c r="H55" s="110"/>
+      <c r="I55" s="110"/>
+      <c r="J55" s="110"/>
+      <c r="K55" s="110"/>
+    </row>
+    <row r="56" spans="2:11">
+      <c r="B56" s="114"/>
+      <c r="C56" s="110"/>
+      <c r="D56" s="110"/>
+      <c r="E56" s="110"/>
+      <c r="F56" s="110"/>
+      <c r="G56" s="110"/>
+      <c r="H56" s="110"/>
+      <c r="I56" s="110"/>
+      <c r="J56" s="110"/>
+      <c r="K56" s="110"/>
+    </row>
+    <row r="57" spans="2:11">
+      <c r="B57" s="114"/>
+      <c r="C57" s="110"/>
+      <c r="D57" s="110"/>
+      <c r="E57" s="110"/>
+      <c r="F57" s="110"/>
+      <c r="G57" s="110"/>
+      <c r="H57" s="110"/>
+      <c r="I57" s="110"/>
+      <c r="J57" s="110"/>
+      <c r="K57" s="110"/>
+    </row>
+    <row r="58" spans="2:11">
+      <c r="B58" s="114"/>
+      <c r="C58" s="110"/>
+      <c r="D58" s="110"/>
+      <c r="E58" s="110"/>
+      <c r="F58" s="110"/>
+      <c r="G58" s="110"/>
+      <c r="H58" s="110"/>
+      <c r="I58" s="110"/>
+      <c r="J58" s="110"/>
+      <c r="K58" s="110"/>
+    </row>
+    <row r="59" spans="2:11">
+      <c r="B59" s="114"/>
+      <c r="C59" s="110"/>
+      <c r="D59" s="110"/>
+      <c r="E59" s="110"/>
+      <c r="F59" s="110"/>
+      <c r="G59" s="110"/>
+      <c r="H59" s="110"/>
+      <c r="I59" s="110"/>
+      <c r="J59" s="110"/>
+      <c r="K59" s="110"/>
+    </row>
+    <row r="60" spans="2:11">
+      <c r="B60" s="114"/>
+      <c r="C60" s="110"/>
+      <c r="D60" s="110"/>
+      <c r="E60" s="110"/>
+      <c r="F60" s="110"/>
+      <c r="G60" s="110"/>
+      <c r="H60" s="110"/>
+      <c r="I60" s="110"/>
+      <c r="J60" s="110"/>
+      <c r="K60" s="110"/>
+    </row>
+    <row r="61" spans="2:11">
+      <c r="B61" s="114"/>
+    </row>
+    <row r="62" spans="2:11">
+      <c r="B62" s="114"/>
+    </row>
+    <row r="63" spans="2:11">
+      <c r="B63" s="114"/>
+    </row>
+    <row r="64" spans="2:11">
+      <c r="B64" s="114"/>
+    </row>
+    <row r="65" spans="2:10">
+      <c r="B65" s="114"/>
+    </row>
+    <row r="66" spans="2:10">
+      <c r="B66" s="114"/>
+    </row>
+    <row r="67" spans="2:10">
+      <c r="B67" s="114"/>
+      <c r="C67" s="117" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" ht="17" thickBot="1">
+      <c r="B68" s="114"/>
+      <c r="C68" s="117" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="113"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="117"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="113"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="113"/>
-      <c r="K8" s="113"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="117"/>
-      <c r="C9" s="113"/>
-      <c r="D9" s="113"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="113"/>
-      <c r="I9" s="113"/>
-      <c r="J9" s="113"/>
-      <c r="K9" s="113"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="117"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="113"/>
-      <c r="H10" s="113"/>
-      <c r="I10" s="113"/>
-      <c r="J10" s="113"/>
-      <c r="K10" s="113"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="117"/>
-      <c r="C11" s="113"/>
-      <c r="D11" s="113"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="113"/>
-      <c r="G11" s="113"/>
-      <c r="H11" s="113"/>
-      <c r="I11" s="113"/>
-      <c r="J11" s="113"/>
-      <c r="K11" s="113"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="117"/>
-      <c r="C12" s="113">
-        <v>12</v>
-      </c>
-      <c r="D12" s="113" t="s">
-        <v>79</v>
-      </c>
-      <c r="E12" s="113"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="113"/>
-      <c r="J12" s="113"/>
-      <c r="K12" s="113"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B13" s="117"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="113"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="117"/>
-      <c r="C14" s="113"/>
-      <c r="D14" s="113"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="113"/>
-      <c r="J14" s="113"/>
-      <c r="K14" s="113"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="117"/>
-      <c r="C15" s="113"/>
-      <c r="D15" s="113"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="113"/>
-      <c r="J15" s="113"/>
-      <c r="K15" s="113"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B16" s="117"/>
-      <c r="C16" s="113"/>
-      <c r="D16" s="113"/>
-      <c r="E16" s="113"/>
-      <c r="F16" s="113"/>
-      <c r="G16" s="113"/>
-      <c r="H16" s="113"/>
-      <c r="I16" s="113"/>
-      <c r="J16" s="113"/>
-      <c r="K16" s="113"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="117"/>
-      <c r="C17" s="113"/>
-      <c r="D17" s="113"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="113"/>
-      <c r="G17" s="113"/>
-      <c r="H17" s="113"/>
-      <c r="I17" s="113"/>
-      <c r="J17" s="113"/>
-      <c r="K17" s="113"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="117"/>
-      <c r="C18" s="113"/>
-      <c r="D18" s="113"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="113"/>
-      <c r="I18" s="113"/>
-      <c r="J18" s="113"/>
-      <c r="K18" s="113"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="117"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="113"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="113"/>
-      <c r="H19" s="113"/>
-      <c r="I19" s="113"/>
-      <c r="J19" s="113"/>
-      <c r="K19" s="113"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="117"/>
-      <c r="C20" s="113"/>
-      <c r="D20" s="113"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="113"/>
-      <c r="H20" s="113"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="113"/>
-      <c r="K20" s="113"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="117"/>
-      <c r="C21" s="113"/>
-      <c r="D21" s="113"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="113"/>
-      <c r="H21" s="113"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="113"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="117"/>
-      <c r="C22" s="113" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="113"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="113"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="113"/>
-      <c r="K22" s="113"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="117"/>
-      <c r="C23" s="113"/>
-      <c r="D23" s="113"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="113"/>
-      <c r="G23" s="113"/>
-      <c r="H23" s="113"/>
-      <c r="I23" s="113"/>
-      <c r="J23" s="113"/>
-      <c r="K23" s="113"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="117"/>
-      <c r="C24" s="113"/>
-      <c r="D24" s="113"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="113"/>
-      <c r="G24" s="113"/>
-      <c r="H24" s="113"/>
-      <c r="I24" s="113"/>
-      <c r="J24" s="113"/>
-      <c r="K24" s="113"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="117"/>
-      <c r="C25" s="113"/>
-      <c r="D25" s="113"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="113"/>
-      <c r="G25" s="113"/>
-      <c r="H25" s="113"/>
-      <c r="I25" s="113"/>
-      <c r="J25" s="113"/>
-      <c r="K25" s="113"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B26" s="117"/>
-      <c r="C26" s="113"/>
-      <c r="D26" s="113"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="113"/>
-      <c r="G26" s="113"/>
-      <c r="H26" s="113"/>
-      <c r="I26" s="113"/>
-      <c r="J26" s="113"/>
-      <c r="K26" s="113"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="117"/>
-      <c r="C27" s="113"/>
-      <c r="D27" s="113"/>
-      <c r="E27" s="113"/>
-      <c r="F27" s="113"/>
-      <c r="G27" s="113"/>
-      <c r="H27" s="113"/>
-      <c r="I27" s="113"/>
-      <c r="J27" s="113"/>
-      <c r="K27" s="113"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="117"/>
-      <c r="C28" s="113"/>
-      <c r="D28" s="113"/>
-      <c r="E28" s="113"/>
-      <c r="F28" s="113"/>
-      <c r="G28" s="113"/>
-      <c r="H28" s="113"/>
-      <c r="I28" s="113"/>
-      <c r="J28" s="113"/>
-      <c r="K28" s="113"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="117"/>
-      <c r="C29" s="113">
-        <v>168000</v>
-      </c>
-      <c r="D29" s="113" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="113"/>
-      <c r="F29" s="113"/>
-      <c r="G29" s="113"/>
-      <c r="H29" s="113"/>
-      <c r="I29" s="113"/>
-      <c r="J29" s="113"/>
-      <c r="K29" s="113"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="117"/>
-      <c r="C30" s="113"/>
-      <c r="D30" s="113"/>
-      <c r="E30" s="113"/>
-      <c r="F30" s="113"/>
-      <c r="G30" s="113"/>
-      <c r="H30" s="113"/>
-      <c r="I30" s="113"/>
-      <c r="J30" s="113"/>
-      <c r="K30" s="113"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="117"/>
-      <c r="C31" s="113"/>
-      <c r="D31" s="113"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="113"/>
-      <c r="G31" s="113"/>
-      <c r="H31" s="113"/>
-      <c r="I31" s="113"/>
-      <c r="J31" s="113"/>
-      <c r="K31" s="113"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="117"/>
-      <c r="C32" s="113"/>
-      <c r="D32" s="113"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="113"/>
-      <c r="G32" s="113"/>
-      <c r="H32" s="113"/>
-      <c r="I32" s="113"/>
-      <c r="J32" s="113"/>
-      <c r="K32" s="113"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B33" s="117"/>
-      <c r="C33" s="113"/>
-      <c r="D33" s="113"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="113"/>
-      <c r="G33" s="113"/>
-      <c r="H33" s="113"/>
-      <c r="I33" s="113"/>
-      <c r="J33" s="113"/>
-      <c r="K33" s="113"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B34" s="117"/>
-      <c r="C34" s="113"/>
-      <c r="D34" s="113"/>
-      <c r="E34" s="113"/>
-      <c r="F34" s="113"/>
-      <c r="G34" s="113"/>
-      <c r="H34" s="113"/>
-      <c r="I34" s="113"/>
-      <c r="J34" s="113"/>
-      <c r="K34" s="113"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B35" s="117"/>
-      <c r="C35" s="113"/>
-      <c r="D35" s="113"/>
-      <c r="E35" s="113"/>
-      <c r="F35" s="113"/>
-      <c r="G35" s="113"/>
-      <c r="H35" s="113"/>
-      <c r="I35" s="113"/>
-      <c r="J35" s="113"/>
-      <c r="K35" s="113"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B36" s="117"/>
-      <c r="C36" s="113"/>
-      <c r="D36" s="113"/>
-      <c r="E36" s="113"/>
-      <c r="F36" s="113"/>
-      <c r="G36" s="113"/>
-      <c r="H36" s="113"/>
-      <c r="I36" s="113"/>
-      <c r="J36" s="113"/>
-      <c r="K36" s="113"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B37" s="117"/>
-      <c r="C37" s="113"/>
-      <c r="D37" s="113"/>
-      <c r="E37" s="113"/>
-      <c r="F37" s="113"/>
-      <c r="G37" s="113"/>
-      <c r="H37" s="113"/>
-      <c r="I37" s="113"/>
-      <c r="J37" s="113"/>
-      <c r="K37" s="113"/>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B38" s="117"/>
-      <c r="C38" s="113"/>
-      <c r="D38" s="113"/>
-      <c r="E38" s="113"/>
-      <c r="F38" s="113"/>
-      <c r="G38" s="113"/>
-      <c r="H38" s="113"/>
-      <c r="I38" s="113"/>
-      <c r="J38" s="113"/>
-      <c r="K38" s="113"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B39" s="117"/>
-      <c r="C39" s="113"/>
-      <c r="D39" s="113"/>
-      <c r="E39" s="113"/>
-      <c r="F39" s="113"/>
-      <c r="G39" s="113"/>
-      <c r="H39" s="113"/>
-      <c r="I39" s="113"/>
-      <c r="J39" s="113"/>
-      <c r="K39" s="113"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B40" s="117"/>
-      <c r="C40" s="113"/>
-      <c r="D40" s="113"/>
-      <c r="E40" s="113"/>
-      <c r="F40" s="113"/>
-      <c r="G40" s="113"/>
-      <c r="H40" s="113"/>
-      <c r="I40" s="113"/>
-      <c r="J40" s="113"/>
-      <c r="K40" s="113"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B41" s="117"/>
-      <c r="C41" s="113" t="s">
-        <v>70</v>
-      </c>
-      <c r="D41" s="113"/>
-      <c r="E41" s="113"/>
-      <c r="F41" s="113"/>
-      <c r="G41" s="113"/>
-      <c r="H41" s="113"/>
-      <c r="I41" s="113"/>
-      <c r="J41" s="113"/>
-      <c r="K41" s="113"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B42" s="117"/>
-      <c r="C42" s="113" t="s">
-        <v>83</v>
-      </c>
-      <c r="D42" s="113"/>
-      <c r="E42" s="113"/>
-      <c r="F42" s="113"/>
-      <c r="G42" s="113"/>
-      <c r="H42" s="113"/>
-      <c r="I42" s="113"/>
-      <c r="J42" s="113"/>
-      <c r="K42" s="113"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B43" s="117"/>
-      <c r="C43" s="113"/>
-      <c r="D43" s="113"/>
-      <c r="E43" s="113"/>
-      <c r="F43" s="113"/>
-      <c r="G43" s="113"/>
-      <c r="H43" s="113"/>
-      <c r="I43" s="113"/>
-      <c r="J43" s="113"/>
-      <c r="K43" s="113"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B44" s="117"/>
-      <c r="C44" s="113"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="113"/>
-      <c r="F44" s="113"/>
-      <c r="G44" s="113"/>
-      <c r="H44" s="113"/>
-      <c r="I44" s="113"/>
-      <c r="J44" s="113"/>
-      <c r="K44" s="113"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B45" s="117"/>
-      <c r="C45" s="113"/>
-      <c r="D45" s="113"/>
-      <c r="E45" s="113"/>
-      <c r="F45" s="113"/>
-      <c r="G45" s="113"/>
-      <c r="H45" s="113"/>
-      <c r="I45" s="113"/>
-      <c r="J45" s="113"/>
-      <c r="K45" s="113"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B46" s="117"/>
-      <c r="C46" s="113"/>
-      <c r="D46" s="113"/>
-      <c r="E46" s="113"/>
-      <c r="F46" s="113"/>
-      <c r="G46" s="113"/>
-      <c r="H46" s="113"/>
-      <c r="I46" s="113"/>
-      <c r="J46" s="113"/>
-      <c r="K46" s="113"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B47" s="117"/>
-      <c r="C47" s="113">
-        <v>200621</v>
-      </c>
-      <c r="D47" s="113" t="s">
-        <v>21</v>
-      </c>
-      <c r="E47" s="113"/>
-      <c r="F47" s="113"/>
-      <c r="G47" s="113"/>
-      <c r="H47" s="113"/>
-      <c r="I47" s="113"/>
-      <c r="J47" s="113"/>
-      <c r="K47" s="113"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B48" s="117"/>
-      <c r="C48" s="113"/>
-      <c r="D48" s="113"/>
-      <c r="E48" s="113"/>
-      <c r="F48" s="113"/>
-      <c r="G48" s="113"/>
-      <c r="H48" s="113"/>
-      <c r="I48" s="113"/>
-      <c r="J48" s="113"/>
-      <c r="K48" s="113"/>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B49" s="117"/>
-      <c r="C49" s="113"/>
-      <c r="D49" s="113"/>
-      <c r="E49" s="113"/>
-      <c r="F49" s="113"/>
-      <c r="G49" s="113"/>
-      <c r="H49" s="113"/>
-      <c r="I49" s="113"/>
-      <c r="J49" s="113"/>
-      <c r="K49" s="113"/>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B50" s="117"/>
-      <c r="C50" s="113"/>
-      <c r="D50" s="113"/>
-      <c r="E50" s="113"/>
-      <c r="F50" s="113"/>
-      <c r="G50" s="113"/>
-      <c r="H50" s="113"/>
-      <c r="I50" s="113"/>
-      <c r="J50" s="113"/>
-      <c r="K50" s="113"/>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B51" s="117"/>
-      <c r="C51" s="113"/>
-      <c r="D51" s="113"/>
-      <c r="E51" s="113"/>
-      <c r="F51" s="113"/>
-      <c r="G51" s="113"/>
-      <c r="H51" s="113"/>
-      <c r="I51" s="113"/>
-      <c r="J51" s="113"/>
-      <c r="K51" s="113"/>
-    </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B52" s="117"/>
-      <c r="C52" s="113"/>
-      <c r="D52" s="113"/>
-      <c r="E52" s="113"/>
-      <c r="F52" s="113"/>
-      <c r="G52" s="113"/>
-      <c r="H52" s="113"/>
-      <c r="I52" s="113"/>
-      <c r="J52" s="113"/>
-      <c r="K52" s="113"/>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B53" s="117"/>
-      <c r="C53" s="113"/>
-      <c r="D53" s="113"/>
-      <c r="E53" s="113"/>
-      <c r="F53" s="113"/>
-      <c r="G53" s="113"/>
-      <c r="H53" s="113"/>
-      <c r="I53" s="113"/>
-      <c r="J53" s="113"/>
-      <c r="K53" s="113"/>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B54" s="117"/>
-      <c r="C54" s="113">
-        <v>2080</v>
-      </c>
-      <c r="D54" s="113" t="s">
-        <v>84</v>
-      </c>
-      <c r="E54" s="113"/>
-      <c r="F54" s="113"/>
-      <c r="G54" s="113"/>
-      <c r="H54" s="113"/>
-      <c r="I54" s="113"/>
-      <c r="J54" s="113"/>
-      <c r="K54" s="113"/>
-    </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B55" s="117"/>
-      <c r="C55" s="113">
-        <v>520</v>
-      </c>
-      <c r="D55" s="113" t="s">
-        <v>84</v>
-      </c>
-      <c r="E55" s="113"/>
-      <c r="F55" s="113"/>
-      <c r="G55" s="113"/>
-      <c r="H55" s="113"/>
-      <c r="I55" s="113"/>
-      <c r="J55" s="113"/>
-      <c r="K55" s="113"/>
-    </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B56" s="117"/>
-      <c r="C56" s="113"/>
-      <c r="D56" s="113"/>
-      <c r="E56" s="113"/>
-      <c r="F56" s="113"/>
-      <c r="G56" s="113"/>
-      <c r="H56" s="113"/>
-      <c r="I56" s="113"/>
-      <c r="J56" s="113"/>
-      <c r="K56" s="113"/>
-    </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B57" s="117"/>
-      <c r="C57" s="113"/>
-      <c r="D57" s="113"/>
-      <c r="E57" s="113"/>
-      <c r="F57" s="113"/>
-      <c r="G57" s="113"/>
-      <c r="H57" s="113"/>
-      <c r="I57" s="113"/>
-      <c r="J57" s="113"/>
-      <c r="K57" s="113"/>
-    </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B58" s="117"/>
-      <c r="C58" s="113"/>
-      <c r="D58" s="113"/>
-      <c r="E58" s="113"/>
-      <c r="F58" s="113"/>
-      <c r="G58" s="113"/>
-      <c r="H58" s="113"/>
-      <c r="I58" s="113"/>
-      <c r="J58" s="113"/>
-      <c r="K58" s="113"/>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B59" s="117"/>
-      <c r="C59" s="113"/>
-      <c r="D59" s="113"/>
-      <c r="E59" s="113"/>
-      <c r="F59" s="113"/>
-      <c r="G59" s="113"/>
-      <c r="H59" s="113"/>
-      <c r="I59" s="113"/>
-      <c r="J59" s="113"/>
-      <c r="K59" s="113"/>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B60" s="117"/>
-      <c r="C60" s="113"/>
-      <c r="D60" s="113"/>
-      <c r="E60" s="113"/>
-      <c r="F60" s="113"/>
-      <c r="G60" s="113"/>
-      <c r="H60" s="113"/>
-      <c r="I60" s="113"/>
-      <c r="J60" s="113"/>
-      <c r="K60" s="113"/>
-    </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B61" s="117"/>
-    </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B62" s="117"/>
-    </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B63" s="117"/>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B64" s="117"/>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B65" s="117"/>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B66" s="117"/>
-    </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B67" s="117"/>
-      <c r="C67" s="120" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="68" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="117"/>
-      <c r="C68" s="120" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="69" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="117"/>
-      <c r="D69" s="138" t="s">
-        <v>112</v>
-      </c>
-      <c r="E69" s="130">
+    </row>
+    <row r="69" spans="2:10" ht="17" thickBot="1">
+      <c r="B69" s="114"/>
+      <c r="D69" s="133" t="s">
+        <v>102</v>
+      </c>
+      <c r="E69" s="127">
         <v>5.22</v>
       </c>
-      <c r="F69" s="120" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B70" s="117"/>
-      <c r="E70" s="112">
+      <c r="F69" s="117" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10">
+      <c r="B70" s="114"/>
+      <c r="E70" s="109">
         <f>1/E69</f>
         <v>0.19157088122605365</v>
       </c>
-      <c r="F70" s="120" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B71" s="117"/>
-      <c r="D71" s="138"/>
-      <c r="F71" s="120"/>
-    </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B72" s="117"/>
-      <c r="F72" s="120"/>
-    </row>
-    <row r="73" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="117"/>
-    </row>
-    <row r="74" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="117"/>
-      <c r="D74" s="138" t="s">
+      <c r="F70" s="117" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10">
+      <c r="B71" s="114"/>
+      <c r="D71" s="133"/>
+      <c r="F71" s="117"/>
+    </row>
+    <row r="72" spans="2:10">
+      <c r="B72" s="114"/>
+      <c r="F72" s="117"/>
+    </row>
+    <row r="73" spans="2:10" ht="17" thickBot="1">
+      <c r="B73" s="114"/>
+    </row>
+    <row r="74" spans="2:10" ht="17" thickBot="1">
+      <c r="B74" s="114"/>
+      <c r="D74" s="133" t="s">
+        <v>103</v>
+      </c>
+      <c r="E74" s="127">
+        <v>1.396472478</v>
+      </c>
+      <c r="F74" s="133" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10">
+      <c r="B75" s="114"/>
+      <c r="E75" s="133" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10">
+      <c r="B76" s="114"/>
+    </row>
+    <row r="77" spans="2:10">
+      <c r="B77" s="114"/>
+      <c r="D77" s="133" t="s">
         <v>113</v>
       </c>
-      <c r="E74" s="130">
-        <v>1.396472478</v>
-      </c>
-      <c r="F74" s="138" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B75" s="117"/>
-      <c r="E75" s="138" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B76" s="117"/>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B77" s="117"/>
-      <c r="D77" s="138" t="s">
-        <v>123</v>
-      </c>
-      <c r="E77" s="112">
+      <c r="E77" s="109">
         <f>((E69*E80)+(E74*E82))/(E80+E82)</f>
         <v>2.5580839748480804</v>
       </c>
-      <c r="F77" s="138" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B78" s="117"/>
-      <c r="E78" s="112">
+      <c r="F77" s="133" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10">
+      <c r="B78" s="114"/>
+      <c r="E78" s="109">
         <f>1/E77</f>
         <v>0.39091758121794579</v>
       </c>
-      <c r="F78" s="138" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="79" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="117"/>
-    </row>
-    <row r="80" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="117"/>
-      <c r="D80" s="129" t="s">
-        <v>115</v>
-      </c>
-      <c r="E80" s="130">
+      <c r="F78" s="133" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" ht="17" thickBot="1">
+      <c r="B79" s="114"/>
+    </row>
+    <row r="80" spans="2:10" ht="17" thickBot="1">
+      <c r="B80" s="114"/>
+      <c r="D80" s="126" t="s">
+        <v>105</v>
+      </c>
+      <c r="E80" s="127">
         <v>7546</v>
       </c>
-      <c r="F80" s="138" t="s">
-        <v>119</v>
-      </c>
-      <c r="G80" s="138"/>
-      <c r="H80" s="138" t="s">
-        <v>96</v>
-      </c>
-      <c r="I80" s="138"/>
-      <c r="J80" s="138" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="81" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="117"/>
-      <c r="D81" s="129" t="s">
-        <v>116</v>
-      </c>
-      <c r="E81" s="130">
+      <c r="F80" s="133" t="s">
+        <v>109</v>
+      </c>
+      <c r="G80" s="133"/>
+      <c r="H80" s="133" t="s">
+        <v>86</v>
+      </c>
+      <c r="I80" s="133"/>
+      <c r="J80" s="133" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" ht="17" thickBot="1">
+      <c r="B81" s="114"/>
+      <c r="D81" s="126" t="s">
+        <v>106</v>
+      </c>
+      <c r="E81" s="127">
         <v>68900</v>
       </c>
-      <c r="F81" s="138" t="s">
-        <v>119</v>
-      </c>
-      <c r="G81" s="138"/>
-      <c r="H81" s="138" t="s">
-        <v>96</v>
-      </c>
-      <c r="I81" s="138"/>
-      <c r="J81" s="138"/>
-    </row>
-    <row r="82" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="117"/>
-      <c r="D82" s="129" t="s">
-        <v>117</v>
-      </c>
-      <c r="E82" s="130">
+      <c r="F81" s="133" t="s">
+        <v>109</v>
+      </c>
+      <c r="G81" s="133"/>
+      <c r="H81" s="133" t="s">
+        <v>86</v>
+      </c>
+      <c r="I81" s="133"/>
+      <c r="J81" s="133"/>
+    </row>
+    <row r="82" spans="2:10" ht="17" thickBot="1">
+      <c r="B82" s="114"/>
+      <c r="D82" s="126" t="s">
+        <v>107</v>
+      </c>
+      <c r="E82" s="127">
         <v>17292.2</v>
       </c>
-      <c r="F82" s="138" t="s">
-        <v>119</v>
-      </c>
-      <c r="G82" s="138"/>
-      <c r="H82" s="138" t="s">
+      <c r="F82" s="133" t="s">
+        <v>109</v>
+      </c>
+      <c r="G82" s="133"/>
+      <c r="H82" s="133" t="s">
+        <v>98</v>
+      </c>
+      <c r="I82" s="133"/>
+      <c r="J82" s="133" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" ht="17" thickBot="1">
+      <c r="B83" s="114"/>
+      <c r="D83" s="126" t="s">
         <v>108</v>
       </c>
-      <c r="I82" s="138"/>
-      <c r="J82" s="138" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="83" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="117"/>
-      <c r="D83" s="129" t="s">
-        <v>118</v>
-      </c>
-      <c r="E83" s="130">
+      <c r="E83" s="127">
         <v>1469</v>
       </c>
-      <c r="F83" s="138" t="s">
-        <v>119</v>
-      </c>
-      <c r="G83" s="138"/>
-      <c r="H83" s="138" t="s">
-        <v>108</v>
-      </c>
-      <c r="I83" s="138"/>
-      <c r="J83" s="138" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="84" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="117"/>
-    </row>
-    <row r="85" spans="2:10" s="127" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C85" s="128" t="s">
-        <v>96</v>
-      </c>
-      <c r="E85" s="130">
+      <c r="F83" s="133" t="s">
+        <v>109</v>
+      </c>
+      <c r="G83" s="133"/>
+      <c r="H83" s="133" t="s">
+        <v>98</v>
+      </c>
+      <c r="I83" s="133"/>
+      <c r="J83" s="133" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" ht="17" thickBot="1">
+      <c r="B84" s="114"/>
+    </row>
+    <row r="85" spans="2:10" s="124" customFormat="1" ht="17" thickBot="1">
+      <c r="C85" s="125" t="s">
+        <v>86</v>
+      </c>
+      <c r="E85" s="127">
         <f>E80+E82</f>
         <v>24838.2</v>
       </c>
-      <c r="F85" s="129" t="s">
-        <v>100</v>
-      </c>
-      <c r="G85" s="129"/>
-      <c r="H85" s="129"/>
-      <c r="I85" s="129"/>
-    </row>
-    <row r="86" spans="2:10" s="127" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C86" s="129"/>
-      <c r="E86" s="129">
+      <c r="F85" s="126" t="s">
+        <v>90</v>
+      </c>
+      <c r="G85" s="126"/>
+      <c r="H85" s="126"/>
+      <c r="I85" s="126"/>
+    </row>
+    <row r="86" spans="2:10" s="124" customFormat="1" ht="17" thickBot="1">
+      <c r="C86" s="126"/>
+      <c r="E86" s="126">
         <f>E85*1000000</f>
         <v>24838200000</v>
       </c>
-      <c r="F86" s="129" t="s">
-        <v>99</v>
-      </c>
-      <c r="G86" s="129"/>
-      <c r="H86" s="129"/>
-      <c r="I86" s="129"/>
-    </row>
-    <row r="87" spans="2:10" s="127" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C87" s="129"/>
-      <c r="E87" s="131">
+      <c r="F86" s="126" t="s">
+        <v>89</v>
+      </c>
+      <c r="G86" s="126"/>
+      <c r="H86" s="126"/>
+      <c r="I86" s="126"/>
+    </row>
+    <row r="87" spans="2:10" s="124" customFormat="1" ht="17" thickBot="1">
+      <c r="C87" s="126"/>
+      <c r="E87" s="128">
         <f>E81+E83</f>
         <v>70369</v>
       </c>
-      <c r="F87" s="129" t="s">
-        <v>102</v>
-      </c>
-      <c r="G87" s="129"/>
-      <c r="H87" s="129"/>
-      <c r="I87" s="129"/>
-    </row>
-    <row r="88" spans="2:10" s="127" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C88" s="129"/>
-      <c r="E88" s="132">
+      <c r="F87" s="126" t="s">
+        <v>92</v>
+      </c>
+      <c r="G87" s="126"/>
+      <c r="H87" s="126"/>
+      <c r="I87" s="126"/>
+    </row>
+    <row r="88" spans="2:10" s="124" customFormat="1">
+      <c r="C88" s="126"/>
+      <c r="E88" s="129">
         <f>E87*1000000</f>
         <v>70369000000</v>
       </c>
-      <c r="F88" s="129" t="s">
-        <v>101</v>
-      </c>
-      <c r="G88" s="129"/>
-      <c r="H88" s="129"/>
-      <c r="I88" s="129"/>
-    </row>
-    <row r="89" spans="2:10" s="127" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C89" s="129"/>
-      <c r="D89" s="129"/>
-      <c r="E89" s="129"/>
-      <c r="F89" s="129"/>
-      <c r="G89" s="129"/>
-      <c r="H89" s="129"/>
-      <c r="I89" s="129"/>
-    </row>
-    <row r="90" spans="2:10" s="127" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C90" s="129"/>
-      <c r="D90" s="129"/>
-      <c r="E90" s="133">
+      <c r="F88" s="126" t="s">
+        <v>91</v>
+      </c>
+      <c r="G88" s="126"/>
+      <c r="H88" s="126"/>
+      <c r="I88" s="126"/>
+    </row>
+    <row r="89" spans="2:10" s="124" customFormat="1">
+      <c r="C89" s="126"/>
+      <c r="D89" s="126"/>
+      <c r="E89" s="126"/>
+      <c r="F89" s="126"/>
+      <c r="G89" s="126"/>
+      <c r="H89" s="126"/>
+      <c r="I89" s="126"/>
+    </row>
+    <row r="90" spans="2:10" s="124" customFormat="1">
+      <c r="C90" s="126"/>
+      <c r="D90" s="126"/>
+      <c r="E90" s="130">
         <f>E88/E86</f>
         <v>2.8330957959916581</v>
       </c>
-      <c r="F90" s="129" t="s">
-        <v>103</v>
-      </c>
-      <c r="G90" s="129"/>
-      <c r="H90" s="129"/>
-      <c r="I90" s="129"/>
-    </row>
-    <row r="91" spans="2:10" s="127" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C91" s="129"/>
-      <c r="D91" s="129"/>
-      <c r="E91" s="129"/>
-      <c r="F91" s="129"/>
-      <c r="G91" s="129"/>
-      <c r="H91" s="129"/>
-      <c r="I91" s="129"/>
-    </row>
-    <row r="92" spans="2:10" s="127" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C92" s="129"/>
-      <c r="D92" s="129"/>
-      <c r="E92" s="129"/>
-      <c r="F92" s="129"/>
-      <c r="G92" s="129"/>
-      <c r="H92" s="129"/>
-      <c r="I92" s="129"/>
-    </row>
-    <row r="93" spans="2:10" s="127" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C93" s="129"/>
-      <c r="D93" s="129"/>
-      <c r="E93" s="129"/>
-      <c r="F93" s="129"/>
-      <c r="G93" s="129"/>
-      <c r="H93" s="129"/>
-      <c r="I93" s="129"/>
-    </row>
-    <row r="94" spans="2:10" s="127" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C94" s="129"/>
-      <c r="D94" s="129" t="str">
+      <c r="F90" s="126" t="s">
+        <v>93</v>
+      </c>
+      <c r="G90" s="126"/>
+      <c r="H90" s="126"/>
+      <c r="I90" s="126"/>
+    </row>
+    <row r="91" spans="2:10" s="124" customFormat="1">
+      <c r="C91" s="126"/>
+      <c r="D91" s="126"/>
+      <c r="E91" s="126"/>
+      <c r="F91" s="126"/>
+      <c r="G91" s="126"/>
+      <c r="H91" s="126"/>
+      <c r="I91" s="126"/>
+    </row>
+    <row r="92" spans="2:10" s="124" customFormat="1">
+      <c r="C92" s="126"/>
+      <c r="D92" s="126"/>
+      <c r="E92" s="126"/>
+      <c r="F92" s="126"/>
+      <c r="G92" s="126"/>
+      <c r="H92" s="126"/>
+      <c r="I92" s="126"/>
+    </row>
+    <row r="93" spans="2:10" s="124" customFormat="1">
+      <c r="C93" s="126"/>
+      <c r="D93" s="126"/>
+      <c r="E93" s="126"/>
+      <c r="F93" s="126"/>
+      <c r="G93" s="126"/>
+      <c r="H93" s="126"/>
+      <c r="I93" s="126"/>
+    </row>
+    <row r="94" spans="2:10" s="124" customFormat="1">
+      <c r="C94" s="126"/>
+      <c r="D94" s="126" t="str">
         <f>Dashboard!C11</f>
         <v>output.freight_tonne_kms</v>
       </c>
-      <c r="E94" s="129">
+      <c r="E94" s="126">
         <f>E90*E78</f>
         <v>1.1075069559277897</v>
       </c>
-      <c r="F94" s="129" t="s">
-        <v>104</v>
-      </c>
-      <c r="G94" s="129"/>
+      <c r="F94" s="126" t="s">
+        <v>94</v>
+      </c>
+      <c r="G94" s="126"/>
       <c r="H94" s="84" t="s">
-        <v>71</v>
-      </c>
-      <c r="I94" s="129"/>
-    </row>
-    <row r="95" spans="2:10" s="127" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C95" s="129"/>
-      <c r="D95" s="129"/>
-      <c r="E95" s="129"/>
-      <c r="F95" s="129"/>
-      <c r="G95" s="129"/>
+        <v>61</v>
+      </c>
+      <c r="I94" s="126"/>
+    </row>
+    <row r="95" spans="2:10" s="124" customFormat="1">
+      <c r="C95" s="126"/>
+      <c r="D95" s="126"/>
+      <c r="E95" s="126"/>
+      <c r="F95" s="126"/>
+      <c r="G95" s="126"/>
       <c r="H95" s="84"/>
-      <c r="I95" s="129"/>
-    </row>
-    <row r="96" spans="2:10" s="127" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C96" s="129"/>
-      <c r="D96" s="129"/>
-      <c r="E96" s="129"/>
-      <c r="F96" s="129"/>
-      <c r="G96" s="129"/>
+      <c r="I95" s="126"/>
+    </row>
+    <row r="96" spans="2:10" s="124" customFormat="1">
+      <c r="C96" s="126"/>
+      <c r="D96" s="126"/>
+      <c r="E96" s="126"/>
+      <c r="F96" s="126"/>
+      <c r="G96" s="126"/>
       <c r="H96" s="84"/>
-      <c r="I96" s="129"/>
-    </row>
-    <row r="97" spans="3:9" s="127" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C97" s="129"/>
-      <c r="D97" s="129"/>
-      <c r="E97" s="129"/>
-      <c r="F97" s="129"/>
-      <c r="G97" s="129"/>
-      <c r="H97" s="129"/>
-      <c r="I97" s="129"/>
-    </row>
-    <row r="98" spans="3:9" s="127" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="99" spans="3:9" s="127" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" spans="3:9" s="127" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="101" spans="3:9" s="127" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="102" spans="3:9" s="127" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="103" spans="3:9" s="127" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="104" spans="3:9" s="127" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="105" spans="3:9" s="127" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="106" spans="3:9" s="127" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="107" spans="3:9" s="127" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="108" spans="3:9" s="127" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="109" spans="3:9" s="127" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="110" spans="3:9" s="127" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="111" spans="3:9" s="127" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="112" spans="3:9" s="127" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="113" spans="2:2" s="127" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="114" spans="2:2" s="127" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="115" spans="2:2" s="127" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="116" spans="2:2" s="127" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="117" spans="2:2" s="127" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="118" spans="2:2" s="127" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="119" spans="2:2" s="127" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B120" s="117"/>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B121" s="117"/>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B122" s="117"/>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B123" s="117"/>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B124" s="117"/>
-    </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B125" s="117"/>
-    </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B126" s="117"/>
-    </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B127" s="117"/>
-    </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B128" s="117"/>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B129" s="117"/>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B130" s="117"/>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B131" s="117"/>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B132" s="117"/>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B133" s="117"/>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B134" s="117"/>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B135" s="117"/>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B136" s="117"/>
-    </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B137" s="117"/>
-    </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B138" s="117"/>
-    </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B139" s="117"/>
-    </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B140" s="117"/>
-    </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B141" s="117"/>
-    </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B142" s="117"/>
-    </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B143" s="117"/>
+      <c r="I96" s="126"/>
+    </row>
+    <row r="97" spans="3:9" s="124" customFormat="1">
+      <c r="C97" s="126"/>
+      <c r="D97" s="126"/>
+      <c r="E97" s="126"/>
+      <c r="F97" s="126"/>
+      <c r="G97" s="126"/>
+      <c r="H97" s="126"/>
+      <c r="I97" s="126"/>
+    </row>
+    <row r="98" spans="3:9" s="124" customFormat="1"/>
+    <row r="99" spans="3:9" s="124" customFormat="1"/>
+    <row r="100" spans="3:9" s="124" customFormat="1"/>
+    <row r="101" spans="3:9" s="124" customFormat="1"/>
+    <row r="102" spans="3:9" s="124" customFormat="1"/>
+    <row r="103" spans="3:9" s="124" customFormat="1"/>
+    <row r="104" spans="3:9" s="124" customFormat="1"/>
+    <row r="105" spans="3:9" s="124" customFormat="1"/>
+    <row r="106" spans="3:9" s="124" customFormat="1"/>
+    <row r="107" spans="3:9" s="124" customFormat="1"/>
+    <row r="108" spans="3:9" s="124" customFormat="1"/>
+    <row r="109" spans="3:9" s="124" customFormat="1"/>
+    <row r="110" spans="3:9" s="124" customFormat="1"/>
+    <row r="111" spans="3:9" s="124" customFormat="1"/>
+    <row r="112" spans="3:9" s="124" customFormat="1"/>
+    <row r="113" spans="2:2" s="124" customFormat="1"/>
+    <row r="114" spans="2:2" s="124" customFormat="1"/>
+    <row r="115" spans="2:2" s="124" customFormat="1"/>
+    <row r="116" spans="2:2" s="124" customFormat="1"/>
+    <row r="117" spans="2:2" s="124" customFormat="1"/>
+    <row r="118" spans="2:2" s="124" customFormat="1"/>
+    <row r="119" spans="2:2" s="124" customFormat="1"/>
+    <row r="120" spans="2:2">
+      <c r="B120" s="114"/>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" s="114"/>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="114"/>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" s="114"/>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" s="114"/>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="114"/>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="114"/>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" s="114"/>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" s="114"/>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="114"/>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="114"/>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="114"/>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="114"/>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="114"/>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="114"/>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" s="114"/>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" s="114"/>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="114"/>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" s="114"/>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" s="114"/>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" s="114"/>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" s="114"/>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" s="114"/>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" s="114"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
